--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -2733,10 +2733,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_web_chip_huafei",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3448,10 +3444,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,200,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10600000,6,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4040,16 +4032,10 @@
     <t>随机金币活动</t>
   </si>
   <si>
-    <t>"60万金币","10万-120万随机金币","话费碎片*20"</t>
-  </si>
-  <si>
     <t>"120万金币","20万-240万随机金币","记牌器3天"</t>
   </si>
   <si>
     <t>"30万金币","3万-48万随机金币","记牌器5天"</t>
-  </si>
-  <si>
-    <t>"480万金币","30万-360万随机金币","话费碎片*200"</t>
   </si>
   <si>
     <t>"480万金币","50万鱼币","锁定*5"</t>
@@ -5161,369 +5147,385 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","fish_coin","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_20y","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"fish_coin","prop_20y","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_50y","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"fish_coin","prop_50y","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_100y","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"fish_coin","prop_100y","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_5y","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"fish_coin","prop_5y","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"fish_coin","prop_3d_fish_lock",</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,50,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币","50福利券"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包小额用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>700000,50000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","10万金币","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币","20万金币","锁定*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","30万金币","锁定*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","20万金币","锁定*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3用户18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3用户48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7用户48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7用户198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上用户198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上用户498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","10万金币","5万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","20万金币","10万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包小额用户10元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包小额用户18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","20万金币","10万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","20万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","10万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","20万金币","10万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","80万金币","30万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万金币","50万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000,100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","20万金币","10万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得10万～50万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元幸运金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{150000,160000,2,160000,170000,7,170000,180000,1},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,500000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆幻影</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿芒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bg_light1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bg_light1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","50福利券","锁定*1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","10万-120万随机金币","锁定*20"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","30万-360万随机金币","锁定*50"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","shop_gold_sum","prop_3d_fish_lock"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","fish_coin","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_20y","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"fish_coin","prop_20y","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_50y","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"fish_coin","prop_50y","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_100y","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"fish_coin","prop_100y","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_5y","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"fish_coin","prop_5y","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"fish_coin","prop_3d_fish_lock",</t>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,50,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万金币","50福利券","锁定*1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万金币","50福利券"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包免费用户1元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包免费用户6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包小额用户6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包新用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包新用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>700000,50000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万金币","10万金币","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万金币","20万金币","锁定*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","30万金币","锁定*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","20万金币","锁定*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_3d_fish_lock",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包免费用户3元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包新用户6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v1-3用户18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v1-3用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v1-3用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v4-7用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v4-7用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v4-7用户198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v8以上用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v8以上用户198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v8以上用户498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","10万金币","5万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包小额用户10元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包小额用户18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","20万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","20万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","10万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","80万金币","30万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","150万金币","50万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000,100000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得10万～50万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元幸运金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{150000,160000,2,160000,170000,7,170000,180000,1},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,500000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆幻影</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪耀风暴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币使者</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙之力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿芒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_bg_light1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_bg_light1</t>
+    <t>4800000,50,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6088,7 +6090,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6124,7 +6126,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -6151,10 +6153,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -6181,10 +6183,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -6211,10 +6213,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -6313,7 +6315,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6426,7 +6428,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6468,10 +6470,10 @@
         <v>50</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AC2" s="2">
         <v>1</v>
@@ -6506,7 +6508,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6548,7 +6550,7 @@
         <v>53</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>51</v>
@@ -6586,7 +6588,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6628,7 +6630,7 @@
         <v>55</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>51</v>
@@ -6666,7 +6668,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6708,7 +6710,7 @@
         <v>57</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>51</v>
@@ -6746,7 +6748,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6788,7 +6790,7 @@
         <v>59</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>51</v>
@@ -6826,7 +6828,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6868,7 +6870,7 @@
         <v>61</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>51</v>
@@ -6906,7 +6908,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6948,7 +6950,7 @@
         <v>63</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>51</v>
@@ -6986,7 +6988,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -7028,7 +7030,7 @@
         <v>65</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>51</v>
@@ -7067,7 +7069,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7109,7 +7111,7 @@
         <v>67</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="Z10" s="11" t="s">
         <v>51</v>
@@ -7150,7 +7152,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7192,7 +7194,7 @@
         <v>72</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z11" s="11" t="s">
         <v>51</v>
@@ -7230,7 +7232,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7272,7 +7274,7 @@
         <v>75</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z12" s="11" t="s">
         <v>51</v>
@@ -7310,7 +7312,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7352,7 +7354,7 @@
         <v>78</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>51</v>
@@ -7390,7 +7392,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7432,7 +7434,7 @@
         <v>82</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>51</v>
@@ -7470,7 +7472,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7512,7 +7514,7 @@
         <v>86</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>51</v>
@@ -7550,7 +7552,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7592,7 +7594,7 @@
         <v>89</v>
       </c>
       <c r="Y16" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>51</v>
@@ -7622,7 +7624,7 @@
         <v>90</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>46</v>
@@ -7652,10 +7654,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7664,7 +7666,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>51</v>
@@ -7694,7 +7696,7 @@
         <v>90</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>46</v>
@@ -7724,10 +7726,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7736,7 +7738,7 @@
         <v>53</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Z18" s="11" t="s">
         <v>51</v>
@@ -7766,7 +7768,7 @@
         <v>90</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>46</v>
@@ -7796,10 +7798,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7808,7 +7810,7 @@
         <v>55</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z19" s="11" t="s">
         <v>51</v>
@@ -7838,7 +7840,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>46</v>
@@ -7868,10 +7870,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7880,7 +7882,7 @@
         <v>57</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>51</v>
@@ -7910,7 +7912,7 @@
         <v>90</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>46</v>
@@ -7940,10 +7942,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -7952,7 +7954,7 @@
         <v>59</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>51</v>
@@ -7982,7 +7984,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>46</v>
@@ -8012,10 +8014,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -8024,7 +8026,7 @@
         <v>91</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Z22" s="11" t="s">
         <v>51</v>
@@ -8054,7 +8056,7 @@
         <v>90</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>46</v>
@@ -8084,10 +8086,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -8096,7 +8098,7 @@
         <v>63</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z23" s="11" t="s">
         <v>51</v>
@@ -8135,7 +8137,7 @@
         <v>45</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>46</v>
@@ -8177,7 +8179,7 @@
         <v>559</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>51</v>
@@ -8202,10 +8204,10 @@
   <dimension ref="A1:AL326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H302" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
+      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8553,7 +8555,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8575,7 +8577,7 @@
         <v>90</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="S5" s="7"/>
@@ -8730,7 +8732,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8751,7 +8753,7 @@
         <v>130</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>565</v>
@@ -8998,7 +9000,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -9019,7 +9021,7 @@
         <v>143</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>565</v>
@@ -9075,7 +9077,7 @@
         <v>144</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V14" s="5">
         <v>99999</v>
@@ -9107,7 +9109,7 @@
         <v>146</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9163,7 +9165,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9187,7 +9189,7 @@
         <v>148</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V16" s="5">
         <v>99999</v>
@@ -9405,10 +9407,10 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>566</v>
@@ -9440,10 +9442,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9464,7 +9466,7 @@
         <v>161</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>566</v>
@@ -9502,7 +9504,7 @@
         <v>162</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9523,7 +9525,7 @@
         <v>161</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>566</v>
@@ -9558,10 +9560,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -9585,7 +9587,7 @@
         <v>163</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V23" s="5">
         <v>999999</v>
@@ -9641,7 +9643,7 @@
         <v>163</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V24" s="5">
         <v>999999</v>
@@ -9747,7 +9749,7 @@
         <v>90</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>565</v>
@@ -9800,7 +9802,7 @@
         <v>90</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>565</v>
@@ -9853,7 +9855,7 @@
         <v>90</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>565</v>
@@ -9906,7 +9908,7 @@
         <v>90</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>565</v>
@@ -9959,7 +9961,7 @@
         <v>90</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>565</v>
@@ -10012,7 +10014,7 @@
         <v>90</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>565</v>
@@ -10065,7 +10067,7 @@
         <v>90</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>565</v>
@@ -10118,7 +10120,7 @@
         <v>90</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>565</v>
@@ -10171,7 +10173,7 @@
         <v>90</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>565</v>
@@ -10224,7 +10226,7 @@
         <v>90</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>565</v>
@@ -10277,7 +10279,7 @@
         <v>90</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>565</v>
@@ -10330,7 +10332,7 @@
         <v>90</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>565</v>
@@ -10383,7 +10385,7 @@
         <v>90</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>565</v>
@@ -10436,7 +10438,7 @@
         <v>90</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>565</v>
@@ -10489,7 +10491,7 @@
         <v>90</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U40" s="5" t="s">
         <v>565</v>
@@ -10542,7 +10544,7 @@
         <v>90</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>565</v>
@@ -10595,7 +10597,7 @@
         <v>90</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>565</v>
@@ -10648,7 +10650,7 @@
         <v>90</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>565</v>
@@ -10701,7 +10703,7 @@
         <v>90</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>565</v>
@@ -10754,7 +10756,7 @@
         <v>90</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>565</v>
@@ -10807,7 +10809,7 @@
         <v>90</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>565</v>
@@ -10860,7 +10862,7 @@
         <v>90</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>565</v>
@@ -10913,7 +10915,7 @@
         <v>90</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>565</v>
@@ -10966,7 +10968,7 @@
         <v>90</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>565</v>
@@ -11019,7 +11021,7 @@
         <v>90</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>565</v>
@@ -11074,7 +11076,7 @@
         <v>219</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="S51" s="7"/>
@@ -11132,7 +11134,7 @@
         <v>219</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="S52" s="7"/>
@@ -11190,7 +11192,7 @@
         <v>219</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="S53" s="7"/>
@@ -11228,7 +11230,7 @@
         <v>220</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11249,7 +11251,7 @@
         <v>221</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>566</v>
@@ -11302,7 +11304,7 @@
         <v>223</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U55" s="5" t="s">
         <v>566</v>
@@ -11334,10 +11336,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11358,7 +11360,7 @@
         <v>224</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U56" s="22" t="s">
         <v>565</v>
@@ -11393,7 +11395,7 @@
         <v>225</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11414,7 +11416,7 @@
         <v>226</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>566</v>
@@ -11467,7 +11469,7 @@
         <v>90</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>565</v>
@@ -11520,7 +11522,7 @@
         <v>90</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>565</v>
@@ -11573,7 +11575,7 @@
         <v>90</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U60" s="5" t="s">
         <v>565</v>
@@ -11626,7 +11628,7 @@
         <v>90</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>565</v>
@@ -11679,7 +11681,7 @@
         <v>90</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>565</v>
@@ -11732,7 +11734,7 @@
         <v>90</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U63" s="5" t="s">
         <v>565</v>
@@ -11785,7 +11787,7 @@
         <v>90</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U64" s="5" t="s">
         <v>565</v>
@@ -11838,7 +11840,7 @@
         <v>90</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U65" s="5" t="s">
         <v>565</v>
@@ -11873,10 +11875,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -11909,10 +11911,10 @@
         <v>90</v>
       </c>
       <c r="AA66" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB66" s="10" t="s">
         <v>748</v>
-      </c>
-      <c r="AB66" s="10" t="s">
-        <v>749</v>
       </c>
       <c r="AF66" s="5">
         <v>1</v>
@@ -11956,7 +11958,7 @@
         <v>90</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U67" s="5" t="s">
         <v>565</v>
@@ -12012,7 +12014,7 @@
         <v>90</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U68" s="5" t="s">
         <v>565</v>
@@ -12068,7 +12070,7 @@
         <v>90</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>565</v>
@@ -12124,7 +12126,7 @@
         <v>90</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>565</v>
@@ -12180,7 +12182,7 @@
         <v>90</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>565</v>
@@ -12218,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12513,7 +12515,7 @@
         <v>249</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1119</v>
+        <v>1194</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12531,10 +12533,10 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1106</v>
+        <v>1197</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="U77" s="19" t="s">
         <v>565</v>
@@ -12569,7 +12571,7 @@
         <v>250</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12587,10 +12589,10 @@
         <v>600</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>625</v>
+        <v>1126</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U78" s="19" t="s">
         <v>565</v>
@@ -12608,10 +12610,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12631,10 +12633,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12655,7 +12657,7 @@
         <v>251</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U79" s="5" t="s">
         <v>565</v>
@@ -12673,10 +12675,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12696,10 +12698,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12720,7 +12722,7 @@
         <v>251</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U80" s="5" t="s">
         <v>565</v>
@@ -12738,13 +12740,13 @@
         <v>16</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12767,7 +12769,7 @@
         <v>253</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>911</v>
+        <v>1196</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12785,10 +12787,10 @@
         <v>4800</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>520</v>
+        <v>1198</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>758</v>
+        <v>1199</v>
       </c>
       <c r="U81" s="19" t="s">
         <v>565</v>
@@ -12803,10 +12805,10 @@
         <v>2552233600</v>
       </c>
       <c r="Z81" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12829,7 +12831,7 @@
         <v>254</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12850,7 +12852,7 @@
         <v>255</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="U82" s="5" t="s">
         <v>565</v>
@@ -12885,7 +12887,7 @@
         <v>256</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12903,10 +12905,10 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U83" s="5" t="s">
         <v>566</v>
@@ -12941,7 +12943,7 @@
         <v>257</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12959,10 +12961,10 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="U84" s="5" t="s">
         <v>566</v>
@@ -12994,10 +12996,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -13018,7 +13020,7 @@
         <v>251</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="U85" s="5" t="s">
         <v>567</v>
@@ -13050,10 +13052,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -13071,7 +13073,7 @@
         <v>4800</v>
       </c>
       <c r="U86" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V86" s="5">
         <v>99999999</v>
@@ -13100,10 +13102,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -13124,7 +13126,7 @@
         <v>251</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="U87" s="5" t="s">
         <v>567</v>
@@ -13159,7 +13161,7 @@
         <v>258</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13180,7 +13182,7 @@
         <v>259</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>566</v>
@@ -13215,7 +13217,7 @@
         <v>260</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13236,7 +13238,7 @@
         <v>130</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>566</v>
@@ -13271,7 +13273,7 @@
         <v>262</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13292,7 +13294,7 @@
         <v>223</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>566</v>
@@ -13327,7 +13329,7 @@
         <v>263</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13383,7 +13385,7 @@
         <v>264</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13401,10 +13403,10 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>566</v>
@@ -13439,7 +13441,7 @@
         <v>265</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13460,7 +13462,7 @@
         <v>266</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="U93" s="5" t="s">
         <v>566</v>
@@ -13513,7 +13515,7 @@
         <v>90</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>565</v>
@@ -13548,7 +13550,7 @@
         <v>268</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13569,7 +13571,7 @@
         <v>219</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="S95" s="7"/>
@@ -13607,7 +13609,7 @@
         <v>269</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13663,7 +13665,7 @@
         <v>270</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13681,13 +13683,13 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>271</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>272</v>
@@ -13725,7 +13727,7 @@
         <v>273</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13743,13 +13745,13 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>275</v>
@@ -13787,7 +13789,7 @@
         <v>276</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13805,13 +13807,13 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>277</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>278</v>
@@ -13849,7 +13851,7 @@
         <v>605</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13870,7 +13872,7 @@
         <v>606</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="U100" s="19" t="s">
         <v>566</v>
@@ -13912,7 +13914,7 @@
         <v>556</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13933,7 +13935,7 @@
         <v>607</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="U101" s="19" t="s">
         <v>566</v>
@@ -13975,7 +13977,7 @@
         <v>280</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -13996,7 +13998,7 @@
         <v>607</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="U102" s="19" t="s">
         <v>566</v>
@@ -14038,7 +14040,7 @@
         <v>605</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -14059,7 +14061,7 @@
         <v>607</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="U103" s="19" t="s">
         <v>566</v>
@@ -14101,7 +14103,7 @@
         <v>557</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14122,7 +14124,7 @@
         <v>607</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="U104" s="19" t="s">
         <v>566</v>
@@ -14164,7 +14166,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14185,7 +14187,7 @@
         <v>606</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="U105" s="19" t="s">
         <v>566</v>
@@ -14227,7 +14229,7 @@
         <v>604</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14248,7 +14250,7 @@
         <v>607</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="U106" s="19" t="s">
         <v>566</v>
@@ -14290,7 +14292,7 @@
         <v>280</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14311,7 +14313,7 @@
         <v>606</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="U107" s="19" t="s">
         <v>566</v>
@@ -14353,7 +14355,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14374,7 +14376,7 @@
         <v>607</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="U108" s="19" t="s">
         <v>566</v>
@@ -14441,7 +14443,7 @@
       </c>
       <c r="Q109" s="7"/>
       <c r="U109" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V109" s="5">
         <v>99999999</v>
@@ -14473,7 +14475,7 @@
         <v>286</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14491,13 +14493,13 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>287</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>288</v>
@@ -14535,7 +14537,7 @@
         <v>289</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14553,13 +14555,13 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>290</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>291</v>
@@ -14597,7 +14599,7 @@
         <v>292</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14615,13 +14617,13 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>293</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>294</v>
@@ -14659,7 +14661,7 @@
         <v>295</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14715,7 +14717,7 @@
         <v>298</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14771,7 +14773,7 @@
         <v>300</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14789,7 +14791,7 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>301</v>
@@ -14827,7 +14829,7 @@
         <v>302</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14845,13 +14847,13 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>303</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>304</v>
@@ -14889,7 +14891,7 @@
         <v>305</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14907,13 +14909,13 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>275</v>
@@ -14951,7 +14953,7 @@
         <v>306</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -15007,7 +15009,7 @@
         <v>308</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -15063,7 +15065,7 @@
         <v>311</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -15119,7 +15121,7 @@
         <v>314</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15178,7 +15180,7 @@
         <v>318</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15237,7 +15239,7 @@
         <v>321</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15296,7 +15298,7 @@
         <v>298</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15352,7 +15354,7 @@
         <v>324</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15408,7 +15410,7 @@
         <v>326</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15464,7 +15466,7 @@
         <v>328</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15547,7 +15549,7 @@
         <v>90</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="U128" s="5" t="s">
         <v>565</v>
@@ -15603,7 +15605,7 @@
         <v>90</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="U129" s="5" t="s">
         <v>565</v>
@@ -15638,7 +15640,7 @@
         <v>334</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15700,7 +15702,7 @@
         <v>252</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15762,7 +15764,7 @@
         <v>338</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15824,7 +15826,7 @@
         <v>340</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15845,7 +15847,7 @@
         <v>296</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="U133" s="5" t="s">
         <v>568</v>
@@ -15886,7 +15888,7 @@
         <v>341</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15907,7 +15909,7 @@
         <v>309</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="U134" s="5" t="s">
         <v>568</v>
@@ -15948,7 +15950,7 @@
         <v>343</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -15969,7 +15971,7 @@
         <v>312</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="U135" s="5" t="s">
         <v>568</v>
@@ -16010,7 +16012,7 @@
         <v>461</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -16031,7 +16033,7 @@
         <v>161</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="U136" s="5" t="s">
         <v>568</v>
@@ -16069,7 +16071,7 @@
         <v>462</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -16090,7 +16092,7 @@
         <v>161</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="U137" s="5" t="s">
         <v>568</v>
@@ -16128,7 +16130,7 @@
         <v>463</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16149,7 +16151,7 @@
         <v>161</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U138" s="5" t="s">
         <v>568</v>
@@ -16187,7 +16189,7 @@
         <v>464</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16208,7 +16210,7 @@
         <v>161</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U139" s="5" t="s">
         <v>568</v>
@@ -16246,7 +16248,7 @@
         <v>465</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16267,7 +16269,7 @@
         <v>161</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="U140" s="5" t="s">
         <v>568</v>
@@ -16305,7 +16307,7 @@
         <v>466</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16326,7 +16328,7 @@
         <v>161</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="U141" s="5" t="s">
         <v>568</v>
@@ -16364,7 +16366,7 @@
         <v>344</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16426,7 +16428,7 @@
         <v>345</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16488,7 +16490,7 @@
         <v>346</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16553,7 +16555,7 @@
         <v>348</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16574,13 +16576,13 @@
         <v>349</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>566</v>
@@ -16618,7 +16620,7 @@
         <v>350</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16639,13 +16641,13 @@
         <v>279</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>566</v>
@@ -16683,7 +16685,7 @@
         <v>351</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16704,13 +16706,13 @@
         <v>279</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="R147" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="U147" s="5" t="s">
         <v>566</v>
@@ -16748,7 +16750,7 @@
         <v>352</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16769,13 +16771,13 @@
         <v>279</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="U148" s="5" t="s">
         <v>566</v>
@@ -16813,7 +16815,7 @@
         <v>353</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16834,13 +16836,13 @@
         <v>279</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="U149" s="5" t="s">
         <v>566</v>
@@ -16875,7 +16877,7 @@
         <v>354</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16937,7 +16939,7 @@
         <v>355</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -16999,7 +17001,7 @@
         <v>356</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -17058,10 +17060,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -17082,13 +17084,13 @@
         <v>349</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="U153" s="5" t="s">
         <v>568</v>
@@ -17123,7 +17125,7 @@
         <v>357</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17144,13 +17146,13 @@
         <v>349</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="U154" s="5" t="s">
         <v>568</v>
@@ -17185,7 +17187,7 @@
         <v>358</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17206,13 +17208,13 @@
         <v>349</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>568</v>
@@ -17247,7 +17249,7 @@
         <v>359</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17268,13 +17270,13 @@
         <v>349</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="R156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="U156" s="5" t="s">
         <v>568</v>
@@ -17309,7 +17311,7 @@
         <v>360</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17330,13 +17332,13 @@
         <v>349</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="R157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="U157" s="5" t="s">
         <v>568</v>
@@ -17371,7 +17373,7 @@
         <v>361</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17433,7 +17435,7 @@
         <v>363</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17495,7 +17497,7 @@
         <v>365</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17557,7 +17559,7 @@
         <v>367</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17619,7 +17621,7 @@
         <v>368</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17681,7 +17683,7 @@
         <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17740,10 +17742,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17767,7 +17769,7 @@
         <v>221</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="U164" s="5" t="s">
         <v>565</v>
@@ -17808,7 +17810,7 @@
         <v>370</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17870,7 +17872,7 @@
         <v>371</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17932,7 +17934,7 @@
         <v>372</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17994,7 +17996,7 @@
         <v>373</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="J168" s="5">
         <v>-28</v>
@@ -18015,7 +18017,7 @@
         <v>374</v>
       </c>
       <c r="P168" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="U168" s="5" t="s">
         <v>565</v>
@@ -18083,7 +18085,7 @@
         <v>377</v>
       </c>
       <c r="U169" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V169" s="5">
         <v>9999999</v>
@@ -18121,7 +18123,7 @@
         <v>378</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="J170" s="5">
         <v>-28</v>
@@ -18142,10 +18144,10 @@
         <v>279</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U170" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V170" s="5">
         <v>9999999</v>
@@ -18180,10 +18182,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H171" s="19" t="s">
         <v>1122</v>
-      </c>
-      <c r="H171" s="19" t="s">
-        <v>1128</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18201,10 +18203,10 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U171" s="19" t="s">
         <v>612</v>
@@ -18245,10 +18247,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18266,10 +18268,10 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="U172" s="19" t="s">
         <v>568</v>
@@ -18310,10 +18312,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18331,10 +18333,10 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U173" s="19" t="s">
         <v>568</v>
@@ -18375,10 +18377,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18396,10 +18398,10 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="U174" s="19" t="s">
         <v>568</v>
@@ -18440,10 +18442,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18461,10 +18463,10 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>568</v>
@@ -18505,10 +18507,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18526,10 +18528,10 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="U176" s="19" t="s">
         <v>568</v>
@@ -18570,10 +18572,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18591,10 +18593,10 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U177" s="19" t="s">
         <v>568</v>
@@ -18635,10 +18637,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18656,10 +18658,10 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U178" s="19" t="s">
         <v>568</v>
@@ -18700,10 +18702,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18721,10 +18723,10 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U179" s="19" t="s">
         <v>568</v>
@@ -18765,10 +18767,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18786,10 +18788,10 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U180" s="19" t="s">
         <v>568</v>
@@ -18830,10 +18832,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18851,10 +18853,10 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U181" s="19" t="s">
         <v>568</v>
@@ -18895,10 +18897,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18916,10 +18918,10 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U182" s="19" t="s">
         <v>568</v>
@@ -18960,10 +18962,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -18981,10 +18983,10 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U183" s="19" t="s">
         <v>568</v>
@@ -19025,10 +19027,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -19046,10 +19048,10 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U184" s="19" t="s">
         <v>568</v>
@@ -19090,10 +19092,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19111,10 +19113,10 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="U185" s="19" t="s">
         <v>568</v>
@@ -19158,7 +19160,7 @@
         <v>328</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19179,13 +19181,13 @@
         <v>476</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="U186" s="5" t="s">
         <v>565</v>
@@ -19220,7 +19222,7 @@
         <v>379</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19285,7 +19287,7 @@
         <v>381</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19350,7 +19352,7 @@
         <v>383</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19415,7 +19417,7 @@
         <v>385</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19480,7 +19482,7 @@
         <v>387</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19545,7 +19547,7 @@
         <v>389</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19610,7 +19612,7 @@
         <v>391</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19675,7 +19677,7 @@
         <v>393</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19740,7 +19742,7 @@
         <v>395</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19805,7 +19807,7 @@
         <v>397</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19870,7 +19872,7 @@
         <v>399</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19935,7 +19937,7 @@
         <v>401</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -20000,7 +20002,7 @@
         <v>403</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -20065,7 +20067,7 @@
         <v>404</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -20130,7 +20132,7 @@
         <v>405</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20195,7 +20197,7 @@
         <v>379</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20260,7 +20262,7 @@
         <v>381</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20325,7 +20327,7 @@
         <v>383</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20390,7 +20392,7 @@
         <v>385</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20455,7 +20457,7 @@
         <v>387</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20520,7 +20522,7 @@
         <v>389</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20585,7 +20587,7 @@
         <v>391</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20650,7 +20652,7 @@
         <v>393</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20715,7 +20717,7 @@
         <v>395</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20780,7 +20782,7 @@
         <v>397</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20845,7 +20847,7 @@
         <v>399</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20910,7 +20912,7 @@
         <v>401</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20975,7 +20977,7 @@
         <v>403</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -21040,7 +21042,7 @@
         <v>404</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -21105,7 +21107,7 @@
         <v>405</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21170,7 +21172,7 @@
         <v>379</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21235,7 +21237,7 @@
         <v>381</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21300,7 +21302,7 @@
         <v>383</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21365,7 +21367,7 @@
         <v>385</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21430,7 +21432,7 @@
         <v>387</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21495,7 +21497,7 @@
         <v>389</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21560,7 +21562,7 @@
         <v>391</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21625,7 +21627,7 @@
         <v>393</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21690,7 +21692,7 @@
         <v>395</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21755,7 +21757,7 @@
         <v>397</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21820,7 +21822,7 @@
         <v>399</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21885,7 +21887,7 @@
         <v>401</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21950,7 +21952,7 @@
         <v>403</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -22015,7 +22017,7 @@
         <v>404</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -22080,7 +22082,7 @@
         <v>405</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -22145,7 +22147,7 @@
         <v>379</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22210,7 +22212,7 @@
         <v>381</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22275,7 +22277,7 @@
         <v>383</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22340,7 +22342,7 @@
         <v>385</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22405,7 +22407,7 @@
         <v>387</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22470,7 +22472,7 @@
         <v>389</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22535,7 +22537,7 @@
         <v>391</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22600,7 +22602,7 @@
         <v>393</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22665,7 +22667,7 @@
         <v>395</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22730,7 +22732,7 @@
         <v>397</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22795,7 +22797,7 @@
         <v>399</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22860,7 +22862,7 @@
         <v>401</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22925,7 +22927,7 @@
         <v>403</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22990,7 +22992,7 @@
         <v>404</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -23055,7 +23057,7 @@
         <v>405</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -23117,10 +23119,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23141,7 +23143,7 @@
         <v>161</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="U247" s="5" t="s">
         <v>568</v>
@@ -23185,7 +23187,7 @@
         <v>459</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23206,7 +23208,7 @@
         <v>161</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U248" s="5" t="s">
         <v>568</v>
@@ -23250,7 +23252,7 @@
         <v>460</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23271,7 +23273,7 @@
         <v>161</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="U249" s="5" t="s">
         <v>568</v>
@@ -23315,7 +23317,7 @@
         <v>474</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J250" s="5">
         <v>-28</v>
@@ -23336,7 +23338,7 @@
         <v>473</v>
       </c>
       <c r="P250" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U250" s="5" t="s">
         <v>565</v>
@@ -23377,7 +23379,7 @@
         <v>328</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23398,13 +23400,13 @@
         <v>513</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="U251" s="5" t="s">
         <v>565</v>
@@ -23445,7 +23447,7 @@
         <v>497</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23466,10 +23468,10 @@
         <v>473</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U252" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V252" s="5">
         <v>9999999</v>
@@ -23507,7 +23509,7 @@
         <v>498</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23528,7 +23530,7 @@
         <v>518</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="U253" s="5" t="s">
         <v>568</v>
@@ -23569,7 +23571,7 @@
         <v>515</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23590,7 +23592,7 @@
         <v>517</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>568</v>
@@ -23634,7 +23636,7 @@
         <v>510</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23655,7 +23657,7 @@
         <v>496</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U255" s="5" t="s">
         <v>568</v>
@@ -23699,7 +23701,7 @@
         <v>511</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23720,7 +23722,7 @@
         <v>529</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U256" s="5" t="s">
         <v>568</v>
@@ -23764,7 +23766,7 @@
         <v>519</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23785,13 +23787,13 @@
         <v>624</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="R257" s="5" t="s">
         <v>520</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="U257" s="5" t="s">
         <v>565</v>
@@ -23832,7 +23834,7 @@
         <v>551</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23897,7 +23899,7 @@
         <v>381</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23962,7 +23964,7 @@
         <v>383</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -24027,7 +24029,7 @@
         <v>385</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -24092,7 +24094,7 @@
         <v>387</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -24157,7 +24159,7 @@
         <v>389</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24222,7 +24224,7 @@
         <v>522</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24287,7 +24289,7 @@
         <v>523</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24352,7 +24354,7 @@
         <v>524</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24417,7 +24419,7 @@
         <v>525</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24482,7 +24484,7 @@
         <v>526</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24547,7 +24549,7 @@
         <v>527</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24612,7 +24614,7 @@
         <v>403</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24677,7 +24679,7 @@
         <v>404</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24742,7 +24744,7 @@
         <v>405</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24828,7 +24830,7 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U273" s="5" t="s">
         <v>565</v>
@@ -24865,7 +24867,7 @@
         <v>563</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24887,7 +24889,7 @@
         <v>564</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
@@ -24938,7 +24940,7 @@
         <v>569</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24959,7 +24961,7 @@
         <v>603</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="U275" s="5" t="s">
         <v>565</v>
@@ -25003,7 +25005,7 @@
         <v>570</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -25024,7 +25026,7 @@
         <v>582</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="U276" s="5" t="s">
         <v>568</v>
@@ -25068,7 +25070,7 @@
         <v>571</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -25089,7 +25091,7 @@
         <v>582</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="U277" s="5" t="s">
         <v>579</v>
@@ -25133,7 +25135,7 @@
         <v>572</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25154,7 +25156,7 @@
         <v>582</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U278" s="5" t="s">
         <v>580</v>
@@ -25198,7 +25200,7 @@
         <v>573</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25219,7 +25221,7 @@
         <v>582</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U279" s="5" t="s">
         <v>581</v>
@@ -25263,7 +25265,7 @@
         <v>574</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25284,7 +25286,7 @@
         <v>582</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="U280" s="5" t="s">
         <v>565</v>
@@ -25328,7 +25330,7 @@
         <v>575</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25349,7 +25351,7 @@
         <v>582</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U281" s="5" t="s">
         <v>568</v>
@@ -25393,7 +25395,7 @@
         <v>576</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25414,7 +25416,7 @@
         <v>582</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="U282" s="5" t="s">
         <v>579</v>
@@ -25458,7 +25460,7 @@
         <v>577</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25479,7 +25481,7 @@
         <v>582</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U283" s="5" t="s">
         <v>580</v>
@@ -25523,7 +25525,7 @@
         <v>578</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25544,7 +25546,7 @@
         <v>582</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U284" s="5" t="s">
         <v>581</v>
@@ -25609,7 +25611,7 @@
         <v>582</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="U285" s="5" t="s">
         <v>568</v>
@@ -25671,7 +25673,7 @@
         <v>582</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="U286" s="5" t="s">
         <v>568</v>
@@ -25733,7 +25735,7 @@
         <v>582</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="U287" s="5" t="s">
         <v>568</v>
@@ -25795,7 +25797,7 @@
         <v>582</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U288" s="5" t="s">
         <v>568</v>
@@ -25857,7 +25859,7 @@
         <v>582</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="U289" s="5" t="s">
         <v>568</v>
@@ -25919,7 +25921,7 @@
         <v>582</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="U290" s="5" t="s">
         <v>568</v>
@@ -25981,7 +25983,7 @@
         <v>582</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U291" s="5" t="s">
         <v>568</v>
@@ -26043,7 +26045,7 @@
         <v>582</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="U292" s="5" t="s">
         <v>568</v>
@@ -26102,10 +26104,10 @@
         <v>249800</v>
       </c>
       <c r="O293" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="U293" s="5" t="s">
         <v>568</v>
@@ -26143,10 +26145,10 @@
         <v>0</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26167,7 +26169,7 @@
         <v>623</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="U294" s="5" t="s">
         <v>568</v>
@@ -26205,10 +26207,10 @@
         <v>0</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26229,7 +26231,7 @@
         <v>623</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="U295" s="5" t="s">
         <v>568</v>
@@ -26267,10 +26269,10 @@
         <v>0</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26291,7 +26293,7 @@
         <v>623</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="U296" s="5" t="s">
         <v>568</v>
@@ -26329,10 +26331,10 @@
         <v>0</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26353,7 +26355,7 @@
         <v>623</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="U297" s="5" t="s">
         <v>568</v>
@@ -26391,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26415,7 +26417,7 @@
         <v>622</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="U298" s="5" t="s">
         <v>568</v>
@@ -26453,10 +26455,10 @@
         <v>0</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26477,7 +26479,7 @@
         <v>621</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="U299" s="5" t="s">
         <v>568</v>
@@ -26515,10 +26517,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26539,7 +26541,7 @@
         <v>621</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="U300" s="5" t="s">
         <v>568</v>
@@ -26577,10 +26579,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26601,7 +26603,7 @@
         <v>621</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="U301" s="5" t="s">
         <v>568</v>
@@ -26639,10 +26641,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26663,7 +26665,7 @@
         <v>621</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="U302" s="5" t="s">
         <v>568</v>
@@ -26701,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26725,7 +26727,7 @@
         <v>621</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="U303" s="5" t="s">
         <v>568</v>
@@ -26763,10 +26765,10 @@
         <v>0</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26787,7 +26789,7 @@
         <v>621</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="U304" s="5" t="s">
         <v>568</v>
@@ -26825,10 +26827,10 @@
         <v>0</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26849,7 +26851,7 @@
         <v>621</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="U305" s="5" t="s">
         <v>568</v>
@@ -26887,10 +26889,10 @@
         <v>0</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26911,7 +26913,7 @@
         <v>621</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="U306" s="5" t="s">
         <v>568</v>
@@ -26949,10 +26951,10 @@
         <v>0</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26973,7 +26975,7 @@
         <v>621</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="U307" s="5" t="s">
         <v>568</v>
@@ -27011,10 +27013,10 @@
         <v>0</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -27032,10 +27034,10 @@
         <v>49800</v>
       </c>
       <c r="O308" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="U308" s="5" t="s">
         <v>568</v>
@@ -27073,10 +27075,10 @@
         <v>0</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -27094,10 +27096,10 @@
         <v>0</v>
       </c>
       <c r="O309" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="U309" s="5" t="s">
         <v>568</v>
@@ -27135,10 +27137,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27156,10 +27158,10 @@
         <v>0</v>
       </c>
       <c r="O310" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="U310" s="5" t="s">
         <v>568</v>
@@ -27197,10 +27199,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27218,10 +27220,10 @@
         <v>600</v>
       </c>
       <c r="O311" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="U311" s="5" t="s">
         <v>568</v>
@@ -27259,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27280,13 +27282,13 @@
         <v>1800</v>
       </c>
       <c r="O312" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="U312" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="V312" s="5">
         <v>9999999</v>
@@ -27321,10 +27323,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27342,13 +27344,13 @@
         <v>4800</v>
       </c>
       <c r="O313" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="U313" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="V313" s="5">
         <v>9999999</v>
@@ -27383,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27404,13 +27406,13 @@
         <v>9800</v>
       </c>
       <c r="O314" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U314" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="V314" s="5">
         <v>9999999</v>
@@ -27445,10 +27447,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27466,13 +27468,13 @@
         <v>19800</v>
       </c>
       <c r="O315" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="U315" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V315" s="5">
         <v>9999999</v>
@@ -27507,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J316" s="5">
         <v>-31</v>
@@ -27528,13 +27530,13 @@
         <v>0</v>
       </c>
       <c r="O316" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P316" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U316" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V316" s="5">
         <v>20</v>
@@ -27569,10 +27571,10 @@
         <v>0</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J317" s="5">
         <v>-31</v>
@@ -27590,13 +27592,13 @@
         <v>0</v>
       </c>
       <c r="O317" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P317" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U317" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V317" s="5">
         <v>20</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J318" s="5">
         <v>-31</v>
@@ -27652,13 +27654,13 @@
         <v>0</v>
       </c>
       <c r="O318" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P318" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U318" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V318" s="5">
         <v>9</v>
@@ -27693,10 +27695,10 @@
         <v>1</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27714,10 +27716,10 @@
         <v>4800</v>
       </c>
       <c r="O319" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="U319" s="5" t="s">
         <v>567</v>
@@ -27749,10 +27751,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27770,10 +27772,10 @@
         <v>9600</v>
       </c>
       <c r="O320" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="U320" s="5" t="s">
         <v>567</v>
@@ -27805,10 +27807,10 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27820,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="M321" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N321" s="5">
         <v>9800</v>
       </c>
       <c r="O321" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="U321" s="5" t="s">
         <v>565</v>
@@ -27867,10 +27869,10 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H322" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="H322" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="J322" s="5">
         <v>-25</v>
@@ -27882,16 +27884,16 @@
         <v>0</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N322" s="5">
         <v>19800</v>
       </c>
       <c r="O322" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P322" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U322" s="5" t="s">
         <v>565</v>
@@ -27932,10 +27934,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27954,10 +27956,10 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
@@ -28014,10 +28016,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -28036,10 +28038,10 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
@@ -28096,10 +28098,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28118,10 +28120,10 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
@@ -28175,10 +28177,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28190,13 +28192,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28208,13 +28210,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="AB326" s="42" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28327,7 +28329,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -28439,7 +28441,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -28679,10 +28681,10 @@
         <v>424</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -28739,7 +28741,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28783,16 +28785,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>427</v>
@@ -28848,16 +28850,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>427</v>
@@ -28913,16 +28915,16 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>427</v>
@@ -28978,16 +28980,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>427</v>
@@ -29043,16 +29045,16 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>427</v>
@@ -29108,16 +29110,16 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>427</v>
@@ -29170,16 +29172,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>427</v>
@@ -29232,13 +29234,13 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U9" s="11" t="s">
         <v>427</v>
@@ -29250,7 +29252,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29294,13 +29296,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>427</v>
@@ -29312,7 +29314,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29356,16 +29358,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>427</v>
@@ -29421,16 +29423,16 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U12" s="11" t="s">
         <v>427</v>
@@ -29486,16 +29488,16 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>429</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>427</v>
@@ -29551,16 +29553,16 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>430</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>427</v>
@@ -29616,14 +29618,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
         <v>100</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U15" s="11" t="s">
         <v>427</v>
@@ -29635,7 +29637,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29682,16 +29684,16 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>427</v>
@@ -29744,16 +29746,16 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>427</v>
@@ -29806,16 +29808,16 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>427</v>
@@ -29868,16 +29870,16 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>427</v>
@@ -29930,16 +29932,16 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>427</v>
@@ -29992,16 +29994,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U21" s="35" t="s">
         <v>427</v>
@@ -30054,14 +30056,14 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
         <v>5000</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>427</v>
@@ -30114,14 +30116,14 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
         <v>1000</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>427</v>
@@ -30177,14 +30179,14 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
         <v>100</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>427</v>
@@ -30196,7 +30198,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30243,16 +30245,16 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>562</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>427</v>
@@ -30280,7 +30282,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30520,7 +30522,7 @@
       </c>
       <c r="J4" s="15"/>
       <c r="O4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12">
         <v>4</v>
@@ -30723,7 +30725,7 @@
         <v>457</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>441</v>
@@ -31078,7 +31080,7 @@
         <v>609</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="F17" s="25">
         <v>2000</v>
@@ -31136,7 +31138,7 @@
         <v>20000</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31183,7 +31185,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>500</v>
@@ -31201,16 +31203,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T20" s="20">
         <v>300000</v>
       </c>
       <c r="U20" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="V20" s="21" t="s">
         <v>677</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -31221,7 +31223,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>500</v>
@@ -31239,13 +31241,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T21" s="20">
         <v>300000</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V21" s="21" t="s">
         <v>483</v>
@@ -31259,10 +31261,10 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F22" s="12">
         <v>10000</v>
@@ -31277,16 +31279,16 @@
         <v>0</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="T22" s="12">
         <v>10000</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31297,10 +31299,10 @@
         <v>29</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F23" s="12">
         <v>20000</v>
@@ -31315,16 +31317,16 @@
         <v>0</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="T23" s="12">
         <v>20000</v>
       </c>
       <c r="U23" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="V23" s="24" t="s">
         <v>1193</v>
-      </c>
-      <c r="V23" s="24" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31335,10 +31337,10 @@
         <v>30</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F24" s="12">
         <v>50000</v>
@@ -31353,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="T24" s="12">
         <v>50000</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="V24" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31373,10 +31375,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F25" s="12">
         <v>100000</v>
@@ -31391,16 +31393,16 @@
         <v>0</v>
       </c>
       <c r="Q25" s="43" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="T25" s="12">
         <v>100000</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31411,10 +31413,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F26" s="12">
         <v>150000</v>
@@ -31429,16 +31431,16 @@
         <v>0</v>
       </c>
       <c r="Q26" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T26" s="12">
         <v>150000</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31449,10 +31451,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F27" s="12">
         <v>300000</v>
@@ -31467,16 +31469,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="43" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="T27" s="12">
         <v>300000</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31487,10 +31489,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F28" s="12">
         <v>20000</v>
@@ -31505,16 +31507,16 @@
         <v>0</v>
       </c>
       <c r="Q28" s="43" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="T28" s="12">
         <v>20000</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31525,10 +31527,10 @@
         <v>35</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F29" s="12">
         <v>50000</v>
@@ -31543,16 +31545,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="43" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="T29" s="12">
         <v>50000</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="V29" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31563,10 +31565,10 @@
         <v>36</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F30" s="12">
         <v>100000</v>
@@ -31581,16 +31583,16 @@
         <v>0</v>
       </c>
       <c r="Q30" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T30" s="12">
         <v>100000</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V30" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="1204">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -3624,38 +3624,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900000,100000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,100000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10100000,200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10100000,200000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20600000,300000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20600000,300000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51300000,500000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>680000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5213,10 +5181,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>700000,50000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"10万金币","10万金币","锁定*1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5229,10 +5193,266 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3用户18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3用户48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7用户48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7用户198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上用户198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上用户498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包小额用户10元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包小额用户18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得10万～50万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元幸运金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{150000,160000,2,160000,170000,7,170000,180000,1},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,500000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆幻影</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿芒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bg_light1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bg_light1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","50福利券","锁定*1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","10万-120万随机金币","锁定*20"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","30万-360万随机金币","锁定*50"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"60万金币","20万金币","锁定*3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"100万金币","20万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","20万金币","锁定*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","20万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","锁定*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","锁定*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","80万金币","锁定*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","80万金币","锁定*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万金币","锁定*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_3d_fish_lock",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5241,291 +5461,87 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>每日特惠礼包免费用户3元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包新用户6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v1-3用户18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v1-3用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v1-3用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v4-7用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v4-7用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v4-7用户198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v8以上用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v8以上用户198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包v8以上用户498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","10万金币","5万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包小额用户10元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包小额用户18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","20万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","20万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","10万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","80万金币","30万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","150万金币","50万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000,100000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","10万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","20万小游戏币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得10万～50万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元幸运金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{150000,160000,2,160000,170000,7,170000,180000,1},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,500000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆幻影</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪耀风暴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币使者</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙之力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿芒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_bg_light1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_bg_light1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万金币","50福利券","锁定*1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","10万-120万随机金币","锁定*20"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","30万-360万随机金币","锁定*50"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","shop_gold_sum","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_3d_fish_lock",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,50,</t>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51300000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","20万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","20万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","10万金币","锁定*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>700000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6315,7 +6331,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6428,7 +6444,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6508,7 +6524,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6588,7 +6604,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6668,7 +6684,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6748,7 +6764,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6828,7 +6844,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6908,7 +6924,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6988,7 +7004,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -7069,7 +7085,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7152,7 +7168,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7232,7 +7248,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7312,7 +7328,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7392,7 +7408,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7472,7 +7488,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7552,7 +7568,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7654,10 +7670,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7726,10 +7742,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7798,10 +7814,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7870,10 +7886,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7942,10 +7958,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -8014,10 +8030,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -8086,10 +8102,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -8203,11 +8219,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomRight" activeCell="H323" sqref="H323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8555,7 +8571,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8732,7 +8748,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -9000,7 +9016,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -9109,7 +9125,7 @@
         <v>146</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9165,7 +9181,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9407,7 +9423,7 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>725</v>
@@ -9442,10 +9458,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9504,7 +9520,7 @@
         <v>162</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9560,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -11230,7 +11246,7 @@
         <v>220</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11251,7 +11267,7 @@
         <v>221</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>566</v>
@@ -11336,10 +11352,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11395,7 +11411,7 @@
         <v>225</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11875,10 +11891,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -12220,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12515,7 +12531,7 @@
         <v>249</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1194</v>
+        <v>1165</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12533,10 +12549,10 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1197</v>
+        <v>1168</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="U77" s="19" t="s">
         <v>565</v>
@@ -12571,7 +12587,7 @@
         <v>250</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>1195</v>
+        <v>1166</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12589,7 +12605,7 @@
         <v>600</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="P78" s="19" t="s">
         <v>754</v>
@@ -12610,10 +12626,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12633,10 +12649,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12675,10 +12691,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12698,10 +12714,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12743,10 +12759,10 @@
         <v>625</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12769,7 +12785,7 @@
         <v>253</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>1196</v>
+        <v>1167</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12787,10 +12803,10 @@
         <v>4800</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>1198</v>
+        <v>1169</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1199</v>
+        <v>1170</v>
       </c>
       <c r="U81" s="19" t="s">
         <v>565</v>
@@ -12808,7 +12824,7 @@
         <v>625</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12831,7 +12847,7 @@
         <v>254</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12887,7 +12903,7 @@
         <v>256</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12905,7 +12921,7 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>758</v>
@@ -12943,7 +12959,7 @@
         <v>257</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12961,7 +12977,7 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>759</v>
@@ -12996,10 +13012,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -13052,10 +13068,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -13102,10 +13118,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -13161,7 +13177,7 @@
         <v>258</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13217,7 +13233,7 @@
         <v>260</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13273,7 +13289,7 @@
         <v>262</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13329,7 +13345,7 @@
         <v>263</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13385,7 +13401,7 @@
         <v>264</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13403,7 +13419,7 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>765</v>
@@ -13441,7 +13457,7 @@
         <v>265</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13550,7 +13566,7 @@
         <v>268</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13609,7 +13625,7 @@
         <v>269</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13665,7 +13681,7 @@
         <v>270</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13683,13 +13699,13 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>271</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>272</v>
@@ -13727,7 +13743,7 @@
         <v>273</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13745,13 +13761,13 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>275</v>
@@ -13789,7 +13805,7 @@
         <v>276</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13807,13 +13823,13 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>277</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>278</v>
@@ -13851,7 +13867,7 @@
         <v>605</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13914,7 +13930,7 @@
         <v>556</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13977,7 +13993,7 @@
         <v>280</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -14040,7 +14056,7 @@
         <v>605</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -14103,7 +14119,7 @@
         <v>557</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14166,7 +14182,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14229,7 +14245,7 @@
         <v>604</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14292,7 +14308,7 @@
         <v>280</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14355,7 +14371,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14475,7 +14491,7 @@
         <v>286</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14493,13 +14509,13 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>287</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>288</v>
@@ -14537,7 +14553,7 @@
         <v>289</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14555,13 +14571,13 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>290</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>291</v>
@@ -14599,7 +14615,7 @@
         <v>292</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14617,13 +14633,13 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>293</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>294</v>
@@ -14661,7 +14677,7 @@
         <v>295</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14717,7 +14733,7 @@
         <v>298</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14773,7 +14789,7 @@
         <v>300</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14791,7 +14807,7 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>301</v>
@@ -14829,7 +14845,7 @@
         <v>302</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14847,13 +14863,13 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>303</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>304</v>
@@ -14891,7 +14907,7 @@
         <v>305</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14909,13 +14925,13 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>275</v>
@@ -14953,7 +14969,7 @@
         <v>306</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -15009,7 +15025,7 @@
         <v>308</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -15065,7 +15081,7 @@
         <v>311</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -15121,7 +15137,7 @@
         <v>314</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15180,7 +15196,7 @@
         <v>318</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15239,7 +15255,7 @@
         <v>321</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15298,7 +15314,7 @@
         <v>298</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15354,7 +15370,7 @@
         <v>324</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15410,7 +15426,7 @@
         <v>326</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15466,7 +15482,7 @@
         <v>328</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15640,7 +15656,7 @@
         <v>334</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15702,7 +15718,7 @@
         <v>252</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15764,7 +15780,7 @@
         <v>338</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15826,7 +15842,7 @@
         <v>340</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15888,7 +15904,7 @@
         <v>341</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15950,7 +15966,7 @@
         <v>343</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -16012,7 +16028,7 @@
         <v>461</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -16071,7 +16087,7 @@
         <v>462</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -16130,7 +16146,7 @@
         <v>463</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16189,7 +16205,7 @@
         <v>464</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16248,7 +16264,7 @@
         <v>465</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16307,7 +16323,7 @@
         <v>466</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16366,7 +16382,7 @@
         <v>344</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16428,7 +16444,7 @@
         <v>345</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16490,7 +16506,7 @@
         <v>346</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16555,7 +16571,7 @@
         <v>348</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16582,7 +16598,7 @@
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>566</v>
@@ -16620,7 +16636,7 @@
         <v>350</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16647,7 +16663,7 @@
         <v>161</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>566</v>
@@ -16685,7 +16701,7 @@
         <v>351</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16712,7 +16728,7 @@
         <v>161</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="U147" s="5" t="s">
         <v>566</v>
@@ -16750,7 +16766,7 @@
         <v>352</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16777,7 +16793,7 @@
         <v>161</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="U148" s="5" t="s">
         <v>566</v>
@@ -16815,7 +16831,7 @@
         <v>353</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16842,7 +16858,7 @@
         <v>161</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="U149" s="5" t="s">
         <v>566</v>
@@ -16877,7 +16893,7 @@
         <v>354</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16939,7 +16955,7 @@
         <v>355</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -17001,7 +17017,7 @@
         <v>356</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -17060,10 +17076,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -17090,7 +17106,7 @@
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="U153" s="5" t="s">
         <v>568</v>
@@ -17125,7 +17141,7 @@
         <v>357</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17152,7 +17168,7 @@
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="U154" s="5" t="s">
         <v>568</v>
@@ -17187,7 +17203,7 @@
         <v>358</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17214,7 +17230,7 @@
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>568</v>
@@ -17249,7 +17265,7 @@
         <v>359</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17276,7 +17292,7 @@
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="U156" s="5" t="s">
         <v>568</v>
@@ -17311,7 +17327,7 @@
         <v>360</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17338,7 +17354,7 @@
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="U157" s="5" t="s">
         <v>568</v>
@@ -17373,7 +17389,7 @@
         <v>361</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17435,7 +17451,7 @@
         <v>363</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17497,7 +17513,7 @@
         <v>365</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17559,7 +17575,7 @@
         <v>367</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17621,7 +17637,7 @@
         <v>368</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17683,7 +17699,7 @@
         <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17742,10 +17758,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17769,7 +17785,7 @@
         <v>221</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="U164" s="5" t="s">
         <v>565</v>
@@ -17810,7 +17826,7 @@
         <v>370</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17872,7 +17888,7 @@
         <v>371</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17934,7 +17950,7 @@
         <v>372</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17996,7 +18012,7 @@
         <v>373</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J168" s="5">
         <v>-28</v>
@@ -18123,7 +18139,7 @@
         <v>378</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="J170" s="5">
         <v>-28</v>
@@ -18182,10 +18198,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18203,7 +18219,7 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1126</v>
+        <v>1181</v>
       </c>
       <c r="P171" s="19" t="s">
         <v>798</v>
@@ -18247,10 +18263,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18268,7 +18284,7 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="P172" s="19" t="s">
         <v>799</v>
@@ -18312,10 +18328,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18333,7 +18349,7 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="P173" s="19" t="s">
         <v>800</v>
@@ -18377,10 +18393,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1125</v>
+        <v>1171</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18398,7 +18414,7 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1127</v>
+        <v>1203</v>
       </c>
       <c r="P174" s="19" t="s">
         <v>801</v>
@@ -18442,10 +18458,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1148</v>
+        <v>1172</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18463,10 +18479,10 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1144</v>
+        <v>1116</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1157</v>
+        <v>1187</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>568</v>
@@ -18507,10 +18523,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18528,10 +18544,10 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>802</v>
+        <v>1188</v>
       </c>
       <c r="U176" s="19" t="s">
         <v>568</v>
@@ -18572,10 +18588,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1150</v>
+        <v>1174</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18593,10 +18609,10 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1144</v>
+        <v>1182</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>803</v>
+        <v>1189</v>
       </c>
       <c r="U177" s="19" t="s">
         <v>568</v>
@@ -18637,10 +18653,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1151</v>
+        <v>1175</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18658,10 +18674,10 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1144</v>
+        <v>1183</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>804</v>
+        <v>1190</v>
       </c>
       <c r="U178" s="19" t="s">
         <v>568</v>
@@ -18702,10 +18718,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1152</v>
+        <v>1176</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18723,10 +18739,10 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1144</v>
+        <v>1182</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>805</v>
+        <v>1191</v>
       </c>
       <c r="U179" s="19" t="s">
         <v>568</v>
@@ -18767,10 +18783,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1140</v>
+        <v>1197</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18788,10 +18804,10 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1144</v>
+        <v>1116</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>804</v>
+        <v>1192</v>
       </c>
       <c r="U180" s="19" t="s">
         <v>568</v>
@@ -18832,10 +18848,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1153</v>
+        <v>1177</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18853,10 +18869,10 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1145</v>
+        <v>1184</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>806</v>
+        <v>1191</v>
       </c>
       <c r="U181" s="19" t="s">
         <v>568</v>
@@ -18897,10 +18913,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1154</v>
+        <v>1178</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18918,10 +18934,10 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1142</v>
+        <v>1185</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>807</v>
+        <v>1193</v>
       </c>
       <c r="U182" s="19" t="s">
         <v>568</v>
@@ -18962,10 +18978,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1155</v>
+        <v>1177</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -18983,10 +18999,10 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1142</v>
+        <v>1181</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>805</v>
+        <v>1194</v>
       </c>
       <c r="U183" s="19" t="s">
         <v>568</v>
@@ -19027,10 +19043,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1154</v>
+        <v>1179</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -19048,10 +19064,10 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1144</v>
+        <v>1186</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>808</v>
+        <v>1195</v>
       </c>
       <c r="U184" s="19" t="s">
         <v>568</v>
@@ -19092,10 +19108,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1156</v>
+        <v>1180</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19113,10 +19129,10 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>809</v>
+        <v>1196</v>
       </c>
       <c r="U185" s="19" t="s">
         <v>568</v>
@@ -19160,7 +19176,7 @@
         <v>328</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19181,13 +19197,13 @@
         <v>476</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="U186" s="5" t="s">
         <v>565</v>
@@ -19222,7 +19238,7 @@
         <v>379</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19287,7 +19303,7 @@
         <v>381</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19352,7 +19368,7 @@
         <v>383</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19417,7 +19433,7 @@
         <v>385</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19482,7 +19498,7 @@
         <v>387</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19547,7 +19563,7 @@
         <v>389</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19612,7 +19628,7 @@
         <v>391</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19677,7 +19693,7 @@
         <v>393</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19742,7 +19758,7 @@
         <v>395</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19807,7 +19823,7 @@
         <v>397</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19872,7 +19888,7 @@
         <v>399</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19937,7 +19953,7 @@
         <v>401</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -20002,7 +20018,7 @@
         <v>403</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -20067,7 +20083,7 @@
         <v>404</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -20132,7 +20148,7 @@
         <v>405</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20197,7 +20213,7 @@
         <v>379</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20262,7 +20278,7 @@
         <v>381</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20327,7 +20343,7 @@
         <v>383</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20392,7 +20408,7 @@
         <v>385</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20457,7 +20473,7 @@
         <v>387</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20522,7 +20538,7 @@
         <v>389</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20587,7 +20603,7 @@
         <v>391</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20652,7 +20668,7 @@
         <v>393</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20717,7 +20733,7 @@
         <v>395</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20782,7 +20798,7 @@
         <v>397</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20847,7 +20863,7 @@
         <v>399</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20912,7 +20928,7 @@
         <v>401</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20977,7 +20993,7 @@
         <v>403</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -21042,7 +21058,7 @@
         <v>404</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -21107,7 +21123,7 @@
         <v>405</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21172,7 +21188,7 @@
         <v>379</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21237,7 +21253,7 @@
         <v>381</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21302,7 +21318,7 @@
         <v>383</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21367,7 +21383,7 @@
         <v>385</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21432,7 +21448,7 @@
         <v>387</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21497,7 +21513,7 @@
         <v>389</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21562,7 +21578,7 @@
         <v>391</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21627,7 +21643,7 @@
         <v>393</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21692,7 +21708,7 @@
         <v>395</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21757,7 +21773,7 @@
         <v>397</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21822,7 +21838,7 @@
         <v>399</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21887,7 +21903,7 @@
         <v>401</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21952,7 +21968,7 @@
         <v>403</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -22017,7 +22033,7 @@
         <v>404</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -22082,7 +22098,7 @@
         <v>405</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -22147,7 +22163,7 @@
         <v>379</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22212,7 +22228,7 @@
         <v>381</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22277,7 +22293,7 @@
         <v>383</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22342,7 +22358,7 @@
         <v>385</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22407,7 +22423,7 @@
         <v>387</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22472,7 +22488,7 @@
         <v>389</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22537,7 +22553,7 @@
         <v>391</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22602,7 +22618,7 @@
         <v>393</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22667,7 +22683,7 @@
         <v>395</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22732,7 +22748,7 @@
         <v>397</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22797,7 +22813,7 @@
         <v>399</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22862,7 +22878,7 @@
         <v>401</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22927,7 +22943,7 @@
         <v>403</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22992,7 +23008,7 @@
         <v>404</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -23057,7 +23073,7 @@
         <v>405</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -23119,10 +23135,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23143,7 +23159,7 @@
         <v>161</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="U247" s="5" t="s">
         <v>568</v>
@@ -23187,7 +23203,7 @@
         <v>459</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23208,7 +23224,7 @@
         <v>161</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="U248" s="5" t="s">
         <v>568</v>
@@ -23252,7 +23268,7 @@
         <v>460</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23273,7 +23289,7 @@
         <v>161</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="U249" s="5" t="s">
         <v>568</v>
@@ -23317,7 +23333,7 @@
         <v>474</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="J250" s="5">
         <v>-28</v>
@@ -23338,7 +23354,7 @@
         <v>473</v>
       </c>
       <c r="P250" s="5" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="U250" s="5" t="s">
         <v>565</v>
@@ -23379,7 +23395,7 @@
         <v>328</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23400,13 +23416,13 @@
         <v>513</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="U251" s="5" t="s">
         <v>565</v>
@@ -23447,7 +23463,7 @@
         <v>497</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23468,7 +23484,7 @@
         <v>473</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="U252" s="5" t="s">
         <v>644</v>
@@ -23509,7 +23525,7 @@
         <v>498</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23530,7 +23546,7 @@
         <v>518</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="U253" s="5" t="s">
         <v>568</v>
@@ -23571,7 +23587,7 @@
         <v>515</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23592,7 +23608,7 @@
         <v>517</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>568</v>
@@ -23636,7 +23652,7 @@
         <v>510</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23657,7 +23673,7 @@
         <v>496</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="U255" s="5" t="s">
         <v>568</v>
@@ -23701,7 +23717,7 @@
         <v>511</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23722,7 +23738,7 @@
         <v>529</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="U256" s="5" t="s">
         <v>568</v>
@@ -23766,7 +23782,7 @@
         <v>519</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23787,13 +23803,13 @@
         <v>624</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="R257" s="5" t="s">
         <v>520</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="U257" s="5" t="s">
         <v>565</v>
@@ -23834,7 +23850,7 @@
         <v>551</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23899,7 +23915,7 @@
         <v>381</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23964,7 +23980,7 @@
         <v>383</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -24029,7 +24045,7 @@
         <v>385</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -24094,7 +24110,7 @@
         <v>387</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -24159,7 +24175,7 @@
         <v>389</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24224,7 +24240,7 @@
         <v>522</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24289,7 +24305,7 @@
         <v>523</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24354,7 +24370,7 @@
         <v>524</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24419,7 +24435,7 @@
         <v>525</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24484,7 +24500,7 @@
         <v>526</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24549,7 +24565,7 @@
         <v>527</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24614,7 +24630,7 @@
         <v>403</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24679,7 +24695,7 @@
         <v>404</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24744,7 +24760,7 @@
         <v>405</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24830,7 +24846,7 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="U273" s="5" t="s">
         <v>565</v>
@@ -24867,7 +24883,7 @@
         <v>563</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24889,7 +24905,7 @@
         <v>564</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
@@ -24940,7 +24956,7 @@
         <v>569</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24961,7 +24977,7 @@
         <v>603</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="U275" s="5" t="s">
         <v>565</v>
@@ -25005,7 +25021,7 @@
         <v>570</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -25026,7 +25042,7 @@
         <v>582</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="U276" s="5" t="s">
         <v>568</v>
@@ -25070,7 +25086,7 @@
         <v>571</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -25091,7 +25107,7 @@
         <v>582</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="U277" s="5" t="s">
         <v>579</v>
@@ -25135,7 +25151,7 @@
         <v>572</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25156,7 +25172,7 @@
         <v>582</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="U278" s="5" t="s">
         <v>580</v>
@@ -25200,7 +25216,7 @@
         <v>573</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25221,7 +25237,7 @@
         <v>582</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="U279" s="5" t="s">
         <v>581</v>
@@ -25265,7 +25281,7 @@
         <v>574</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25286,7 +25302,7 @@
         <v>582</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="U280" s="5" t="s">
         <v>565</v>
@@ -25330,7 +25346,7 @@
         <v>575</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25351,7 +25367,7 @@
         <v>582</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="U281" s="5" t="s">
         <v>568</v>
@@ -25395,7 +25411,7 @@
         <v>576</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25416,7 +25432,7 @@
         <v>582</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="U282" s="5" t="s">
         <v>579</v>
@@ -25460,7 +25476,7 @@
         <v>577</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25481,7 +25497,7 @@
         <v>582</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="U283" s="5" t="s">
         <v>580</v>
@@ -25525,7 +25541,7 @@
         <v>578</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25546,7 +25562,7 @@
         <v>582</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="U284" s="5" t="s">
         <v>581</v>
@@ -25611,7 +25627,7 @@
         <v>582</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="U285" s="5" t="s">
         <v>568</v>
@@ -25673,7 +25689,7 @@
         <v>582</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="U286" s="5" t="s">
         <v>568</v>
@@ -25735,7 +25751,7 @@
         <v>582</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="U287" s="5" t="s">
         <v>568</v>
@@ -25797,7 +25813,7 @@
         <v>582</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="U288" s="5" t="s">
         <v>568</v>
@@ -25859,7 +25875,7 @@
         <v>582</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="U289" s="5" t="s">
         <v>568</v>
@@ -25921,7 +25937,7 @@
         <v>582</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="U290" s="5" t="s">
         <v>568</v>
@@ -25983,7 +25999,7 @@
         <v>582</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="U291" s="5" t="s">
         <v>568</v>
@@ -26045,7 +26061,7 @@
         <v>582</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="U292" s="5" t="s">
         <v>568</v>
@@ -26107,7 +26123,7 @@
         <v>631</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="U293" s="5" t="s">
         <v>568</v>
@@ -26148,7 +26164,7 @@
         <v>645</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26169,7 +26185,7 @@
         <v>623</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="U294" s="5" t="s">
         <v>568</v>
@@ -26210,7 +26226,7 @@
         <v>646</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26231,7 +26247,7 @@
         <v>623</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="U295" s="5" t="s">
         <v>568</v>
@@ -26272,7 +26288,7 @@
         <v>647</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26293,7 +26309,7 @@
         <v>623</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="U296" s="5" t="s">
         <v>568</v>
@@ -26334,7 +26350,7 @@
         <v>648</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26355,7 +26371,7 @@
         <v>623</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="U297" s="5" t="s">
         <v>568</v>
@@ -26396,7 +26412,7 @@
         <v>649</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26417,7 +26433,7 @@
         <v>622</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="U298" s="5" t="s">
         <v>568</v>
@@ -26458,7 +26474,7 @@
         <v>650</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26479,7 +26495,7 @@
         <v>621</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="U299" s="5" t="s">
         <v>568</v>
@@ -26520,7 +26536,7 @@
         <v>651</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26541,7 +26557,7 @@
         <v>621</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="U300" s="5" t="s">
         <v>568</v>
@@ -26582,7 +26598,7 @@
         <v>652</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26603,7 +26619,7 @@
         <v>621</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="U301" s="5" t="s">
         <v>568</v>
@@ -26644,7 +26660,7 @@
         <v>653</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26665,7 +26681,7 @@
         <v>621</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="U302" s="5" t="s">
         <v>568</v>
@@ -26706,7 +26722,7 @@
         <v>654</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26727,7 +26743,7 @@
         <v>621</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="U303" s="5" t="s">
         <v>568</v>
@@ -26768,7 +26784,7 @@
         <v>655</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26789,7 +26805,7 @@
         <v>621</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="U304" s="5" t="s">
         <v>568</v>
@@ -26830,7 +26846,7 @@
         <v>656</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26851,7 +26867,7 @@
         <v>621</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="U305" s="5" t="s">
         <v>568</v>
@@ -26892,7 +26908,7 @@
         <v>657</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26913,7 +26929,7 @@
         <v>621</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="U306" s="5" t="s">
         <v>568</v>
@@ -26954,7 +26970,7 @@
         <v>658</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26975,7 +26991,7 @@
         <v>621</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="U307" s="5" t="s">
         <v>568</v>
@@ -27016,7 +27032,7 @@
         <v>659</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -27037,7 +27053,7 @@
         <v>627</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="U308" s="5" t="s">
         <v>568</v>
@@ -27078,7 +27094,7 @@
         <v>660</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -27099,7 +27115,7 @@
         <v>632</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="U309" s="5" t="s">
         <v>568</v>
@@ -27137,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27161,7 +27177,7 @@
         <v>633</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="U310" s="5" t="s">
         <v>568</v>
@@ -27199,10 +27215,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27223,7 +27239,7 @@
         <v>634</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="U311" s="5" t="s">
         <v>568</v>
@@ -27261,10 +27277,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27285,7 +27301,7 @@
         <v>634</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="U312" s="5" t="s">
         <v>641</v>
@@ -27323,10 +27339,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27347,7 +27363,7 @@
         <v>634</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="U313" s="5" t="s">
         <v>642</v>
@@ -27385,10 +27401,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27409,7 +27425,7 @@
         <v>633</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="U314" s="5" t="s">
         <v>643</v>
@@ -27447,10 +27463,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27471,7 +27487,7 @@
         <v>634</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="U315" s="5" t="s">
         <v>644</v>
@@ -27698,7 +27714,7 @@
         <v>664</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27719,7 +27735,7 @@
         <v>666</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="U319" s="5" t="s">
         <v>567</v>
@@ -27754,7 +27770,7 @@
         <v>665</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27775,7 +27791,7 @@
         <v>667</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="U320" s="5" t="s">
         <v>567</v>
@@ -27810,7 +27826,7 @@
         <v>668</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27831,7 +27847,7 @@
         <v>670</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="U321" s="5" t="s">
         <v>565</v>
@@ -27934,10 +27950,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1139</v>
+        <v>1199</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27956,10 +27972,10 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1121</v>
+        <v>1200</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
@@ -28016,10 +28032,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1158</v>
+        <v>1198</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -28038,10 +28054,10 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1142</v>
+        <v>1183</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>804</v>
+        <v>1201</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
@@ -28098,10 +28114,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1159</v>
+        <v>1177</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28120,10 +28136,10 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1143</v>
+        <v>1116</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>805</v>
+        <v>1202</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
@@ -28177,10 +28193,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1164</v>
+        <v>1135</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1163</v>
+        <v>1134</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28192,13 +28208,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1160</v>
+        <v>1131</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1161</v>
+        <v>1132</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28210,13 +28226,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1162</v>
+        <v>1133</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1165</v>
+        <v>1136</v>
       </c>
       <c r="AB326" s="42" t="s">
-        <v>1166</v>
+        <v>1137</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28441,7 +28457,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -28681,10 +28697,10 @@
         <v>424</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -28741,7 +28757,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28785,10 +28801,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
@@ -28850,10 +28866,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
@@ -28915,10 +28931,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
@@ -28980,10 +28996,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
@@ -29045,10 +29061,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
@@ -29110,10 +29126,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
@@ -29172,10 +29188,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
@@ -29234,7 +29250,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
@@ -29252,7 +29268,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29296,7 +29312,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
@@ -29314,7 +29330,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29358,10 +29374,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
@@ -29423,10 +29439,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
@@ -29488,10 +29504,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>429</v>
@@ -29553,10 +29569,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>430</v>
@@ -29618,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
@@ -29637,7 +29653,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29684,10 +29700,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
@@ -29746,10 +29762,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
@@ -29808,10 +29824,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
@@ -29870,10 +29886,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
@@ -29932,10 +29948,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
@@ -29994,10 +30010,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
@@ -30056,7 +30072,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
@@ -30116,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
@@ -30179,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
@@ -30198,7 +30214,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30245,10 +30261,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>562</v>
@@ -30281,7 +30297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -30725,7 +30741,7 @@
         <v>457</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>441</v>
@@ -31080,7 +31096,7 @@
         <v>609</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>1168</v>
+        <v>1139</v>
       </c>
       <c r="F17" s="25">
         <v>2000</v>
@@ -31138,7 +31154,7 @@
         <v>20000</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>1192</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31261,10 +31277,10 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1170</v>
+        <v>1141</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F22" s="12">
         <v>10000</v>
@@ -31279,16 +31295,16 @@
         <v>0</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1177</v>
+        <v>1148</v>
       </c>
       <c r="T22" s="12">
         <v>10000</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1186</v>
+        <v>1157</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31299,10 +31315,10 @@
         <v>29</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>1171</v>
+        <v>1142</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F23" s="12">
         <v>20000</v>
@@ -31317,16 +31333,16 @@
         <v>0</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1178</v>
+        <v>1149</v>
       </c>
       <c r="T23" s="12">
         <v>20000</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>1187</v>
+        <v>1158</v>
       </c>
       <c r="V23" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31337,10 +31353,10 @@
         <v>30</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1172</v>
+        <v>1143</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F24" s="12">
         <v>50000</v>
@@ -31355,16 +31371,16 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1179</v>
+        <v>1150</v>
       </c>
       <c r="T24" s="12">
         <v>50000</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>1188</v>
+        <v>1159</v>
       </c>
       <c r="V24" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31375,10 +31391,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F25" s="12">
         <v>100000</v>
@@ -31393,16 +31409,16 @@
         <v>0</v>
       </c>
       <c r="Q25" s="43" t="s">
-        <v>1180</v>
+        <v>1151</v>
       </c>
       <c r="T25" s="12">
         <v>100000</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>1189</v>
+        <v>1160</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31413,10 +31429,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>1174</v>
+        <v>1145</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F26" s="12">
         <v>150000</v>
@@ -31437,10 +31453,10 @@
         <v>150000</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1190</v>
+        <v>1161</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31451,10 +31467,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>1167</v>
+        <v>1138</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F27" s="12">
         <v>300000</v>
@@ -31469,16 +31485,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="43" t="s">
-        <v>1181</v>
+        <v>1152</v>
       </c>
       <c r="T27" s="12">
         <v>300000</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1191</v>
+        <v>1162</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31489,10 +31505,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>1175</v>
+        <v>1146</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F28" s="12">
         <v>20000</v>
@@ -31507,16 +31523,16 @@
         <v>0</v>
       </c>
       <c r="Q28" s="43" t="s">
-        <v>1182</v>
+        <v>1153</v>
       </c>
       <c r="T28" s="12">
         <v>20000</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>1184</v>
+        <v>1155</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31527,10 +31543,10 @@
         <v>35</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>1176</v>
+        <v>1147</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F29" s="12">
         <v>50000</v>
@@ -31545,16 +31561,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="43" t="s">
-        <v>1183</v>
+        <v>1154</v>
       </c>
       <c r="T29" s="12">
         <v>50000</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>1185</v>
+        <v>1156</v>
       </c>
       <c r="V29" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -31568,7 +31584,7 @@
         <v>678</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F30" s="12">
         <v>100000</v>
@@ -31592,7 +31608,7 @@
         <v>680</v>
       </c>
       <c r="V30" s="24" t="s">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -5693,7 +5693,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5824,6 +5824,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6287,10 +6290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7139,486 +7142,486 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+    <row r="11" spans="1:32" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="35">
         <v>101</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="35">
         <v>101</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="35">
         <v>90</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="35">
         <v>600</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="36" t="s">
         <v>1066</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="35">
         <v>100200300</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="11">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>1</v>
-      </c>
-      <c r="S11" s="11">
-        <v>1</v>
-      </c>
-      <c r="T11" s="11" t="s">
+      <c r="N11" s="35">
+        <v>1</v>
+      </c>
+      <c r="O11" s="35">
+        <v>1</v>
+      </c>
+      <c r="P11" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>0</v>
+      </c>
+      <c r="R11" s="35">
+        <v>1</v>
+      </c>
+      <c r="S11" s="35">
+        <v>1</v>
+      </c>
+      <c r="T11" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="35">
         <v>400</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X11" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="34" t="s">
+      <c r="Y11" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="Z11" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="AC11" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="35">
         <v>102</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="35">
         <v>102</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="35">
         <v>3000</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="36" t="s">
         <v>1067</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="35">
         <v>100200300</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="11">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="N12" s="35">
+        <v>1</v>
+      </c>
+      <c r="O12" s="35">
         <v>2</v>
       </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <v>1</v>
-      </c>
-      <c r="S12" s="11">
+      <c r="P12" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="35">
+        <v>0</v>
+      </c>
+      <c r="R12" s="35">
+        <v>1</v>
+      </c>
+      <c r="S12" s="35">
         <v>2</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="35">
         <v>2000</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="X12" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Y12" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="Z12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="AC12" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="35">
         <v>103</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="35">
         <v>103</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="35">
         <v>9800</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="36" t="s">
         <v>1068</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="35">
         <v>100200300</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="11">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="N13" s="35">
+        <v>1</v>
+      </c>
+      <c r="O13" s="35">
         <v>3</v>
       </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>1</v>
-      </c>
-      <c r="S13" s="11">
+      <c r="P13" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>0</v>
+      </c>
+      <c r="R13" s="35">
+        <v>1</v>
+      </c>
+      <c r="S13" s="35">
         <v>3</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="35">
         <v>6700</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="W13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="X13" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Y13" s="35" t="s">
         <v>685</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="Z13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AC13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="AC13" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="35">
         <v>104</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="35">
         <v>104</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="35">
         <v>19800</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="36" t="s">
         <v>1069</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="35">
         <v>100200300</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="11">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="N14" s="35">
+        <v>1</v>
+      </c>
+      <c r="O14" s="35">
         <v>4</v>
       </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
-      <c r="R14" s="11">
-        <v>1</v>
-      </c>
-      <c r="S14" s="11">
+      <c r="P14" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>0</v>
+      </c>
+      <c r="R14" s="35">
+        <v>1</v>
+      </c>
+      <c r="S14" s="35">
         <v>4</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="W14" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="X14" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Y14" s="35" t="s">
         <v>689</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="Z14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="AC14" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="35">
         <v>105</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="35">
         <v>105</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="35">
         <v>29800</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="36" t="s">
         <v>1070</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="35">
         <v>100200300</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="11">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="N15" s="35">
+        <v>1</v>
+      </c>
+      <c r="O15" s="35">
         <v>5</v>
       </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11">
-        <v>1</v>
-      </c>
-      <c r="S15" s="11">
+      <c r="P15" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>0</v>
+      </c>
+      <c r="R15" s="35">
+        <v>1</v>
+      </c>
+      <c r="S15" s="35">
         <v>5</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="W15" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="X15" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Y15" s="35" t="s">
         <v>689</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="Z15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="AC15" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="35">
         <v>106</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="35">
         <v>106</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="35">
         <v>100</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="36" t="s">
         <v>1071</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="11">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="N16" s="35">
+        <v>1</v>
+      </c>
+      <c r="O16" s="35">
         <v>11</v>
       </c>
-      <c r="P16" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <v>0</v>
-      </c>
-      <c r="S16" s="11">
-        <v>0</v>
-      </c>
-      <c r="T16" s="11" t="s">
+      <c r="P16" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>0</v>
+      </c>
+      <c r="R16" s="35">
+        <v>0</v>
+      </c>
+      <c r="S16" s="35">
+        <v>0</v>
+      </c>
+      <c r="T16" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="35">
         <v>100</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="W16" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="X16" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="Y16" s="34" t="s">
+      <c r="Y16" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="Z16" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AC16" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="11">
+      <c r="AC16" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="35">
         <v>1</v>
       </c>
     </row>
@@ -8206,6 +8209,26 @@
       <c r="AD24" s="11">
         <v>1</v>
       </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G27" s="11"/>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G28" s="11"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G29" s="11"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G30" s="11"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G31" s="11"/>
+      <c r="H31" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -8219,11 +8242,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H323" sqref="H323"/>
+      <selection pane="bottomRight" activeCell="E333" sqref="E333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -28646,7 +28669,7 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:XFD10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29656,316 +29679,316 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+    <row r="16" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="35">
         <v>101</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="35">
         <v>90</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="35">
         <v>101</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="35">
         <v>400</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="35">
         <v>400000</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="35">
         <v>400000</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="11">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="M16" s="35">
+        <v>1</v>
+      </c>
+      <c r="O16" s="35">
         <v>3</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="P16" s="36" t="s">
         <v>1045</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="R16" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="34" t="s">
+      <c r="T16" s="36" t="s">
         <v>701</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="X16" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="X16" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="35">
         <v>102</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="35">
         <v>102</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="35">
         <v>2000</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="35">
         <v>2000000</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="35">
         <v>2000000</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="11">
-        <v>1</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="M17" s="35">
+        <v>1</v>
+      </c>
+      <c r="O17" s="35">
         <v>4</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="36" t="s">
         <v>1046</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="R17" s="36" t="s">
         <v>1078</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="S17" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="X17" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="X17" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="35">
         <v>103</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="35">
         <v>103</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="35">
         <v>6700</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="35">
         <v>6700000</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="35">
         <v>6700000</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="11">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="M18" s="35">
+        <v>1</v>
+      </c>
+      <c r="O18" s="35">
         <v>5</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="R18" s="34" t="s">
+      <c r="R18" s="36" t="s">
         <v>1075</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="35" t="s">
         <v>694</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="X18" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="X18" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="35">
         <v>104</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="35">
         <v>104</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="35">
         <v>13200</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="35">
         <v>13200000</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="35">
         <v>13200000</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="11">
-        <v>1</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="M19" s="35">
+        <v>1</v>
+      </c>
+      <c r="O19" s="35">
         <v>6</v>
       </c>
-      <c r="P19" s="34" t="s">
+      <c r="P19" s="36" t="s">
         <v>1048</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="36" t="s">
         <v>1079</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="S19" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="34" t="s">
+      <c r="T19" s="36" t="s">
         <v>705</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="X19" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+      <c r="X19" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="35">
         <v>105</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="35">
         <v>105</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="35">
         <v>20400</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="35">
         <v>20400000</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="35">
         <v>20400000</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="11">
-        <v>1</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="M20" s="35">
+        <v>1</v>
+      </c>
+      <c r="O20" s="35">
         <v>7</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="P20" s="36" t="s">
         <v>1049</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="R20" s="36" t="s">
         <v>1073</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="35" t="s">
         <v>705</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="X20" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="11">
+      <c r="X20" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="35">
         <v>1</v>
       </c>
     </row>
@@ -29980,7 +30003,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="35">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>426</v>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -6290,10 +6290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF31"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8209,26 +8209,6 @@
       <c r="AD24" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="G27" s="11"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="G28" s="11"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="G29" s="11"/>
-      <c r="H29" s="34"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="G30" s="11"/>
-      <c r="H30" s="34"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="G31" s="11"/>
-      <c r="H31" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -28669,7 +28649,7 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -6108,8 +6108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6292,7 +6292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -28649,7 +28649,7 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30301,7 +30301,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30735,7 +30735,7 @@
         <v>9999999</v>
       </c>
       <c r="O8" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="17">
         <v>5</v>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -6109,7 +6109,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6244,7 +6244,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="15"/>
     </row>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -6812,11 +6812,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="35">
         <v>1</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="35">
         <v>2</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="35">
         <v>5</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="35">
         <v>7</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="35">
         <v>9</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="35">
         <v>11</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="35">
         <v>13</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="35">
         <v>15</v>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="35">
         <v>16</v>
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="44">
         <v>1</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="44">
         <v>2</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="44">
         <v>5</v>
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="44">
         <v>7</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="44">
         <v>9</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="44">
         <v>11</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="44">
         <v>13</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="44">
         <v>15</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="44">
         <v>16</v>
@@ -31578,11 +31578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32627,7 +32627,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="44">
         <v>1</v>
@@ -32690,7 +32690,7 @@
         <v>11</v>
       </c>
       <c r="M17" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="44">
         <v>2</v>
@@ -32879,7 +32879,7 @@
         <v>11</v>
       </c>
       <c r="M20" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="44">
         <v>5</v>
@@ -33005,7 +33005,7 @@
         <v>11</v>
       </c>
       <c r="M22" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="44">
         <v>7</v>
@@ -33131,7 +33131,7 @@
         <v>11</v>
       </c>
       <c r="M24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="44">
         <v>9</v>
@@ -33257,7 +33257,7 @@
         <v>11</v>
       </c>
       <c r="M26" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="44">
         <v>11</v>
@@ -33383,7 +33383,7 @@
         <v>11</v>
       </c>
       <c r="M28" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="44">
         <v>13</v>
@@ -33509,7 +33509,7 @@
         <v>11</v>
       </c>
       <c r="M30" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="44">
         <v>15</v>
@@ -33572,7 +33572,7 @@
         <v>11</v>
       </c>
       <c r="M31" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="44">
         <v>16</v>
@@ -33698,7 +33698,7 @@
         <v>11</v>
       </c>
       <c r="M33" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="35">
         <v>1</v>
@@ -33761,7 +33761,7 @@
         <v>11</v>
       </c>
       <c r="M34" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="35">
         <v>2</v>
@@ -33950,7 +33950,7 @@
         <v>11</v>
       </c>
       <c r="M37" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="35">
         <v>5</v>
@@ -34076,7 +34076,7 @@
         <v>11</v>
       </c>
       <c r="M39" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="35">
         <v>7</v>
@@ -34202,7 +34202,7 @@
         <v>11</v>
       </c>
       <c r="M41" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="35">
         <v>9</v>
@@ -34328,7 +34328,7 @@
         <v>11</v>
       </c>
       <c r="M43" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="35">
         <v>11</v>
@@ -34454,7 +34454,7 @@
         <v>11</v>
       </c>
       <c r="M45" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="35">
         <v>13</v>
@@ -34580,7 +34580,7 @@
         <v>11</v>
       </c>
       <c r="M47" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="35">
         <v>15</v>
@@ -34643,7 +34643,7 @@
         <v>11</v>
       </c>
       <c r="M48" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="35">
         <v>16</v>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="1354">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6069,6 +6069,33 @@
   </si>
   <si>
     <t>6.48万钻石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>道  具</t>
+  </si>
+  <si>
+    <t>sc_imgf_dj1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c_imgf_dj</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6651,7 +6678,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6723,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="12">
         <v>1</v>
@@ -6761,11 +6788,33 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -31578,7 +31627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -35567,8 +35616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36560,10 +36609,10 @@
       </c>
       <c r="H22" s="15"/>
       <c r="O22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="34" t="s">
         <v>1114</v>
@@ -36598,10 +36647,10 @@
         <v>259200</v>
       </c>
       <c r="O23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="34" t="s">
         <v>1115</v>
@@ -36636,10 +36685,10 @@
         <v>259200</v>
       </c>
       <c r="O24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="34" t="s">
         <v>1116</v>
@@ -36674,10 +36723,10 @@
         <v>259200</v>
       </c>
       <c r="O25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="43" t="s">
         <v>1117</v>
@@ -36712,10 +36761,10 @@
         <v>259200</v>
       </c>
       <c r="O26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="43" t="s">
         <v>656</v>
@@ -36750,10 +36799,10 @@
         <v>259200</v>
       </c>
       <c r="O27" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="43" t="s">
         <v>1118</v>
@@ -36788,10 +36837,10 @@
         <v>259200</v>
       </c>
       <c r="O28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q28" s="43" t="s">
         <v>1119</v>
@@ -36826,10 +36875,10 @@
         <v>259200</v>
       </c>
       <c r="O29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="43" t="s">
         <v>1120</v>
@@ -36864,10 +36913,10 @@
         <v>259200</v>
       </c>
       <c r="O30" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q30" s="43" t="s">
         <v>660</v>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -4970,10 +4970,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>每日特惠礼包新用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>每日特惠礼包新用户98元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5010,18 +5006,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>每日特惠礼包v1-3用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>每日特惠礼包v1-3用户98元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>每日特惠礼包v4-7用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>每日特惠礼包v4-7用户98元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5038,14 +5026,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>每日特惠礼包v8以上用户498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包小额用户10元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>每日特惠礼包小额用户18元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5194,10 +5174,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"480万金币","30万-360万随机金币","锁定*50"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","shop_gold_sum","prop_3d_fish_lock"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5206,18 +5182,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"60万金币","20万金币","锁定*3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"100万金币","20万金币","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"180万金币","20万金币","锁定*20",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5226,10 +5194,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"480万金币","20万金币","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"980万金币","30万金币","锁定*20",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5246,10 +5210,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"4980万金币","150万金币","锁定*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_3d_fish_lock",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5274,10 +5234,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1200000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2000000,20,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5286,18 +5242,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5000000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10100000,20,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5000000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>20600000,30,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5310,27 +5258,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>51300000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"60万金币","10万金币","锁定*5",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>700000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,10,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6096,6 +6028,74 @@
       </rPr>
       <t>c_imgf_dj</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","30万-360万随机金币","锁定*50"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户50元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","20万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包小额用户12元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"120万金币","20万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v1-3用户50元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","20万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v4-7用户50元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","20万金币","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包v8以上用户488元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4880万金币","150万金币","锁定*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50300000,50,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6795,16 +6795,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1351</v>
+        <v>1334</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -6865,7 +6865,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11:R27"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7644,7 +7644,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>1267</v>
+        <v>1250</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="11">
@@ -7690,13 +7690,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>1342</v>
+        <v>1325</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>64</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>1269</v>
+        <v>1252</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>65</v>
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="35"/>
@@ -7739,7 +7739,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="K11" s="35" t="s">
         <v>44</v>
@@ -7769,17 +7769,17 @@
         <v>1</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="V11" s="35"/>
       <c r="W11" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X11" s="35" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="Y11" s="35" t="s">
         <v>662</v>
@@ -7809,7 +7809,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="35"/>
@@ -7823,7 +7823,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="K12" s="35" t="s">
         <v>44</v>
@@ -7853,17 +7853,17 @@
         <v>2</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
       <c r="V12" s="35"/>
       <c r="W12" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X12" s="35" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="Y12" s="35" t="s">
         <v>662</v>
@@ -7893,7 +7893,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="35"/>
@@ -7907,7 +7907,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="K13" s="35" t="s">
         <v>44</v>
@@ -7937,10 +7937,10 @@
         <v>3</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="V13" s="35"/>
       <c r="W13" s="35" t="s">
@@ -7977,7 +7977,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="35"/>
@@ -7991,7 +7991,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>44</v>
@@ -8021,17 +8021,17 @@
         <v>4</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="U14" s="36" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="V14" s="35"/>
       <c r="W14" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X14" s="35" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="Y14" s="35" t="s">
         <v>663</v>
@@ -8061,7 +8061,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="35"/>
@@ -8075,7 +8075,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>1274</v>
+        <v>1257</v>
       </c>
       <c r="K15" s="35" t="s">
         <v>44</v>
@@ -8105,17 +8105,17 @@
         <v>5</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="U15" s="36" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="V15" s="35"/>
       <c r="W15" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X15" s="35" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="Y15" s="35" t="s">
         <v>664</v>
@@ -8145,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="35"/>
@@ -8159,7 +8159,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
       <c r="K16" s="35" t="s">
         <v>44</v>
@@ -8189,10 +8189,10 @@
         <v>6</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="V16" s="35"/>
       <c r="W16" s="35" t="s">
@@ -8229,7 +8229,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="35"/>
@@ -8243,7 +8243,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="K17" s="35" t="s">
         <v>44</v>
@@ -8273,17 +8273,17 @@
         <v>7</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="V17" s="35"/>
       <c r="W17" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X17" s="35" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="Y17" s="35" t="s">
         <v>665</v>
@@ -8313,7 +8313,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="35"/>
@@ -8327,7 +8327,7 @@
         <v>43</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>1276</v>
+        <v>1259</v>
       </c>
       <c r="K18" s="35" t="s">
         <v>44</v>
@@ -8357,10 +8357,10 @@
         <v>8</v>
       </c>
       <c r="T18" s="36" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
       <c r="U18" s="36" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
       <c r="V18" s="35"/>
       <c r="W18" s="35" t="s">
@@ -8397,7 +8397,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="35"/>
@@ -8411,7 +8411,7 @@
         <v>43</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>1277</v>
+        <v>1260</v>
       </c>
       <c r="K19" s="35" t="s">
         <v>44</v>
@@ -8441,17 +8441,17 @@
         <v>9</v>
       </c>
       <c r="T19" s="36" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
       <c r="U19" s="36" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
       <c r="V19" s="35"/>
       <c r="W19" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X19" s="35" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="Y19" s="35" t="s">
         <v>666</v>
@@ -8481,7 +8481,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="35"/>
@@ -8495,7 +8495,7 @@
         <v>43</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>1278</v>
+        <v>1261</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>44</v>
@@ -8525,10 +8525,10 @@
         <v>10</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
       <c r="U20" s="36" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
       <c r="V20" s="35"/>
       <c r="W20" s="35" t="s">
@@ -8565,7 +8565,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="35"/>
@@ -8579,7 +8579,7 @@
         <v>43</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="K21" s="35" t="s">
         <v>44</v>
@@ -8609,17 +8609,17 @@
         <v>11</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>1343</v>
+        <v>1326</v>
       </c>
       <c r="U21" s="36" t="s">
-        <v>1343</v>
+        <v>1326</v>
       </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X21" s="35" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="Y21" s="36" t="s">
         <v>666</v>
@@ -8649,7 +8649,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="35"/>
@@ -8663,7 +8663,7 @@
         <v>43</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
       <c r="K22" s="35" t="s">
         <v>44</v>
@@ -8693,17 +8693,17 @@
         <v>12</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1344</v>
+        <v>1327</v>
       </c>
       <c r="U22" s="36" t="s">
-        <v>1344</v>
+        <v>1327</v>
       </c>
       <c r="V22" s="35"/>
       <c r="W22" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X22" s="35" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="Y22" s="36" t="s">
         <v>670</v>
@@ -8733,7 +8733,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="35"/>
@@ -8747,7 +8747,7 @@
         <v>43</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>44</v>
@@ -8777,17 +8777,17 @@
         <v>13</v>
       </c>
       <c r="T23" s="36" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
       <c r="U23" s="36" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
       <c r="V23" s="35"/>
       <c r="W23" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X23" s="35" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="Y23" s="36" t="s">
         <v>670</v>
@@ -8817,7 +8817,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="35"/>
@@ -8831,7 +8831,7 @@
         <v>43</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="K24" s="35" t="s">
         <v>44</v>
@@ -8861,17 +8861,17 @@
         <v>14</v>
       </c>
       <c r="T24" s="36" t="s">
-        <v>1346</v>
+        <v>1329</v>
       </c>
       <c r="U24" s="36" t="s">
-        <v>1346</v>
+        <v>1329</v>
       </c>
       <c r="V24" s="35"/>
       <c r="W24" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X24" s="35" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="Y24" s="36" t="s">
         <v>670</v>
@@ -8901,7 +8901,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="35"/>
@@ -8915,7 +8915,7 @@
         <v>43</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>44</v>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="T25" s="36" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="U25" s="36" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X25" s="36" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="Y25" s="36" t="s">
         <v>667</v>
@@ -8985,7 +8985,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="35"/>
@@ -8999,7 +8999,7 @@
         <v>43</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
       <c r="K26" s="35" t="s">
         <v>44</v>
@@ -9029,17 +9029,17 @@
         <v>16</v>
       </c>
       <c r="T26" s="36" t="s">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="U26" s="36" t="s">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="V26" s="35"/>
       <c r="W26" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X26" s="35" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="Y26" s="36" t="s">
         <v>668</v>
@@ -9069,7 +9069,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="35"/>
@@ -9083,7 +9083,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="K27" s="35" t="s">
         <v>44</v>
@@ -9113,17 +9113,17 @@
         <v>17</v>
       </c>
       <c r="T27" s="36" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="U27" s="36" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="35" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="Y27" s="36" t="s">
         <v>669</v>
@@ -9156,23 +9156,23 @@
         <v>66</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H28" s="44">
         <v>100</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L28" s="44" t="s">
         <v>45</v>
@@ -9199,23 +9199,23 @@
         <v>1</v>
       </c>
       <c r="T28" s="45" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="U28" s="45" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="V28" s="44"/>
       <c r="W28" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X28" s="45" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="Y28" s="45" t="s">
         <v>662</v>
       </c>
       <c r="Z28" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA28" s="44"/>
       <c r="AB28" s="44"/>
@@ -9242,23 +9242,23 @@
         <v>66</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H29" s="44">
         <v>300</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L29" s="44" t="s">
         <v>45</v>
@@ -9285,23 +9285,23 @@
         <v>2</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="U29" s="45" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="V29" s="44"/>
       <c r="W29" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X29" s="45" t="s">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="Y29" s="45" t="s">
         <v>662</v>
       </c>
       <c r="Z29" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA29" s="44"/>
       <c r="AB29" s="44"/>
@@ -9328,23 +9328,23 @@
         <v>66</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H30" s="44">
         <v>600</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L30" s="44" t="s">
         <v>45</v>
@@ -9371,23 +9371,23 @@
         <v>3</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="U30" s="45" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="V30" s="44"/>
       <c r="W30" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X30" s="45" t="s">
-        <v>1238</v>
+        <v>1221</v>
       </c>
       <c r="Y30" s="45" t="s">
         <v>662</v>
       </c>
       <c r="Z30" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA30" s="44"/>
       <c r="AB30" s="44"/>
@@ -9414,23 +9414,23 @@
         <v>66</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H31" s="44">
         <v>1200</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L31" s="44" t="s">
         <v>45</v>
@@ -9457,23 +9457,23 @@
         <v>4</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="U31" s="45" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="V31" s="44"/>
       <c r="W31" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X31" s="45" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="Y31" s="45" t="s">
         <v>663</v>
       </c>
       <c r="Z31" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA31" s="44"/>
       <c r="AB31" s="44"/>
@@ -9500,23 +9500,23 @@
         <v>66</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H32" s="44">
         <v>1800</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L32" s="44" t="s">
         <v>45</v>
@@ -9543,23 +9543,23 @@
         <v>5</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="V32" s="44"/>
       <c r="W32" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X32" s="45" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="Y32" s="45" t="s">
         <v>664</v>
       </c>
       <c r="Z32" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA32" s="44"/>
       <c r="AB32" s="44"/>
@@ -9586,23 +9586,23 @@
         <v>66</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H33" s="44">
         <v>3000</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L33" s="44" t="s">
         <v>45</v>
@@ -9629,23 +9629,23 @@
         <v>6</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
       <c r="U33" s="45" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
       <c r="V33" s="44"/>
       <c r="W33" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X33" s="45" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="Y33" s="45" t="s">
         <v>664</v>
       </c>
       <c r="Z33" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA33" s="44"/>
       <c r="AB33" s="44"/>
@@ -9672,23 +9672,23 @@
         <v>66</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H34" s="44">
         <v>4500</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
       <c r="K34" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L34" s="44" t="s">
         <v>45</v>
@@ -9715,23 +9715,23 @@
         <v>7</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="U34" s="45" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="V34" s="44"/>
       <c r="W34" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X34" s="45" t="s">
-        <v>1245</v>
+        <v>1228</v>
       </c>
       <c r="Y34" s="45" t="s">
         <v>665</v>
       </c>
       <c r="Z34" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA34" s="44"/>
       <c r="AB34" s="44"/>
@@ -9758,23 +9758,23 @@
         <v>66</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H35" s="44">
         <v>5000</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="K35" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L35" s="44" t="s">
         <v>45</v>
@@ -9801,23 +9801,23 @@
         <v>8</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
       <c r="U35" s="45" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
       <c r="V35" s="44"/>
       <c r="W35" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X35" s="45" t="s">
-        <v>1246</v>
+        <v>1229</v>
       </c>
       <c r="Y35" s="45" t="s">
         <v>665</v>
       </c>
       <c r="Z35" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA35" s="44"/>
       <c r="AB35" s="44"/>
@@ -9844,23 +9844,23 @@
         <v>66</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>1188</v>
+        <v>1171</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H36" s="44">
         <v>8800</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L36" s="44" t="s">
         <v>45</v>
@@ -9887,23 +9887,23 @@
         <v>9</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="U36" s="45" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="V36" s="44"/>
       <c r="W36" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
       <c r="Y36" s="45" t="s">
         <v>666</v>
       </c>
       <c r="Z36" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA36" s="44"/>
       <c r="AB36" s="44"/>
@@ -9930,23 +9930,23 @@
         <v>66</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="F37" s="44"/>
       <c r="G37" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H37" s="44">
         <v>9800</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L37" s="44" t="s">
         <v>45</v>
@@ -9973,23 +9973,23 @@
         <v>10</v>
       </c>
       <c r="T37" s="45" t="s">
-        <v>1226</v>
+        <v>1209</v>
       </c>
       <c r="U37" s="45" t="s">
-        <v>1226</v>
+        <v>1209</v>
       </c>
       <c r="V37" s="44"/>
       <c r="W37" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>1249</v>
+        <v>1232</v>
       </c>
       <c r="Y37" s="45" t="s">
         <v>666</v>
       </c>
       <c r="Z37" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA37" s="44"/>
       <c r="AB37" s="44"/>
@@ -10016,23 +10016,23 @@
         <v>66</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H38" s="44">
         <v>12800</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="K38" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L38" s="44" t="s">
         <v>45</v>
@@ -10059,23 +10059,23 @@
         <v>11</v>
       </c>
       <c r="T38" s="45" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="U38" s="45" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="V38" s="44"/>
       <c r="W38" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X38" s="45" t="s">
-        <v>1251</v>
+        <v>1234</v>
       </c>
       <c r="Y38" s="45" t="s">
         <v>666</v>
       </c>
       <c r="Z38" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA38" s="44"/>
       <c r="AB38" s="44"/>
@@ -10102,23 +10102,23 @@
         <v>66</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H39" s="44">
         <v>16800</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="K39" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L39" s="44" t="s">
         <v>45</v>
@@ -10145,23 +10145,23 @@
         <v>12</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="U39" s="45" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="V39" s="44"/>
       <c r="W39" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X39" s="45" t="s">
-        <v>1253</v>
+        <v>1236</v>
       </c>
       <c r="Y39" s="45" t="s">
         <v>670</v>
       </c>
       <c r="Z39" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA39" s="44"/>
       <c r="AB39" s="44"/>
@@ -10188,23 +10188,23 @@
         <v>66</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>1192</v>
+        <v>1175</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H40" s="44">
         <v>18800</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J40" s="45" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="K40" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L40" s="44" t="s">
         <v>45</v>
@@ -10231,23 +10231,23 @@
         <v>13</v>
       </c>
       <c r="T40" s="45" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="U40" s="45" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="V40" s="44"/>
       <c r="W40" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X40" s="45" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="Y40" s="45" t="s">
         <v>670</v>
       </c>
       <c r="Z40" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA40" s="44"/>
       <c r="AB40" s="44"/>
@@ -10274,23 +10274,23 @@
         <v>66</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H41" s="44">
         <v>19800</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J41" s="45" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L41" s="44" t="s">
         <v>45</v>
@@ -10317,23 +10317,23 @@
         <v>14</v>
       </c>
       <c r="T41" s="45" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="V41" s="44"/>
       <c r="W41" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X41" s="45" t="s">
-        <v>1257</v>
+        <v>1240</v>
       </c>
       <c r="Y41" s="45" t="s">
         <v>670</v>
       </c>
       <c r="Z41" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA41" s="44"/>
       <c r="AB41" s="44"/>
@@ -10360,23 +10360,23 @@
         <v>66</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H42" s="44">
         <v>29800</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J42" s="45" t="s">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="K42" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L42" s="44" t="s">
         <v>45</v>
@@ -10403,23 +10403,23 @@
         <v>15</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="V42" s="44"/>
       <c r="W42" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X42" s="45" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="Y42" s="45" t="s">
         <v>667</v>
       </c>
       <c r="Z42" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA42" s="44"/>
       <c r="AB42" s="44"/>
@@ -10446,23 +10446,23 @@
         <v>66</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
       <c r="F43" s="44"/>
       <c r="G43" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H43" s="44">
         <v>48800</v>
       </c>
       <c r="I43" s="45" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L43" s="44" t="s">
         <v>45</v>
@@ -10489,23 +10489,23 @@
         <v>16</v>
       </c>
       <c r="T43" s="45" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="U43" s="45" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="V43" s="44"/>
       <c r="W43" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>1261</v>
+        <v>1244</v>
       </c>
       <c r="Y43" s="45" t="s">
         <v>668</v>
       </c>
       <c r="Z43" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA43" s="44"/>
       <c r="AB43" s="44"/>
@@ -10532,23 +10532,23 @@
         <v>66</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
       <c r="F44" s="44"/>
       <c r="G44" s="45" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="H44" s="44">
         <v>64800</v>
       </c>
       <c r="I44" s="45" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J44" s="45" t="s">
         <v>1199</v>
       </c>
-      <c r="J44" s="45" t="s">
-        <v>1216</v>
-      </c>
       <c r="K44" s="45" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="L44" s="44" t="s">
         <v>45</v>
@@ -10575,23 +10575,23 @@
         <v>17</v>
       </c>
       <c r="T44" s="45" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="U44" s="45" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="V44" s="44"/>
       <c r="W44" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>1263</v>
+        <v>1246</v>
       </c>
       <c r="Y44" s="45" t="s">
         <v>669</v>
       </c>
       <c r="Z44" s="45" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="AA44" s="44"/>
       <c r="AB44" s="44"/>
@@ -11201,11 +11201,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H311" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E333" sqref="E333"/>
+      <selection pane="bottomRight" activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15513,7 +15513,7 @@
         <v>230</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -15531,7 +15531,7 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="P77" s="19" t="s">
         <v>1071</v>
@@ -15569,7 +15569,7 @@
         <v>231</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -15587,7 +15587,7 @@
         <v>600</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="P78" s="19" t="s">
         <v>732</v>
@@ -15767,7 +15767,7 @@
         <v>234</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>1133</v>
+        <v>1337</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -15782,13 +15782,13 @@
         <v>94</v>
       </c>
       <c r="N81" s="19">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1136</v>
+        <v>1338</v>
       </c>
       <c r="U81" s="19" t="s">
         <v>546</v>
@@ -21183,7 +21183,7 @@
         <v>1074</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -21201,7 +21201,7 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="P171" s="19" t="s">
         <v>776</v>
@@ -21245,10 +21245,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -21266,7 +21266,7 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="P172" s="19" t="s">
         <v>777</v>
@@ -21313,7 +21313,7 @@
         <v>1075</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -21331,7 +21331,7 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="P173" s="19" t="s">
         <v>778</v>
@@ -21378,7 +21378,7 @@
         <v>1076</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -21396,7 +21396,7 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
       <c r="P174" s="19" t="s">
         <v>779</v>
@@ -21440,10 +21440,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1095</v>
+        <v>1342</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1138</v>
+        <v>1343</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -21458,13 +21458,13 @@
         <v>94</v>
       </c>
       <c r="N175" s="19">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1153</v>
+        <v>1344</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>549</v>
@@ -21505,10 +21505,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -21526,10 +21526,10 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="U176" s="19" t="s">
         <v>549</v>
@@ -21570,10 +21570,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -21591,10 +21591,10 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="U177" s="19" t="s">
         <v>549</v>
@@ -21635,10 +21635,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1087</v>
+        <v>1345</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1141</v>
+        <v>1346</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -21653,13 +21653,13 @@
         <v>94</v>
       </c>
       <c r="N178" s="19">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1156</v>
+        <v>1347</v>
       </c>
       <c r="U178" s="19" t="s">
         <v>549</v>
@@ -21700,10 +21700,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -21721,10 +21721,10 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="U179" s="19" t="s">
         <v>549</v>
@@ -21765,10 +21765,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1089</v>
+        <v>1348</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1163</v>
+        <v>1349</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -21783,13 +21783,13 @@
         <v>94</v>
       </c>
       <c r="N180" s="19">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1158</v>
+        <v>1350</v>
       </c>
       <c r="U180" s="19" t="s">
         <v>549</v>
@@ -21830,10 +21830,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -21851,10 +21851,10 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="U181" s="19" t="s">
         <v>549</v>
@@ -21895,10 +21895,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -21916,10 +21916,10 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="U182" s="19" t="s">
         <v>549</v>
@@ -21960,10 +21960,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -21981,10 +21981,10 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="P183" s="19" t="s">
         <v>1147</v>
-      </c>
-      <c r="P183" s="19" t="s">
-        <v>1160</v>
       </c>
       <c r="U183" s="19" t="s">
         <v>549</v>
@@ -22025,10 +22025,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -22046,10 +22046,10 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="U184" s="19" t="s">
         <v>549</v>
@@ -22090,10 +22090,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1094</v>
+        <v>1351</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1146</v>
+        <v>1352</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -22108,13 +22108,13 @@
         <v>94</v>
       </c>
       <c r="N185" s="19">
-        <v>49800</v>
+        <v>48800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1162</v>
+        <v>1353</v>
       </c>
       <c r="U185" s="19" t="s">
         <v>549</v>
@@ -30932,10 +30932,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -30954,10 +30954,10 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
@@ -31014,10 +31014,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1077</v>
+        <v>1339</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1164</v>
+        <v>1340</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -31033,13 +31033,13 @@
         <v>94</v>
       </c>
       <c r="N324" s="19">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1167</v>
+        <v>1341</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
@@ -31096,10 +31096,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -31118,10 +31118,10 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
@@ -31175,10 +31175,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -31190,13 +31190,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -31208,13 +31208,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="AB326" s="42" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -32527,7 +32527,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>1286</v>
+        <v>1269</v>
       </c>
       <c r="G14" s="11">
         <v>249800</v>
@@ -32557,7 +32557,7 @@
         <v>1022</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>411</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
@@ -32629,7 +32629,7 @@
         <v>678</v>
       </c>
       <c r="U15" s="34" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="X15" s="11">
         <v>1</v>
@@ -32655,7 +32655,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G16" s="44">
         <v>100</v>
@@ -32682,19 +32682,19 @@
         <v>1</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S16" s="44" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="U16" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X16" s="44">
         <v>1</v>
@@ -32718,7 +32718,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G17" s="44">
         <v>300</v>
@@ -32745,19 +32745,19 @@
         <v>2</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>1290</v>
+        <v>1273</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S17" s="44" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="U17" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X17" s="44">
         <v>1</v>
@@ -32781,7 +32781,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G18" s="44">
         <v>600</v>
@@ -32808,10 +32808,10 @@
         <v>3</v>
       </c>
       <c r="P18" s="45" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S18" s="44" t="s">
         <v>48</v>
@@ -32820,7 +32820,7 @@
         <v>672</v>
       </c>
       <c r="U18" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X18" s="44">
         <v>1</v>
@@ -32844,7 +32844,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G19" s="44">
         <v>1200</v>
@@ -32871,19 +32871,19 @@
         <v>4</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>1292</v>
+        <v>1275</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S19" s="44" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="T19" s="45" t="s">
         <v>672</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X19" s="44">
         <v>1</v>
@@ -32907,7 +32907,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G20" s="44">
         <v>1800</v>
@@ -32934,19 +32934,19 @@
         <v>5</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="R20" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S20" s="44" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
       <c r="U20" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X20" s="44">
         <v>1</v>
@@ -32970,7 +32970,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G21" s="44">
         <v>3000</v>
@@ -32997,10 +32997,10 @@
         <v>6</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S21" s="44" t="s">
         <v>53</v>
@@ -33009,7 +33009,7 @@
         <v>673</v>
       </c>
       <c r="U21" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X21" s="44">
         <v>1</v>
@@ -33033,7 +33033,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G22" s="44">
         <v>4500</v>
@@ -33060,19 +33060,19 @@
         <v>7</v>
       </c>
       <c r="P22" s="45" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="R22" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S22" s="44" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="T22" s="45" t="s">
         <v>673</v>
       </c>
       <c r="U22" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X22" s="44">
         <v>1</v>
@@ -33096,7 +33096,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G23" s="44">
         <v>5000</v>
@@ -33123,10 +33123,10 @@
         <v>8</v>
       </c>
       <c r="P23" s="45" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S23" s="44" t="s">
         <v>55</v>
@@ -33135,7 +33135,7 @@
         <v>674</v>
       </c>
       <c r="U23" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X23" s="44">
         <v>1</v>
@@ -33159,7 +33159,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G24" s="44">
         <v>8800</v>
@@ -33186,19 +33186,19 @@
         <v>9</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="R24" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S24" s="44" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="T24" s="45" t="s">
         <v>674</v>
       </c>
       <c r="U24" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X24" s="44">
         <v>1</v>
@@ -33222,7 +33222,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G25" s="44">
         <v>9800</v>
@@ -33249,10 +33249,10 @@
         <v>10</v>
       </c>
       <c r="P25" s="45" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="R25" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S25" s="44" t="s">
         <v>57</v>
@@ -33261,7 +33261,7 @@
         <v>675</v>
       </c>
       <c r="U25" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X25" s="44">
         <v>1</v>
@@ -33285,7 +33285,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G26" s="44">
         <v>12800</v>
@@ -33312,19 +33312,19 @@
         <v>11</v>
       </c>
       <c r="P26" s="45" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S26" s="44" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="T26" s="45" t="s">
         <v>675</v>
       </c>
       <c r="U26" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X26" s="44">
         <v>1</v>
@@ -33348,7 +33348,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G27" s="44">
         <v>16800</v>
@@ -33375,19 +33375,19 @@
         <v>12</v>
       </c>
       <c r="P27" s="45" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="T27" s="45" t="s">
         <v>675</v>
       </c>
       <c r="U27" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X27" s="44">
         <v>1</v>
@@ -33411,7 +33411,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G28" s="44">
         <v>18800</v>
@@ -33438,19 +33438,19 @@
         <v>13</v>
       </c>
       <c r="P28" s="45" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="R28" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S28" s="44" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="T28" s="45" t="s">
         <v>685</v>
       </c>
       <c r="U28" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X28" s="44">
         <v>1</v>
@@ -33474,7 +33474,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G29" s="44">
         <v>19800</v>
@@ -33501,19 +33501,19 @@
         <v>14</v>
       </c>
       <c r="P29" s="45" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="R29" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="T29" s="45" t="s">
         <v>685</v>
       </c>
       <c r="U29" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X29" s="44">
         <v>1</v>
@@ -33537,7 +33537,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G30" s="44">
         <v>29800</v>
@@ -33564,19 +33564,19 @@
         <v>15</v>
       </c>
       <c r="P30" s="45" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S30" s="45" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="T30" s="45" t="s">
         <v>676</v>
       </c>
       <c r="U30" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X30" s="44">
         <v>1</v>
@@ -33600,7 +33600,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G31" s="44">
         <v>48800</v>
@@ -33627,19 +33627,19 @@
         <v>16</v>
       </c>
       <c r="P31" s="45" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="R31" s="45" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="S31" s="44" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>683</v>
       </c>
       <c r="U31" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X31" s="44">
         <v>1</v>
@@ -33663,7 +33663,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G32" s="44">
         <v>64800</v>
@@ -33690,19 +33690,19 @@
         <v>17</v>
       </c>
       <c r="P32" s="45" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="R32" s="45" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="S32" s="44" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>684</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="X32" s="44">
         <v>1</v>
@@ -33726,7 +33726,7 @@
         <v>201</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G33" s="36">
         <v>65</v>
@@ -33753,16 +33753,16 @@
         <v>1</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S33" s="35" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="T33" s="36" t="s">
-        <v>1265</v>
+        <v>1248</v>
       </c>
       <c r="U33" s="36" t="s">
         <v>408</v>
@@ -33789,7 +33789,7 @@
         <v>202</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G34" s="36">
         <v>200</v>
@@ -33816,16 +33816,16 @@
         <v>2</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="R34" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="T34" s="36" t="s">
-        <v>1265</v>
+        <v>1248</v>
       </c>
       <c r="U34" s="36" t="s">
         <v>408</v>
@@ -33852,7 +33852,7 @@
         <v>203</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G35" s="36">
         <v>400</v>
@@ -33879,10 +33879,10 @@
         <v>3</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="R35" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S35" s="35" t="s">
         <v>48</v>
@@ -33915,7 +33915,7 @@
         <v>204</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G36" s="36">
         <v>800</v>
@@ -33942,13 +33942,13 @@
         <v>4</v>
       </c>
       <c r="P36" s="36" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="R36" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S36" s="35" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="T36" s="36" t="s">
         <v>672</v>
@@ -33978,7 +33978,7 @@
         <v>205</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G37" s="36">
         <v>1200</v>
@@ -34005,16 +34005,16 @@
         <v>5</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="R37" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="T37" s="36" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
       <c r="U37" s="36" t="s">
         <v>408</v>
@@ -34041,7 +34041,7 @@
         <v>206</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G38" s="36">
         <v>2000</v>
@@ -34068,10 +34068,10 @@
         <v>6</v>
       </c>
       <c r="P38" s="36" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="R38" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S38" s="35" t="s">
         <v>53</v>
@@ -34104,7 +34104,7 @@
         <v>207</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G39" s="36">
         <v>3000</v>
@@ -34131,13 +34131,13 @@
         <v>7</v>
       </c>
       <c r="P39" s="36" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="R39" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S39" s="35" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="T39" s="36" t="s">
         <v>673</v>
@@ -34167,7 +34167,7 @@
         <v>208</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G40" s="36">
         <v>3300</v>
@@ -34194,10 +34194,10 @@
         <v>8</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="R40" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S40" s="35" t="s">
         <v>55</v>
@@ -34230,7 +34230,7 @@
         <v>209</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G41" s="36">
         <v>5800</v>
@@ -34257,13 +34257,13 @@
         <v>9</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="R41" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S41" s="35" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="T41" s="36" t="s">
         <v>674</v>
@@ -34293,7 +34293,7 @@
         <v>210</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G42" s="36">
         <v>6500</v>
@@ -34320,10 +34320,10 @@
         <v>10</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="R42" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S42" s="35" t="s">
         <v>57</v>
@@ -34356,7 +34356,7 @@
         <v>211</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G43" s="36">
         <v>8500</v>
@@ -34383,13 +34383,13 @@
         <v>11</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="R43" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S43" s="35" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="T43" s="36" t="s">
         <v>675</v>
@@ -34419,7 +34419,7 @@
         <v>212</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G44" s="36">
         <v>11200</v>
@@ -34446,13 +34446,13 @@
         <v>12</v>
       </c>
       <c r="P44" s="36" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="R44" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="T44" s="36" t="s">
         <v>675</v>
@@ -34482,7 +34482,7 @@
         <v>213</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G45" s="36">
         <v>12500</v>
@@ -34509,13 +34509,13 @@
         <v>13</v>
       </c>
       <c r="P45" s="36" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="R45" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S45" s="35" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="T45" s="36" t="s">
         <v>685</v>
@@ -34545,7 +34545,7 @@
         <v>214</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G46" s="36">
         <v>13200</v>
@@ -34572,13 +34572,13 @@
         <v>14</v>
       </c>
       <c r="P46" s="36" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="R46" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="T46" s="36" t="s">
         <v>685</v>
@@ -34608,7 +34608,7 @@
         <v>215</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G47" s="36">
         <v>19800</v>
@@ -34635,13 +34635,13 @@
         <v>15</v>
       </c>
       <c r="P47" s="36" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="R47" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S47" s="35" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="T47" s="36" t="s">
         <v>676</v>
@@ -34671,7 +34671,7 @@
         <v>216</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G48" s="36">
         <v>32500</v>
@@ -34698,13 +34698,13 @@
         <v>16</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="R48" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S48" s="35" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="T48" s="36" t="s">
         <v>683</v>
@@ -34734,7 +34734,7 @@
         <v>217</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="G49" s="36">
         <v>43200</v>
@@ -34761,13 +34761,13 @@
         <v>17</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="R49" s="36" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="S49" s="35" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="T49" s="36" t="s">
         <v>684</v>
@@ -34791,7 +34791,7 @@
         <v>201</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="E50" s="11">
         <v>201</v>
@@ -34824,7 +34824,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
       <c r="Q50" s="34"/>
       <c r="R50" s="34" t="s">
@@ -34887,7 +34887,7 @@
         <v>2</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="Q51" s="34"/>
       <c r="R51" s="34" t="s">
@@ -34950,7 +34950,7 @@
         <v>3</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
       <c r="Q52" s="34"/>
       <c r="R52" s="34" t="s">
@@ -35013,7 +35013,7 @@
         <v>4</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="Q53" s="34"/>
       <c r="R53" s="34" t="s">
@@ -35076,7 +35076,7 @@
         <v>5</v>
       </c>
       <c r="P54" s="34" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
       <c r="Q54" s="34"/>
       <c r="R54" s="34" t="s">
@@ -35139,7 +35139,7 @@
         <v>7</v>
       </c>
       <c r="P55" s="34" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="Q55" s="34"/>
       <c r="R55" s="34" t="s">
@@ -35202,11 +35202,11 @@
         <v>9</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>1176</v>
+        <v>1159</v>
       </c>
       <c r="Q56" s="34"/>
       <c r="R56" s="34" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>59</v>
@@ -35265,11 +35265,11 @@
         <v>8</v>
       </c>
       <c r="P57" s="34" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="Q57" s="34"/>
       <c r="R57" s="34" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>63</v>
@@ -35328,11 +35328,11 @@
         <v>10</v>
       </c>
       <c r="P58" s="34" t="s">
-        <v>1178</v>
+        <v>1161</v>
       </c>
       <c r="Q58" s="34"/>
       <c r="R58" s="34" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>65</v>
@@ -35616,8 +35616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36415,7 +36415,7 @@
         <v>590</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="25">
         <v>2000</v>
@@ -36473,7 +36473,7 @@
         <v>20000</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -36596,10 +36596,10 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F22" s="12">
         <v>10000</v>
@@ -36615,16 +36615,16 @@
         <v>1</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="T22" s="12">
         <v>10000</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36635,10 +36635,10 @@
         <v>29</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F23" s="12">
         <v>20000</v>
@@ -36653,16 +36653,16 @@
         <v>2</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="T23" s="12">
         <v>20000</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="V23" s="24" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36673,10 +36673,10 @@
         <v>30</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F24" s="12">
         <v>50000</v>
@@ -36691,16 +36691,16 @@
         <v>3</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="T24" s="12">
         <v>50000</v>
       </c>
       <c r="U24" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="V24" s="24" t="s">
         <v>1125</v>
-      </c>
-      <c r="V24" s="24" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36711,10 +36711,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F25" s="12">
         <v>100000</v>
@@ -36729,16 +36729,16 @@
         <v>4</v>
       </c>
       <c r="Q25" s="43" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="T25" s="12">
         <v>100000</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36749,10 +36749,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F26" s="12">
         <v>150000</v>
@@ -36773,10 +36773,10 @@
         <v>150000</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36787,10 +36787,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F27" s="12">
         <v>300000</v>
@@ -36805,16 +36805,16 @@
         <v>6</v>
       </c>
       <c r="Q27" s="43" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="T27" s="12">
         <v>300000</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36825,10 +36825,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F28" s="12">
         <v>20000</v>
@@ -36843,16 +36843,16 @@
         <v>7</v>
       </c>
       <c r="Q28" s="43" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="T28" s="12">
         <v>20000</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36863,10 +36863,10 @@
         <v>35</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F29" s="12">
         <v>50000</v>
@@ -36881,16 +36881,16 @@
         <v>8</v>
       </c>
       <c r="Q29" s="43" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="T29" s="12">
         <v>50000</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="V29" s="24" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36904,7 +36904,7 @@
         <v>659</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F30" s="12">
         <v>100000</v>
@@ -36928,7 +36928,7 @@
         <v>661</v>
       </c>
       <c r="V30" s="24" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="1355">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5126,38 +5126,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_bg_light1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6096,6 +6064,42 @@
   </si>
   <si>
     <t>50300000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_03</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_04</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_02</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_05</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pt_06</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_dz_02</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_dz_03</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_dz_04</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6795,16 +6799,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -7644,7 +7648,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="11">
@@ -7690,13 +7694,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>64</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>65</v>
@@ -7725,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="35"/>
@@ -7739,7 +7743,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="K11" s="35" t="s">
         <v>44</v>
@@ -7769,17 +7773,17 @@
         <v>1</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="V11" s="35"/>
       <c r="W11" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X11" s="35" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="Y11" s="35" t="s">
         <v>662</v>
@@ -7809,7 +7813,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="35"/>
@@ -7823,7 +7827,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="K12" s="35" t="s">
         <v>44</v>
@@ -7853,17 +7857,17 @@
         <v>2</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="V12" s="35"/>
       <c r="W12" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X12" s="35" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="Y12" s="35" t="s">
         <v>662</v>
@@ -7893,7 +7897,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="35"/>
@@ -7907,7 +7911,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="K13" s="35" t="s">
         <v>44</v>
@@ -7937,10 +7941,10 @@
         <v>3</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="V13" s="35"/>
       <c r="W13" s="35" t="s">
@@ -7977,7 +7981,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="35"/>
@@ -7991,7 +7995,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>44</v>
@@ -8021,17 +8025,17 @@
         <v>4</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="U14" s="36" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="V14" s="35"/>
       <c r="W14" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X14" s="35" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="Y14" s="35" t="s">
         <v>663</v>
@@ -8061,7 +8065,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="35"/>
@@ -8075,7 +8079,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="K15" s="35" t="s">
         <v>44</v>
@@ -8105,17 +8109,17 @@
         <v>5</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="U15" s="36" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="V15" s="35"/>
       <c r="W15" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X15" s="35" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="Y15" s="35" t="s">
         <v>664</v>
@@ -8145,7 +8149,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="35"/>
@@ -8159,7 +8163,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="K16" s="35" t="s">
         <v>44</v>
@@ -8189,10 +8193,10 @@
         <v>6</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="V16" s="35"/>
       <c r="W16" s="35" t="s">
@@ -8229,7 +8233,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="35"/>
@@ -8243,7 +8247,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="K17" s="35" t="s">
         <v>44</v>
@@ -8273,17 +8277,17 @@
         <v>7</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="V17" s="35"/>
       <c r="W17" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X17" s="35" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="Y17" s="35" t="s">
         <v>665</v>
@@ -8313,7 +8317,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="35"/>
@@ -8327,7 +8331,7 @@
         <v>43</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="K18" s="35" t="s">
         <v>44</v>
@@ -8357,10 +8361,10 @@
         <v>8</v>
       </c>
       <c r="T18" s="36" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="U18" s="36" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="V18" s="35"/>
       <c r="W18" s="35" t="s">
@@ -8397,7 +8401,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="35"/>
@@ -8411,7 +8415,7 @@
         <v>43</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="K19" s="35" t="s">
         <v>44</v>
@@ -8441,17 +8445,17 @@
         <v>9</v>
       </c>
       <c r="T19" s="36" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="U19" s="36" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="V19" s="35"/>
       <c r="W19" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X19" s="35" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="Y19" s="35" t="s">
         <v>666</v>
@@ -8481,7 +8485,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="35"/>
@@ -8495,7 +8499,7 @@
         <v>43</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>44</v>
@@ -8525,10 +8529,10 @@
         <v>10</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="U20" s="36" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="V20" s="35"/>
       <c r="W20" s="35" t="s">
@@ -8565,7 +8569,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="35"/>
@@ -8579,7 +8583,7 @@
         <v>43</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="K21" s="35" t="s">
         <v>44</v>
@@ -8609,17 +8613,17 @@
         <v>11</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="U21" s="36" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X21" s="35" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="Y21" s="36" t="s">
         <v>666</v>
@@ -8649,7 +8653,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="35"/>
@@ -8663,7 +8667,7 @@
         <v>43</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="K22" s="35" t="s">
         <v>44</v>
@@ -8693,17 +8697,17 @@
         <v>12</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="U22" s="36" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="V22" s="35"/>
       <c r="W22" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X22" s="35" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="Y22" s="36" t="s">
         <v>670</v>
@@ -8733,7 +8737,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="35"/>
@@ -8747,7 +8751,7 @@
         <v>43</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>44</v>
@@ -8777,17 +8781,17 @@
         <v>13</v>
       </c>
       <c r="T23" s="36" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="U23" s="36" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="V23" s="35"/>
       <c r="W23" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X23" s="35" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="Y23" s="36" t="s">
         <v>670</v>
@@ -8817,7 +8821,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="35"/>
@@ -8831,7 +8835,7 @@
         <v>43</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="K24" s="35" t="s">
         <v>44</v>
@@ -8861,17 +8865,17 @@
         <v>14</v>
       </c>
       <c r="T24" s="36" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="U24" s="36" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="V24" s="35"/>
       <c r="W24" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X24" s="35" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="Y24" s="36" t="s">
         <v>670</v>
@@ -8901,7 +8905,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="35"/>
@@ -8915,7 +8919,7 @@
         <v>43</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>44</v>
@@ -8945,17 +8949,17 @@
         <v>15</v>
       </c>
       <c r="T25" s="36" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="U25" s="36" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X25" s="36" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="Y25" s="36" t="s">
         <v>667</v>
@@ -8985,7 +8989,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="35"/>
@@ -8999,7 +9003,7 @@
         <v>43</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="K26" s="35" t="s">
         <v>44</v>
@@ -9029,17 +9033,17 @@
         <v>16</v>
       </c>
       <c r="T26" s="36" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="U26" s="36" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="V26" s="35"/>
       <c r="W26" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X26" s="35" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="Y26" s="36" t="s">
         <v>668</v>
@@ -9069,7 +9073,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="35"/>
@@ -9083,7 +9087,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="K27" s="35" t="s">
         <v>44</v>
@@ -9113,17 +9117,17 @@
         <v>17</v>
       </c>
       <c r="T27" s="36" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="U27" s="36" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="35" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="35" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="Y27" s="36" t="s">
         <v>669</v>
@@ -9156,23 +9160,23 @@
         <v>66</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H28" s="44">
         <v>100</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L28" s="44" t="s">
         <v>45</v>
@@ -9199,23 +9203,23 @@
         <v>1</v>
       </c>
       <c r="T28" s="45" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="U28" s="45" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="V28" s="44"/>
       <c r="W28" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X28" s="45" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="Y28" s="45" t="s">
         <v>662</v>
       </c>
       <c r="Z28" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA28" s="44"/>
       <c r="AB28" s="44"/>
@@ -9242,23 +9246,23 @@
         <v>66</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H29" s="44">
         <v>300</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L29" s="44" t="s">
         <v>45</v>
@@ -9285,23 +9289,23 @@
         <v>2</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="U29" s="45" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="V29" s="44"/>
       <c r="W29" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X29" s="45" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="Y29" s="45" t="s">
         <v>662</v>
       </c>
       <c r="Z29" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA29" s="44"/>
       <c r="AB29" s="44"/>
@@ -9328,23 +9332,23 @@
         <v>66</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H30" s="44">
         <v>600</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L30" s="44" t="s">
         <v>45</v>
@@ -9371,23 +9375,23 @@
         <v>3</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="U30" s="45" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="V30" s="44"/>
       <c r="W30" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X30" s="45" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="Y30" s="45" t="s">
         <v>662</v>
       </c>
       <c r="Z30" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA30" s="44"/>
       <c r="AB30" s="44"/>
@@ -9414,23 +9418,23 @@
         <v>66</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H31" s="44">
         <v>1200</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L31" s="44" t="s">
         <v>45</v>
@@ -9457,23 +9461,23 @@
         <v>4</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="U31" s="45" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="V31" s="44"/>
       <c r="W31" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X31" s="45" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="Y31" s="45" t="s">
         <v>663</v>
       </c>
       <c r="Z31" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA31" s="44"/>
       <c r="AB31" s="44"/>
@@ -9500,23 +9504,23 @@
         <v>66</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H32" s="44">
         <v>1800</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L32" s="44" t="s">
         <v>45</v>
@@ -9543,23 +9547,23 @@
         <v>5</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="V32" s="44"/>
       <c r="W32" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X32" s="45" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="Y32" s="45" t="s">
         <v>664</v>
       </c>
       <c r="Z32" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA32" s="44"/>
       <c r="AB32" s="44"/>
@@ -9586,23 +9590,23 @@
         <v>66</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H33" s="44">
         <v>3000</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L33" s="44" t="s">
         <v>45</v>
@@ -9629,23 +9633,23 @@
         <v>6</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="U33" s="45" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="V33" s="44"/>
       <c r="W33" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X33" s="45" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="Y33" s="45" t="s">
         <v>664</v>
       </c>
       <c r="Z33" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA33" s="44"/>
       <c r="AB33" s="44"/>
@@ -9672,23 +9676,23 @@
         <v>66</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H34" s="44">
         <v>4500</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="K34" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L34" s="44" t="s">
         <v>45</v>
@@ -9715,23 +9719,23 @@
         <v>7</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="U34" s="45" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="V34" s="44"/>
       <c r="W34" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X34" s="45" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="Y34" s="45" t="s">
         <v>665</v>
       </c>
       <c r="Z34" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA34" s="44"/>
       <c r="AB34" s="44"/>
@@ -9758,23 +9762,23 @@
         <v>66</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H35" s="44">
         <v>5000</v>
       </c>
       <c r="I35" s="45" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J35" s="45" t="s">
         <v>1182</v>
       </c>
-      <c r="J35" s="45" t="s">
-        <v>1190</v>
-      </c>
       <c r="K35" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L35" s="44" t="s">
         <v>45</v>
@@ -9801,23 +9805,23 @@
         <v>8</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="U35" s="45" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="V35" s="44"/>
       <c r="W35" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X35" s="45" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="Y35" s="45" t="s">
         <v>665</v>
       </c>
       <c r="Z35" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA35" s="44"/>
       <c r="AB35" s="44"/>
@@ -9844,23 +9848,23 @@
         <v>66</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H36" s="44">
         <v>8800</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L36" s="44" t="s">
         <v>45</v>
@@ -9887,23 +9891,23 @@
         <v>9</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="U36" s="45" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="V36" s="44"/>
       <c r="W36" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="Y36" s="45" t="s">
         <v>666</v>
       </c>
       <c r="Z36" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA36" s="44"/>
       <c r="AB36" s="44"/>
@@ -9930,23 +9934,23 @@
         <v>66</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="F37" s="44"/>
       <c r="G37" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H37" s="44">
         <v>9800</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L37" s="44" t="s">
         <v>45</v>
@@ -9973,23 +9977,23 @@
         <v>10</v>
       </c>
       <c r="T37" s="45" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="U37" s="45" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="V37" s="44"/>
       <c r="W37" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="Y37" s="45" t="s">
         <v>666</v>
       </c>
       <c r="Z37" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA37" s="44"/>
       <c r="AB37" s="44"/>
@@ -10016,23 +10020,23 @@
         <v>66</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H38" s="44">
         <v>12800</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="K38" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L38" s="44" t="s">
         <v>45</v>
@@ -10059,23 +10063,23 @@
         <v>11</v>
       </c>
       <c r="T38" s="45" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="U38" s="45" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="V38" s="44"/>
       <c r="W38" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X38" s="45" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="Y38" s="45" t="s">
         <v>666</v>
       </c>
       <c r="Z38" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA38" s="44"/>
       <c r="AB38" s="44"/>
@@ -10102,23 +10106,23 @@
         <v>66</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H39" s="44">
         <v>16800</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="K39" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L39" s="44" t="s">
         <v>45</v>
@@ -10145,23 +10149,23 @@
         <v>12</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="U39" s="45" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="V39" s="44"/>
       <c r="W39" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X39" s="45" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="Y39" s="45" t="s">
         <v>670</v>
       </c>
       <c r="Z39" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA39" s="44"/>
       <c r="AB39" s="44"/>
@@ -10188,23 +10192,23 @@
         <v>66</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H40" s="44">
         <v>18800</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J40" s="45" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="K40" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L40" s="44" t="s">
         <v>45</v>
@@ -10231,23 +10235,23 @@
         <v>13</v>
       </c>
       <c r="T40" s="45" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="U40" s="45" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="V40" s="44"/>
       <c r="W40" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X40" s="45" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="Y40" s="45" t="s">
         <v>670</v>
       </c>
       <c r="Z40" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA40" s="44"/>
       <c r="AB40" s="44"/>
@@ -10274,23 +10278,23 @@
         <v>66</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H41" s="44">
         <v>19800</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J41" s="45" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L41" s="44" t="s">
         <v>45</v>
@@ -10317,23 +10321,23 @@
         <v>14</v>
       </c>
       <c r="T41" s="45" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="V41" s="44"/>
       <c r="W41" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X41" s="45" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="Y41" s="45" t="s">
         <v>670</v>
       </c>
       <c r="Z41" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA41" s="44"/>
       <c r="AB41" s="44"/>
@@ -10360,23 +10364,23 @@
         <v>66</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H42" s="44">
         <v>29800</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J42" s="45" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="K42" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L42" s="44" t="s">
         <v>45</v>
@@ -10403,23 +10407,23 @@
         <v>15</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="V42" s="44"/>
       <c r="W42" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X42" s="45" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="Y42" s="45" t="s">
         <v>667</v>
       </c>
       <c r="Z42" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA42" s="44"/>
       <c r="AB42" s="44"/>
@@ -10446,23 +10450,23 @@
         <v>66</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="F43" s="44"/>
       <c r="G43" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H43" s="44">
         <v>48800</v>
       </c>
       <c r="I43" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L43" s="44" t="s">
         <v>45</v>
@@ -10489,23 +10493,23 @@
         <v>16</v>
       </c>
       <c r="T43" s="45" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="U43" s="45" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="V43" s="44"/>
       <c r="W43" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="Y43" s="45" t="s">
         <v>668</v>
       </c>
       <c r="Z43" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA43" s="44"/>
       <c r="AB43" s="44"/>
@@ -10532,23 +10536,23 @@
         <v>66</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="F44" s="44"/>
       <c r="G44" s="45" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="H44" s="44">
         <v>64800</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="J44" s="45" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="K44" s="45" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="L44" s="44" t="s">
         <v>45</v>
@@ -10575,23 +10579,23 @@
         <v>17</v>
       </c>
       <c r="T44" s="45" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="U44" s="45" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="V44" s="44"/>
       <c r="W44" s="44" t="s">
         <v>67</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="Y44" s="45" t="s">
         <v>669</v>
       </c>
       <c r="Z44" s="45" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AA44" s="44"/>
       <c r="AB44" s="44"/>
@@ -11201,11 +11205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H174" sqref="H174"/>
+      <selection pane="bottomRight" activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15513,7 +15517,7 @@
         <v>230</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -15531,7 +15535,7 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="P77" s="19" t="s">
         <v>1071</v>
@@ -15569,7 +15573,7 @@
         <v>231</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -15767,7 +15771,7 @@
         <v>234</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -15785,10 +15789,10 @@
         <v>5000</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="U81" s="19" t="s">
         <v>546</v>
@@ -21201,7 +21205,7 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="P171" s="19" t="s">
         <v>776</v>
@@ -21378,7 +21382,7 @@
         <v>1076</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -21396,7 +21400,7 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="P174" s="19" t="s">
         <v>779</v>
@@ -21440,10 +21444,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -21464,7 +21468,7 @@
         <v>1081</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>549</v>
@@ -21508,7 +21512,7 @@
         <v>1091</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -21526,10 +21530,10 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="U176" s="19" t="s">
         <v>549</v>
@@ -21573,7 +21577,7 @@
         <v>1085</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -21591,10 +21595,10 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="U177" s="19" t="s">
         <v>549</v>
@@ -21635,10 +21639,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -21656,10 +21660,10 @@
         <v>5000</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="U178" s="19" t="s">
         <v>549</v>
@@ -21703,7 +21707,7 @@
         <v>1086</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -21721,10 +21725,10 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="U179" s="19" t="s">
         <v>549</v>
@@ -21765,10 +21769,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -21789,7 +21793,7 @@
         <v>1081</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="U180" s="19" t="s">
         <v>549</v>
@@ -21833,7 +21837,7 @@
         <v>1087</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -21851,10 +21855,10 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="U181" s="19" t="s">
         <v>549</v>
@@ -21898,7 +21902,7 @@
         <v>1088</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -21916,10 +21920,10 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="U182" s="19" t="s">
         <v>549</v>
@@ -21963,7 +21967,7 @@
         <v>1089</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -21981,10 +21985,10 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="U183" s="19" t="s">
         <v>549</v>
@@ -22028,7 +22032,7 @@
         <v>1090</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -22046,10 +22050,10 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="U184" s="19" t="s">
         <v>549</v>
@@ -22090,10 +22094,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -22111,10 +22115,10 @@
         <v>48800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="U185" s="19" t="s">
         <v>549</v>
@@ -30935,7 +30939,7 @@
         <v>1084</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -30954,10 +30958,10 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
@@ -31014,10 +31018,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -31036,10 +31040,10 @@
         <v>5000</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
@@ -31099,7 +31103,7 @@
         <v>1077</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -31121,7 +31125,7 @@
         <v>1081</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
@@ -32527,7 +32531,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="G14" s="11">
         <v>249800</v>
@@ -32557,7 +32561,7 @@
         <v>1022</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>411</v>
@@ -32619,7 +32623,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
@@ -32629,7 +32633,7 @@
         <v>678</v>
       </c>
       <c r="U15" s="34" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="X15" s="11">
         <v>1</v>
@@ -32655,7 +32659,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G16" s="44">
         <v>100</v>
@@ -32682,19 +32686,19 @@
         <v>1</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S16" s="44" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="U16" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X16" s="44">
         <v>1</v>
@@ -32718,7 +32722,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G17" s="44">
         <v>300</v>
@@ -32745,19 +32749,19 @@
         <v>2</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S17" s="44" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="U17" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X17" s="44">
         <v>1</v>
@@ -32781,7 +32785,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G18" s="44">
         <v>600</v>
@@ -32808,10 +32812,10 @@
         <v>3</v>
       </c>
       <c r="P18" s="45" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S18" s="44" t="s">
         <v>48</v>
@@ -32820,7 +32824,7 @@
         <v>672</v>
       </c>
       <c r="U18" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X18" s="44">
         <v>1</v>
@@ -32844,7 +32848,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G19" s="44">
         <v>1200</v>
@@ -32871,19 +32875,19 @@
         <v>4</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S19" s="44" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="T19" s="45" t="s">
         <v>672</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X19" s="44">
         <v>1</v>
@@ -32907,7 +32911,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G20" s="44">
         <v>1800</v>
@@ -32934,19 +32938,19 @@
         <v>5</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="R20" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S20" s="44" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="U20" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X20" s="44">
         <v>1</v>
@@ -32970,7 +32974,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G21" s="44">
         <v>3000</v>
@@ -32997,10 +33001,10 @@
         <v>6</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S21" s="44" t="s">
         <v>53</v>
@@ -33009,7 +33013,7 @@
         <v>673</v>
       </c>
       <c r="U21" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X21" s="44">
         <v>1</v>
@@ -33033,7 +33037,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G22" s="44">
         <v>4500</v>
@@ -33060,19 +33064,19 @@
         <v>7</v>
       </c>
       <c r="P22" s="45" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="R22" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S22" s="44" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="T22" s="45" t="s">
         <v>673</v>
       </c>
       <c r="U22" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X22" s="44">
         <v>1</v>
@@ -33096,7 +33100,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G23" s="44">
         <v>5000</v>
@@ -33123,10 +33127,10 @@
         <v>8</v>
       </c>
       <c r="P23" s="45" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S23" s="44" t="s">
         <v>55</v>
@@ -33135,7 +33139,7 @@
         <v>674</v>
       </c>
       <c r="U23" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X23" s="44">
         <v>1</v>
@@ -33159,7 +33163,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G24" s="44">
         <v>8800</v>
@@ -33186,19 +33190,19 @@
         <v>9</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="R24" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S24" s="44" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="T24" s="45" t="s">
         <v>674</v>
       </c>
       <c r="U24" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X24" s="44">
         <v>1</v>
@@ -33222,7 +33226,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G25" s="44">
         <v>9800</v>
@@ -33249,10 +33253,10 @@
         <v>10</v>
       </c>
       <c r="P25" s="45" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R25" s="45" t="s">
         <v>1281</v>
-      </c>
-      <c r="R25" s="45" t="s">
-        <v>1289</v>
       </c>
       <c r="S25" s="44" t="s">
         <v>57</v>
@@ -33261,7 +33265,7 @@
         <v>675</v>
       </c>
       <c r="U25" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X25" s="44">
         <v>1</v>
@@ -33285,7 +33289,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G26" s="44">
         <v>12800</v>
@@ -33312,19 +33316,19 @@
         <v>11</v>
       </c>
       <c r="P26" s="45" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S26" s="44" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="T26" s="45" t="s">
         <v>675</v>
       </c>
       <c r="U26" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X26" s="44">
         <v>1</v>
@@ -33348,7 +33352,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G27" s="44">
         <v>16800</v>
@@ -33375,19 +33379,19 @@
         <v>12</v>
       </c>
       <c r="P27" s="45" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="T27" s="45" t="s">
         <v>675</v>
       </c>
       <c r="U27" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X27" s="44">
         <v>1</v>
@@ -33411,7 +33415,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G28" s="44">
         <v>18800</v>
@@ -33438,19 +33442,19 @@
         <v>13</v>
       </c>
       <c r="P28" s="45" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="R28" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S28" s="44" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="T28" s="45" t="s">
         <v>685</v>
       </c>
       <c r="U28" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X28" s="44">
         <v>1</v>
@@ -33474,7 +33478,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G29" s="44">
         <v>19800</v>
@@ -33501,19 +33505,19 @@
         <v>14</v>
       </c>
       <c r="P29" s="45" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="R29" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="T29" s="45" t="s">
         <v>685</v>
       </c>
       <c r="U29" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X29" s="44">
         <v>1</v>
@@ -33537,7 +33541,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G30" s="44">
         <v>29800</v>
@@ -33564,19 +33568,19 @@
         <v>15</v>
       </c>
       <c r="P30" s="45" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S30" s="45" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="T30" s="45" t="s">
         <v>676</v>
       </c>
       <c r="U30" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X30" s="44">
         <v>1</v>
@@ -33600,7 +33604,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G31" s="44">
         <v>48800</v>
@@ -33627,19 +33631,19 @@
         <v>16</v>
       </c>
       <c r="P31" s="45" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="R31" s="45" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="S31" s="44" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="T31" s="45" t="s">
         <v>683</v>
       </c>
       <c r="U31" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X31" s="44">
         <v>1</v>
@@ -33663,7 +33667,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G32" s="44">
         <v>64800</v>
@@ -33690,19 +33694,19 @@
         <v>17</v>
       </c>
       <c r="P32" s="45" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="R32" s="45" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="S32" s="44" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="T32" s="45" t="s">
         <v>684</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="X32" s="44">
         <v>1</v>
@@ -33726,7 +33730,7 @@
         <v>201</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G33" s="36">
         <v>65</v>
@@ -33753,16 +33757,16 @@
         <v>1</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S33" s="35" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="T33" s="36" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="U33" s="36" t="s">
         <v>408</v>
@@ -33789,7 +33793,7 @@
         <v>202</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G34" s="36">
         <v>200</v>
@@ -33816,16 +33820,16 @@
         <v>2</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="R34" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="T34" s="36" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="U34" s="36" t="s">
         <v>408</v>
@@ -33852,7 +33856,7 @@
         <v>203</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G35" s="36">
         <v>400</v>
@@ -33879,10 +33883,10 @@
         <v>3</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="R35" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S35" s="35" t="s">
         <v>48</v>
@@ -33915,7 +33919,7 @@
         <v>204</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G36" s="36">
         <v>800</v>
@@ -33942,13 +33946,13 @@
         <v>4</v>
       </c>
       <c r="P36" s="36" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="R36" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S36" s="35" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="T36" s="36" t="s">
         <v>672</v>
@@ -33978,7 +33982,7 @@
         <v>205</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G37" s="36">
         <v>1200</v>
@@ -34005,16 +34009,16 @@
         <v>5</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="R37" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="T37" s="36" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="U37" s="36" t="s">
         <v>408</v>
@@ -34041,7 +34045,7 @@
         <v>206</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G38" s="36">
         <v>2000</v>
@@ -34068,10 +34072,10 @@
         <v>6</v>
       </c>
       <c r="P38" s="36" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="R38" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S38" s="35" t="s">
         <v>53</v>
@@ -34104,7 +34108,7 @@
         <v>207</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G39" s="36">
         <v>3000</v>
@@ -34131,13 +34135,13 @@
         <v>7</v>
       </c>
       <c r="P39" s="36" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="R39" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S39" s="35" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="T39" s="36" t="s">
         <v>673</v>
@@ -34167,7 +34171,7 @@
         <v>208</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G40" s="36">
         <v>3300</v>
@@ -34194,10 +34198,10 @@
         <v>8</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="R40" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S40" s="35" t="s">
         <v>55</v>
@@ -34230,7 +34234,7 @@
         <v>209</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G41" s="36">
         <v>5800</v>
@@ -34257,13 +34261,13 @@
         <v>9</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="R41" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S41" s="35" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="T41" s="36" t="s">
         <v>674</v>
@@ -34293,7 +34297,7 @@
         <v>210</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G42" s="36">
         <v>6500</v>
@@ -34320,10 +34324,10 @@
         <v>10</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="R42" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S42" s="35" t="s">
         <v>57</v>
@@ -34356,7 +34360,7 @@
         <v>211</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G43" s="36">
         <v>8500</v>
@@ -34383,13 +34387,13 @@
         <v>11</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="R43" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S43" s="35" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="T43" s="36" t="s">
         <v>675</v>
@@ -34419,7 +34423,7 @@
         <v>212</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G44" s="36">
         <v>11200</v>
@@ -34446,13 +34450,13 @@
         <v>12</v>
       </c>
       <c r="P44" s="36" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="R44" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="T44" s="36" t="s">
         <v>675</v>
@@ -34482,7 +34486,7 @@
         <v>213</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G45" s="36">
         <v>12500</v>
@@ -34509,13 +34513,13 @@
         <v>13</v>
       </c>
       <c r="P45" s="36" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="R45" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S45" s="35" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="T45" s="36" t="s">
         <v>685</v>
@@ -34545,7 +34549,7 @@
         <v>214</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G46" s="36">
         <v>13200</v>
@@ -34572,13 +34576,13 @@
         <v>14</v>
       </c>
       <c r="P46" s="36" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="R46" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="T46" s="36" t="s">
         <v>685</v>
@@ -34608,7 +34612,7 @@
         <v>215</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G47" s="36">
         <v>19800</v>
@@ -34635,13 +34639,13 @@
         <v>15</v>
       </c>
       <c r="P47" s="36" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="R47" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S47" s="35" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="T47" s="36" t="s">
         <v>676</v>
@@ -34671,7 +34675,7 @@
         <v>216</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G48" s="36">
         <v>32500</v>
@@ -34698,13 +34702,13 @@
         <v>16</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="R48" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S48" s="35" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="T48" s="36" t="s">
         <v>683</v>
@@ -34734,7 +34738,7 @@
         <v>217</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G49" s="36">
         <v>43200</v>
@@ -34761,13 +34765,13 @@
         <v>17</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="R49" s="36" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S49" s="35" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="T49" s="36" t="s">
         <v>684</v>
@@ -34791,7 +34795,7 @@
         <v>201</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="E50" s="11">
         <v>201</v>
@@ -34824,7 +34828,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="Q50" s="34"/>
       <c r="R50" s="34" t="s">
@@ -34887,7 +34891,7 @@
         <v>2</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="Q51" s="34"/>
       <c r="R51" s="34" t="s">
@@ -34950,7 +34954,7 @@
         <v>3</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="Q52" s="34"/>
       <c r="R52" s="34" t="s">
@@ -35013,7 +35017,7 @@
         <v>4</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="Q53" s="34"/>
       <c r="R53" s="34" t="s">
@@ -35076,7 +35080,7 @@
         <v>5</v>
       </c>
       <c r="P54" s="34" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="Q54" s="34"/>
       <c r="R54" s="34" t="s">
@@ -35139,7 +35143,7 @@
         <v>7</v>
       </c>
       <c r="P55" s="34" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="Q55" s="34"/>
       <c r="R55" s="34" t="s">
@@ -35202,11 +35206,11 @@
         <v>9</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="Q56" s="34"/>
       <c r="R56" s="34" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>59</v>
@@ -35265,11 +35269,11 @@
         <v>8</v>
       </c>
       <c r="P57" s="34" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="Q57" s="34"/>
       <c r="R57" s="34" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>63</v>
@@ -35328,11 +35332,11 @@
         <v>10</v>
       </c>
       <c r="P58" s="34" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="Q58" s="34"/>
       <c r="R58" s="34" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>65</v>
@@ -35614,10 +35618,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36473,7 +36477,7 @@
         <v>20000</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -36621,10 +36625,10 @@
         <v>10000</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1118</v>
+        <v>1348</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36658,11 +36662,11 @@
       <c r="T23" s="12">
         <v>20000</v>
       </c>
-      <c r="U23" s="2" t="s">
-        <v>1119</v>
+      <c r="U23" s="3" t="s">
+        <v>1349</v>
       </c>
       <c r="V23" s="24" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36696,11 +36700,11 @@
       <c r="T24" s="12">
         <v>50000</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>1120</v>
+      <c r="U24" s="3" t="s">
+        <v>1346</v>
       </c>
       <c r="V24" s="24" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36734,11 +36738,11 @@
       <c r="T25" s="12">
         <v>100000</v>
       </c>
-      <c r="U25" s="2" t="s">
-        <v>1121</v>
+      <c r="U25" s="3" t="s">
+        <v>1347</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36773,10 +36777,10 @@
         <v>150000</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1122</v>
+        <v>1350</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36811,10 +36815,10 @@
         <v>300000</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1123</v>
+        <v>1351</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36848,11 +36852,11 @@
       <c r="T28" s="12">
         <v>20000</v>
       </c>
-      <c r="U28" s="2" t="s">
-        <v>1116</v>
+      <c r="U28" s="3" t="s">
+        <v>1352</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36886,11 +36890,11 @@
       <c r="T29" s="12">
         <v>50000</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="V29" s="24" t="s">
         <v>1117</v>
-      </c>
-      <c r="V29" s="24" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36925,11 +36929,38 @@
         <v>100000</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>661</v>
+        <v>1354</v>
       </c>
       <c r="V30" s="24" t="s">
-        <v>1125</v>
-      </c>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -11487,7 +11487,10 @@
   <dimension ref="A1:AL326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11829,7 +11832,7 @@
         <v>1356</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>100</v>
@@ -12958,7 +12961,7 @@
         <v>1359</v>
       </c>
       <c r="F25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>146</v>
@@ -14591,7 +14594,7 @@
         <v>1378</v>
       </c>
       <c r="F54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>200</v>
@@ -14703,7 +14706,7 @@
         <v>1379</v>
       </c>
       <c r="F56" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>1048</v>
@@ -31870,6 +31873,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL326"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7146,11 +7146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8004,7 +8004,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="35">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C11" s="35">
         <v>1</v>
@@ -8088,7 +8088,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="35">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="C12" s="35">
         <v>2</v>
@@ -8172,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="35">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="C13" s="35">
         <v>3</v>
@@ -8256,7 +8256,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="35">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="C14" s="35">
         <v>4</v>
@@ -8340,7 +8340,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="35">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="C15" s="35">
         <v>5</v>
@@ -8424,7 +8424,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="35">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C16" s="35">
         <v>6</v>
@@ -8508,7 +8508,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="35">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C17" s="35">
         <v>7</v>
@@ -8592,7 +8592,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="35">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C18" s="35">
         <v>8</v>
@@ -8676,7 +8676,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="35">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C19" s="35">
         <v>9</v>
@@ -8760,7 +8760,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="35">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C20" s="35">
         <v>10</v>
@@ -8844,7 +8844,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="35">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C21" s="35">
         <v>11</v>
@@ -8928,7 +8928,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="35">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="C22" s="35">
         <v>12</v>
@@ -9012,7 +9012,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="35">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C23" s="35">
         <v>13</v>
@@ -9096,7 +9096,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="35">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C24" s="35">
         <v>14</v>
@@ -9180,7 +9180,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="35">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C25" s="35">
         <v>15</v>
@@ -9264,7 +9264,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="35">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="C26" s="35">
         <v>16</v>
@@ -9348,7 +9348,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="35">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C27" s="35">
         <v>17</v>
@@ -9434,9 +9434,7 @@
       <c r="B28" s="44">
         <v>201</v>
       </c>
-      <c r="C28" s="44">
-        <v>201</v>
-      </c>
+      <c r="C28" s="44"/>
       <c r="D28" s="44" t="s">
         <v>66</v>
       </c>
@@ -9520,9 +9518,7 @@
       <c r="B29" s="44">
         <v>202</v>
       </c>
-      <c r="C29" s="44">
-        <v>202</v>
-      </c>
+      <c r="C29" s="44"/>
       <c r="D29" s="44" t="s">
         <v>66</v>
       </c>
@@ -9606,9 +9602,7 @@
       <c r="B30" s="44">
         <v>203</v>
       </c>
-      <c r="C30" s="44">
-        <v>203</v>
-      </c>
+      <c r="C30" s="44"/>
       <c r="D30" s="44" t="s">
         <v>66</v>
       </c>
@@ -9692,9 +9686,7 @@
       <c r="B31" s="44">
         <v>204</v>
       </c>
-      <c r="C31" s="44">
-        <v>204</v>
-      </c>
+      <c r="C31" s="44"/>
       <c r="D31" s="44" t="s">
         <v>66</v>
       </c>
@@ -9778,9 +9770,7 @@
       <c r="B32" s="44">
         <v>205</v>
       </c>
-      <c r="C32" s="44">
-        <v>205</v>
-      </c>
+      <c r="C32" s="44"/>
       <c r="D32" s="44" t="s">
         <v>66</v>
       </c>
@@ -9864,9 +9854,7 @@
       <c r="B33" s="44">
         <v>206</v>
       </c>
-      <c r="C33" s="44">
-        <v>206</v>
-      </c>
+      <c r="C33" s="44"/>
       <c r="D33" s="44" t="s">
         <v>66</v>
       </c>
@@ -9950,9 +9938,7 @@
       <c r="B34" s="44">
         <v>207</v>
       </c>
-      <c r="C34" s="44">
-        <v>207</v>
-      </c>
+      <c r="C34" s="44"/>
       <c r="D34" s="44" t="s">
         <v>66</v>
       </c>
@@ -10036,9 +10022,7 @@
       <c r="B35" s="44">
         <v>208</v>
       </c>
-      <c r="C35" s="44">
-        <v>208</v>
-      </c>
+      <c r="C35" s="44"/>
       <c r="D35" s="44" t="s">
         <v>66</v>
       </c>
@@ -10122,9 +10106,7 @@
       <c r="B36" s="44">
         <v>209</v>
       </c>
-      <c r="C36" s="44">
-        <v>209</v>
-      </c>
+      <c r="C36" s="44"/>
       <c r="D36" s="44" t="s">
         <v>66</v>
       </c>
@@ -10208,9 +10190,7 @@
       <c r="B37" s="44">
         <v>210</v>
       </c>
-      <c r="C37" s="44">
-        <v>210</v>
-      </c>
+      <c r="C37" s="44"/>
       <c r="D37" s="44" t="s">
         <v>66</v>
       </c>
@@ -10294,9 +10274,7 @@
       <c r="B38" s="44">
         <v>211</v>
       </c>
-      <c r="C38" s="44">
-        <v>211</v>
-      </c>
+      <c r="C38" s="44"/>
       <c r="D38" s="44" t="s">
         <v>66</v>
       </c>
@@ -10380,9 +10358,7 @@
       <c r="B39" s="44">
         <v>212</v>
       </c>
-      <c r="C39" s="44">
-        <v>212</v>
-      </c>
+      <c r="C39" s="44"/>
       <c r="D39" s="44" t="s">
         <v>66</v>
       </c>
@@ -10466,9 +10442,7 @@
       <c r="B40" s="44">
         <v>213</v>
       </c>
-      <c r="C40" s="44">
-        <v>213</v>
-      </c>
+      <c r="C40" s="44"/>
       <c r="D40" s="44" t="s">
         <v>66</v>
       </c>
@@ -10552,9 +10526,7 @@
       <c r="B41" s="44">
         <v>214</v>
       </c>
-      <c r="C41" s="44">
-        <v>214</v>
-      </c>
+      <c r="C41" s="44"/>
       <c r="D41" s="44" t="s">
         <v>66</v>
       </c>
@@ -10638,9 +10610,7 @@
       <c r="B42" s="44">
         <v>215</v>
       </c>
-      <c r="C42" s="44">
-        <v>215</v>
-      </c>
+      <c r="C42" s="44"/>
       <c r="D42" s="44" t="s">
         <v>66</v>
       </c>
@@ -10724,9 +10694,7 @@
       <c r="B43" s="44">
         <v>216</v>
       </c>
-      <c r="C43" s="44">
-        <v>216</v>
-      </c>
+      <c r="C43" s="44"/>
       <c r="D43" s="44" t="s">
         <v>66</v>
       </c>
@@ -10810,9 +10778,7 @@
       <c r="B44" s="44">
         <v>217</v>
       </c>
-      <c r="C44" s="44">
-        <v>217</v>
-      </c>
+      <c r="C44" s="44"/>
       <c r="D44" s="44" t="s">
         <v>66</v>
       </c>
@@ -11486,11 +11452,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="N62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32278,10 +32244,10 @@
   <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N46" sqref="N46"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33296,13 +33262,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="44">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="44">
-        <v>1</v>
+      <c r="E16" s="35">
+        <v>111</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>1260</v>
@@ -33359,13 +33325,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="44">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="44">
-        <v>2</v>
+      <c r="E17" s="35">
+        <v>112</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>1260</v>
@@ -33422,13 +33388,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="44">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="44">
-        <v>3</v>
+      <c r="E18" s="35">
+        <v>113</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>1260</v>
@@ -33485,13 +33451,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="44">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="44">
-        <v>4</v>
+      <c r="E19" s="35">
+        <v>114</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>1260</v>
@@ -33548,13 +33514,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="44">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="44">
-        <v>5</v>
+      <c r="E20" s="35">
+        <v>115</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>1260</v>
@@ -33611,13 +33577,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="44">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="44">
-        <v>6</v>
+      <c r="E21" s="35">
+        <v>116</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>1260</v>
@@ -33674,13 +33640,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="44">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="44">
-        <v>7</v>
+      <c r="E22" s="35">
+        <v>117</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>1260</v>
@@ -33737,13 +33703,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="44">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="44">
-        <v>8</v>
+      <c r="E23" s="35">
+        <v>118</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>1260</v>
@@ -33800,13 +33766,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="44">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="44">
-        <v>9</v>
+      <c r="E24" s="35">
+        <v>119</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>1260</v>
@@ -33863,13 +33829,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="44">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="44">
-        <v>10</v>
+      <c r="E25" s="35">
+        <v>120</v>
       </c>
       <c r="F25" s="45" t="s">
         <v>1260</v>
@@ -33926,13 +33892,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="44">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="44">
-        <v>11</v>
+      <c r="E26" s="35">
+        <v>121</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>1260</v>
@@ -33989,13 +33955,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="44">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="44">
-        <v>12</v>
+      <c r="E27" s="35">
+        <v>122</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>1260</v>
@@ -34052,13 +34018,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="44">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="44">
-        <v>13</v>
+      <c r="E28" s="35">
+        <v>123</v>
       </c>
       <c r="F28" s="45" t="s">
         <v>1260</v>
@@ -34115,13 +34081,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="44">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="44">
-        <v>14</v>
+      <c r="E29" s="35">
+        <v>124</v>
       </c>
       <c r="F29" s="45" t="s">
         <v>1260</v>
@@ -34178,13 +34144,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="44">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="44">
-        <v>15</v>
+      <c r="E30" s="35">
+        <v>125</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>1260</v>
@@ -34241,13 +34207,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="44">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="44">
-        <v>16</v>
+      <c r="E31" s="35">
+        <v>126</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>1260</v>
@@ -34304,13 +34270,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="44">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="44">
-        <v>17</v>
+      <c r="E32" s="35">
+        <v>127</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>1260</v>
@@ -34367,12 +34333,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="35">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="44">
         <v>201</v>
       </c>
       <c r="F33" s="36" t="s">
@@ -34430,12 +34396,12 @@
         <v>33</v>
       </c>
       <c r="B34" s="35">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="44">
         <v>202</v>
       </c>
       <c r="F34" s="36" t="s">
@@ -34493,12 +34459,12 @@
         <v>34</v>
       </c>
       <c r="B35" s="35">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="44">
         <v>203</v>
       </c>
       <c r="F35" s="36" t="s">
@@ -34556,12 +34522,12 @@
         <v>35</v>
       </c>
       <c r="B36" s="35">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="44">
         <v>204</v>
       </c>
       <c r="F36" s="36" t="s">
@@ -34619,12 +34585,12 @@
         <v>36</v>
       </c>
       <c r="B37" s="35">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="44">
         <v>205</v>
       </c>
       <c r="F37" s="36" t="s">
@@ -34682,12 +34648,12 @@
         <v>37</v>
       </c>
       <c r="B38" s="35">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="44">
         <v>206</v>
       </c>
       <c r="F38" s="36" t="s">
@@ -34745,12 +34711,12 @@
         <v>38</v>
       </c>
       <c r="B39" s="35">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="44">
         <v>207</v>
       </c>
       <c r="F39" s="36" t="s">
@@ -34808,12 +34774,12 @@
         <v>39</v>
       </c>
       <c r="B40" s="35">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C40" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="44">
         <v>208</v>
       </c>
       <c r="F40" s="36" t="s">
@@ -34871,12 +34837,12 @@
         <v>40</v>
       </c>
       <c r="B41" s="35">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="44">
         <v>209</v>
       </c>
       <c r="F41" s="36" t="s">
@@ -34934,12 +34900,12 @@
         <v>41</v>
       </c>
       <c r="B42" s="35">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="44">
         <v>210</v>
       </c>
       <c r="F42" s="36" t="s">
@@ -34997,12 +34963,12 @@
         <v>42</v>
       </c>
       <c r="B43" s="35">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="44">
         <v>211</v>
       </c>
       <c r="F43" s="36" t="s">
@@ -35060,12 +35026,12 @@
         <v>43</v>
       </c>
       <c r="B44" s="35">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C44" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="44">
         <v>212</v>
       </c>
       <c r="F44" s="36" t="s">
@@ -35123,12 +35089,12 @@
         <v>44</v>
       </c>
       <c r="B45" s="35">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="44">
         <v>213</v>
       </c>
       <c r="F45" s="36" t="s">
@@ -35186,12 +35152,12 @@
         <v>45</v>
       </c>
       <c r="B46" s="35">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="44">
         <v>214</v>
       </c>
       <c r="F46" s="36" t="s">
@@ -35249,12 +35215,12 @@
         <v>46</v>
       </c>
       <c r="B47" s="35">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="44">
         <v>215</v>
       </c>
       <c r="F47" s="36" t="s">
@@ -35312,12 +35278,12 @@
         <v>47</v>
       </c>
       <c r="B48" s="35">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="44">
         <v>216</v>
       </c>
       <c r="F48" s="36" t="s">
@@ -35375,12 +35341,12 @@
         <v>48</v>
       </c>
       <c r="B49" s="35">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="44">
         <v>217</v>
       </c>
       <c r="F49" s="36" t="s">
@@ -36266,8 +36232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_ios提审/shoping_config.xlsx
+++ b/config_ios提审/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1361">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -2953,10 +2953,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_6y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_jb_998y</t>
   </si>
   <si>
@@ -6102,6 +6098,34 @@
   </si>
   <si>
     <t>product_id|appstore的产品id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确定消耗1000福钻石来兑换\n100万金币？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6720,7 +6744,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -6747,10 +6771,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -6777,10 +6801,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -6801,16 +6825,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>1322</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="18" t="s">
         <v>1323</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>1324</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1325</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -6868,10 +6892,10 @@
   <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6912,13 +6936,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -7025,7 +7049,7 @@
         <v>42</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
@@ -7105,7 +7129,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -7185,7 +7209,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -7265,7 +7289,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>43</v>
@@ -7345,7 +7369,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>43</v>
@@ -7425,7 +7449,7 @@
         <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>43</v>
@@ -7505,7 +7529,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>43</v>
@@ -7585,7 +7609,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>43</v>
@@ -7650,7 +7674,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="11">
@@ -7666,7 +7690,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>43</v>
@@ -7696,13 +7720,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>63</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>64</v>
@@ -7731,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="35"/>
@@ -7745,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="K11" s="35" t="s">
         <v>43</v>
@@ -7775,17 +7799,17 @@
         <v>1</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="V11" s="35"/>
       <c r="W11" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X11" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Y11" s="35" t="s">
         <v>660</v>
@@ -7815,7 +7839,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="35"/>
@@ -7829,7 +7853,7 @@
         <v>42</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="K12" s="35" t="s">
         <v>43</v>
@@ -7859,17 +7883,17 @@
         <v>2</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="V12" s="35"/>
       <c r="W12" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X12" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Y12" s="35" t="s">
         <v>660</v>
@@ -7899,7 +7923,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="35"/>
@@ -7913,7 +7937,7 @@
         <v>42</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="K13" s="35" t="s">
         <v>43</v>
@@ -7943,10 +7967,10 @@
         <v>3</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="V13" s="35"/>
       <c r="W13" s="35" t="s">
@@ -7983,7 +8007,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="35"/>
@@ -7997,7 +8021,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>43</v>
@@ -8027,17 +8051,17 @@
         <v>4</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="U14" s="36" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="V14" s="35"/>
       <c r="W14" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X14" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Y14" s="35" t="s">
         <v>661</v>
@@ -8067,7 +8091,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="35"/>
@@ -8081,7 +8105,7 @@
         <v>42</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K15" s="35" t="s">
         <v>43</v>
@@ -8111,17 +8135,17 @@
         <v>5</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="U15" s="36" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="V15" s="35"/>
       <c r="W15" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X15" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Y15" s="35" t="s">
         <v>662</v>
@@ -8151,7 +8175,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="35"/>
@@ -8165,7 +8189,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K16" s="35" t="s">
         <v>43</v>
@@ -8195,10 +8219,10 @@
         <v>6</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="V16" s="35"/>
       <c r="W16" s="35" t="s">
@@ -8235,7 +8259,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="35"/>
@@ -8249,7 +8273,7 @@
         <v>42</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="K17" s="35" t="s">
         <v>43</v>
@@ -8279,17 +8303,17 @@
         <v>7</v>
       </c>
       <c r="T17" s="36" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="V17" s="35"/>
       <c r="W17" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X17" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Y17" s="35" t="s">
         <v>663</v>
@@ -8319,7 +8343,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="35"/>
@@ -8333,7 +8357,7 @@
         <v>42</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K18" s="35" t="s">
         <v>43</v>
@@ -8363,10 +8387,10 @@
         <v>8</v>
       </c>
       <c r="T18" s="36" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="U18" s="36" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="V18" s="35"/>
       <c r="W18" s="35" t="s">
@@ -8403,7 +8427,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="35"/>
@@ -8417,7 +8441,7 @@
         <v>42</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="K19" s="35" t="s">
         <v>43</v>
@@ -8447,17 +8471,17 @@
         <v>9</v>
       </c>
       <c r="T19" s="36" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="U19" s="36" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="V19" s="35"/>
       <c r="W19" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X19" s="35" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Y19" s="35" t="s">
         <v>664</v>
@@ -8487,7 +8511,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="35"/>
@@ -8501,7 +8525,7 @@
         <v>42</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>43</v>
@@ -8531,10 +8555,10 @@
         <v>10</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="U20" s="36" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="V20" s="35"/>
       <c r="W20" s="35" t="s">
@@ -8571,7 +8595,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="35"/>
@@ -8585,7 +8609,7 @@
         <v>42</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="K21" s="35" t="s">
         <v>43</v>
@@ -8615,17 +8639,17 @@
         <v>11</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="U21" s="36" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X21" s="35" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Y21" s="36" t="s">
         <v>664</v>
@@ -8655,7 +8679,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="35"/>
@@ -8669,7 +8693,7 @@
         <v>42</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="K22" s="35" t="s">
         <v>43</v>
@@ -8699,17 +8723,17 @@
         <v>12</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="U22" s="36" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="V22" s="35"/>
       <c r="W22" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X22" s="35" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Y22" s="36" t="s">
         <v>668</v>
@@ -8739,7 +8763,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="35"/>
@@ -8753,7 +8777,7 @@
         <v>42</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>43</v>
@@ -8783,17 +8807,17 @@
         <v>13</v>
       </c>
       <c r="T23" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="U23" s="36" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="V23" s="35"/>
       <c r="W23" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X23" s="35" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="Y23" s="36" t="s">
         <v>668</v>
@@ -8823,7 +8847,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="35"/>
@@ -8837,7 +8861,7 @@
         <v>42</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="K24" s="35" t="s">
         <v>43</v>
@@ -8867,17 +8891,17 @@
         <v>14</v>
       </c>
       <c r="T24" s="36" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="U24" s="36" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="V24" s="35"/>
       <c r="W24" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X24" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Y24" s="36" t="s">
         <v>668</v>
@@ -8907,7 +8931,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="35"/>
@@ -8921,7 +8945,7 @@
         <v>42</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>43</v>
@@ -8951,17 +8975,17 @@
         <v>15</v>
       </c>
       <c r="T25" s="36" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="U25" s="36" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X25" s="36" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Y25" s="36" t="s">
         <v>665</v>
@@ -8991,7 +9015,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="35"/>
@@ -9005,7 +9029,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K26" s="35" t="s">
         <v>43</v>
@@ -9035,17 +9059,17 @@
         <v>16</v>
       </c>
       <c r="T26" s="36" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="U26" s="36" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="V26" s="35"/>
       <c r="W26" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X26" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Y26" s="36" t="s">
         <v>666</v>
@@ -9075,7 +9099,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="35"/>
@@ -9089,7 +9113,7 @@
         <v>42</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K27" s="35" t="s">
         <v>43</v>
@@ -9119,17 +9143,17 @@
         <v>17</v>
       </c>
       <c r="T27" s="36" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="U27" s="36" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="35" t="s">
         <v>46</v>
       </c>
       <c r="X27" s="35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="Y27" s="36" t="s">
         <v>667</v>
@@ -9162,23 +9186,23 @@
         <v>65</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H28" s="44">
         <v>100</v>
       </c>
       <c r="I28" s="45" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J28" s="45" t="s">
         <v>1171</v>
       </c>
-      <c r="J28" s="45" t="s">
-        <v>1172</v>
-      </c>
       <c r="K28" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L28" s="44" t="s">
         <v>44</v>
@@ -9205,23 +9229,23 @@
         <v>1</v>
       </c>
       <c r="T28" s="45" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="U28" s="45" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V28" s="44"/>
       <c r="W28" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X28" s="45" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Y28" s="45" t="s">
         <v>660</v>
       </c>
       <c r="Z28" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA28" s="44"/>
       <c r="AB28" s="44"/>
@@ -9248,23 +9272,23 @@
         <v>65</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H29" s="44">
         <v>300</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L29" s="44" t="s">
         <v>44</v>
@@ -9291,23 +9315,23 @@
         <v>2</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="U29" s="45" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V29" s="44"/>
       <c r="W29" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X29" s="45" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Y29" s="45" t="s">
         <v>660</v>
       </c>
       <c r="Z29" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA29" s="44"/>
       <c r="AB29" s="44"/>
@@ -9334,23 +9358,23 @@
         <v>65</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H30" s="44">
         <v>600</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L30" s="44" t="s">
         <v>44</v>
@@ -9377,23 +9401,23 @@
         <v>3</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="U30" s="45" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="V30" s="44"/>
       <c r="W30" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X30" s="45" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Y30" s="45" t="s">
         <v>660</v>
       </c>
       <c r="Z30" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA30" s="44"/>
       <c r="AB30" s="44"/>
@@ -9420,23 +9444,23 @@
         <v>65</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H31" s="44">
         <v>1200</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L31" s="44" t="s">
         <v>44</v>
@@ -9463,23 +9487,23 @@
         <v>4</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="U31" s="45" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="V31" s="44"/>
       <c r="W31" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X31" s="45" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Y31" s="45" t="s">
         <v>661</v>
       </c>
       <c r="Z31" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA31" s="44"/>
       <c r="AB31" s="44"/>
@@ -9506,23 +9530,23 @@
         <v>65</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H32" s="44">
         <v>1800</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L32" s="44" t="s">
         <v>44</v>
@@ -9549,23 +9573,23 @@
         <v>5</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="V32" s="44"/>
       <c r="W32" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X32" s="45" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Y32" s="45" t="s">
         <v>662</v>
       </c>
       <c r="Z32" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA32" s="44"/>
       <c r="AB32" s="44"/>
@@ -9592,23 +9616,23 @@
         <v>65</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H33" s="44">
         <v>3000</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L33" s="44" t="s">
         <v>44</v>
@@ -9635,23 +9659,23 @@
         <v>6</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="U33" s="45" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V33" s="44"/>
       <c r="W33" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X33" s="45" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Y33" s="45" t="s">
         <v>662</v>
       </c>
       <c r="Z33" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA33" s="44"/>
       <c r="AB33" s="44"/>
@@ -9678,23 +9702,23 @@
         <v>65</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H34" s="44">
         <v>4500</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K34" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L34" s="44" t="s">
         <v>44</v>
@@ -9721,23 +9745,23 @@
         <v>7</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="U34" s="45" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V34" s="44"/>
       <c r="W34" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X34" s="45" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Y34" s="45" t="s">
         <v>663</v>
       </c>
       <c r="Z34" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA34" s="44"/>
       <c r="AB34" s="44"/>
@@ -9764,23 +9788,23 @@
         <v>65</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H35" s="44">
         <v>5000</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="K35" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L35" s="44" t="s">
         <v>44</v>
@@ -9807,23 +9831,23 @@
         <v>8</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="U35" s="45" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="V35" s="44"/>
       <c r="W35" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X35" s="45" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Y35" s="45" t="s">
         <v>663</v>
       </c>
       <c r="Z35" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA35" s="44"/>
       <c r="AB35" s="44"/>
@@ -9850,23 +9874,23 @@
         <v>65</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H36" s="44">
         <v>8800</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L36" s="44" t="s">
         <v>44</v>
@@ -9893,23 +9917,23 @@
         <v>9</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="U36" s="45" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V36" s="44"/>
       <c r="W36" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y36" s="45" t="s">
         <v>664</v>
       </c>
       <c r="Z36" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA36" s="44"/>
       <c r="AB36" s="44"/>
@@ -9936,23 +9960,23 @@
         <v>65</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F37" s="44"/>
       <c r="G37" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H37" s="44">
         <v>9800</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L37" s="44" t="s">
         <v>44</v>
@@ -9979,23 +10003,23 @@
         <v>10</v>
       </c>
       <c r="T37" s="45" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="U37" s="45" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V37" s="44"/>
       <c r="W37" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Y37" s="45" t="s">
         <v>664</v>
       </c>
       <c r="Z37" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA37" s="44"/>
       <c r="AB37" s="44"/>
@@ -10022,23 +10046,23 @@
         <v>65</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H38" s="44">
         <v>12800</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="K38" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L38" s="44" t="s">
         <v>44</v>
@@ -10065,23 +10089,23 @@
         <v>11</v>
       </c>
       <c r="T38" s="45" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="U38" s="45" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="V38" s="44"/>
       <c r="W38" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X38" s="45" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="Y38" s="45" t="s">
         <v>664</v>
       </c>
       <c r="Z38" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA38" s="44"/>
       <c r="AB38" s="44"/>
@@ -10108,23 +10132,23 @@
         <v>65</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H39" s="44">
         <v>16800</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="K39" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L39" s="44" t="s">
         <v>44</v>
@@ -10151,23 +10175,23 @@
         <v>12</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="U39" s="45" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="V39" s="44"/>
       <c r="W39" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X39" s="45" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="Y39" s="45" t="s">
         <v>668</v>
       </c>
       <c r="Z39" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA39" s="44"/>
       <c r="AB39" s="44"/>
@@ -10194,23 +10218,23 @@
         <v>65</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H40" s="44">
         <v>18800</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J40" s="45" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K40" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L40" s="44" t="s">
         <v>44</v>
@@ -10237,23 +10261,23 @@
         <v>13</v>
       </c>
       <c r="T40" s="45" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="U40" s="45" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="V40" s="44"/>
       <c r="W40" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X40" s="45" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Y40" s="45" t="s">
         <v>668</v>
       </c>
       <c r="Z40" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA40" s="44"/>
       <c r="AB40" s="44"/>
@@ -10280,23 +10304,23 @@
         <v>65</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H41" s="44">
         <v>19800</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J41" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L41" s="44" t="s">
         <v>44</v>
@@ -10323,23 +10347,23 @@
         <v>14</v>
       </c>
       <c r="T41" s="45" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="V41" s="44"/>
       <c r="W41" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X41" s="45" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Y41" s="45" t="s">
         <v>668</v>
       </c>
       <c r="Z41" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA41" s="44"/>
       <c r="AB41" s="44"/>
@@ -10366,23 +10390,23 @@
         <v>65</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H42" s="44">
         <v>29800</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J42" s="45" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="K42" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L42" s="44" t="s">
         <v>44</v>
@@ -10409,23 +10433,23 @@
         <v>15</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="V42" s="44"/>
       <c r="W42" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X42" s="45" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Y42" s="45" t="s">
         <v>665</v>
       </c>
       <c r="Z42" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA42" s="44"/>
       <c r="AB42" s="44"/>
@@ -10452,23 +10476,23 @@
         <v>65</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F43" s="44"/>
       <c r="G43" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H43" s="44">
         <v>48800</v>
       </c>
       <c r="I43" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L43" s="44" t="s">
         <v>44</v>
@@ -10495,23 +10519,23 @@
         <v>16</v>
       </c>
       <c r="T43" s="45" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="U43" s="45" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="V43" s="44"/>
       <c r="W43" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="Y43" s="45" t="s">
         <v>666</v>
       </c>
       <c r="Z43" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA43" s="44"/>
       <c r="AB43" s="44"/>
@@ -10538,23 +10562,23 @@
         <v>65</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F44" s="44"/>
       <c r="G44" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H44" s="44">
         <v>64800</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J44" s="45" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="K44" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L44" s="44" t="s">
         <v>44</v>
@@ -10581,23 +10605,23 @@
         <v>17</v>
       </c>
       <c r="T44" s="45" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="U44" s="45" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V44" s="44"/>
       <c r="W44" s="44" t="s">
         <v>66</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Y44" s="45" t="s">
         <v>667</v>
       </c>
       <c r="Z44" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AA44" s="44"/>
       <c r="AB44" s="44"/>
@@ -10628,7 +10652,7 @@
         <v>69</v>
       </c>
       <c r="J45" s="34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>43</v>
@@ -10658,10 +10682,10 @@
         <v>1</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="W45" s="11" t="s">
         <v>46</v>
@@ -10700,7 +10724,7 @@
         <v>69</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>43</v>
@@ -10730,10 +10754,10 @@
         <v>2</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W46" s="11" t="s">
         <v>46</v>
@@ -10772,7 +10796,7 @@
         <v>69</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>43</v>
@@ -10802,10 +10826,10 @@
         <v>3</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="W47" s="11" t="s">
         <v>46</v>
@@ -10844,7 +10868,7 @@
         <v>69</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>43</v>
@@ -10874,10 +10898,10 @@
         <v>4</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="U48" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="W48" s="11" t="s">
         <v>46</v>
@@ -10916,7 +10940,7 @@
         <v>69</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>43</v>
@@ -10946,10 +10970,10 @@
         <v>5</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="U49" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="W49" s="11" t="s">
         <v>46</v>
@@ -10988,7 +11012,7 @@
         <v>69</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>43</v>
@@ -11018,10 +11042,10 @@
         <v>6</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>46</v>
@@ -11060,7 +11084,7 @@
         <v>69</v>
       </c>
       <c r="J51" s="34" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>43</v>
@@ -11090,10 +11114,10 @@
         <v>7</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="W51" s="11" t="s">
         <v>46</v>
@@ -11141,7 +11165,7 @@
         <v>42</v>
       </c>
       <c r="J52" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>43</v>
@@ -11208,10 +11232,10 @@
   <dimension ref="A1:AL326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11266,7 +11290,7 @@
         <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>73</v>
@@ -11556,7 +11580,7 @@
         <v>99</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -11578,7 +11602,7 @@
         <v>69</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="S5" s="7"/>
@@ -11733,7 +11757,7 @@
         <v>103</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -11754,7 +11778,7 @@
         <v>109</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>544</v>
@@ -12001,7 +12025,7 @@
         <v>121</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -12022,7 +12046,7 @@
         <v>122</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>544</v>
@@ -12110,7 +12134,7 @@
         <v>125</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -12166,7 +12190,7 @@
         <v>128</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -12408,10 +12432,10 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>545</v>
@@ -12443,10 +12467,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -12467,7 +12491,7 @@
         <v>140</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>545</v>
@@ -12505,7 +12529,7 @@
         <v>141</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -12526,7 +12550,7 @@
         <v>140</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>545</v>
@@ -12561,10 +12585,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>869</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>870</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -12750,7 +12774,7 @@
         <v>69</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>544</v>
@@ -12803,7 +12827,7 @@
         <v>69</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>544</v>
@@ -12856,7 +12880,7 @@
         <v>69</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>544</v>
@@ -12909,7 +12933,7 @@
         <v>69</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>544</v>
@@ -12962,7 +12986,7 @@
         <v>69</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>544</v>
@@ -13015,7 +13039,7 @@
         <v>69</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>544</v>
@@ -13068,7 +13092,7 @@
         <v>69</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>544</v>
@@ -13121,7 +13145,7 @@
         <v>69</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>544</v>
@@ -13174,7 +13198,7 @@
         <v>69</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>544</v>
@@ -13227,7 +13251,7 @@
         <v>69</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>544</v>
@@ -13280,7 +13304,7 @@
         <v>69</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>544</v>
@@ -13333,7 +13357,7 @@
         <v>69</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>544</v>
@@ -13386,7 +13410,7 @@
         <v>69</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>544</v>
@@ -13439,7 +13463,7 @@
         <v>69</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>544</v>
@@ -13492,7 +13516,7 @@
         <v>69</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U40" s="5" t="s">
         <v>544</v>
@@ -13545,7 +13569,7 @@
         <v>69</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>544</v>
@@ -13598,7 +13622,7 @@
         <v>69</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>544</v>
@@ -13651,7 +13675,7 @@
         <v>69</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>544</v>
@@ -13704,7 +13728,7 @@
         <v>69</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>544</v>
@@ -13757,7 +13781,7 @@
         <v>69</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>544</v>
@@ -13810,7 +13834,7 @@
         <v>69</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>544</v>
@@ -13863,7 +13887,7 @@
         <v>69</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>544</v>
@@ -13916,7 +13940,7 @@
         <v>69</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>544</v>
@@ -13969,7 +13993,7 @@
         <v>69</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>544</v>
@@ -14022,7 +14046,7 @@
         <v>69</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>544</v>
@@ -14077,7 +14101,7 @@
         <v>198</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="S51" s="7"/>
@@ -14135,7 +14159,7 @@
         <v>198</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="S52" s="7"/>
@@ -14193,7 +14217,7 @@
         <v>198</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="S53" s="7"/>
@@ -14231,7 +14255,7 @@
         <v>199</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -14252,7 +14276,7 @@
         <v>200</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>545</v>
@@ -14305,7 +14329,7 @@
         <v>202</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U55" s="5" t="s">
         <v>545</v>
@@ -14338,10 +14362,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -14362,7 +14386,7 @@
         <v>203</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U56" s="22" t="s">
         <v>544</v>
@@ -14397,7 +14421,7 @@
         <v>204</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -14418,7 +14442,7 @@
         <v>205</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>545</v>
@@ -14471,7 +14495,7 @@
         <v>69</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>544</v>
@@ -14524,7 +14548,7 @@
         <v>69</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>544</v>
@@ -14577,7 +14601,7 @@
         <v>69</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U60" s="5" t="s">
         <v>544</v>
@@ -14630,7 +14654,7 @@
         <v>69</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>544</v>
@@ -14683,7 +14707,7 @@
         <v>69</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>544</v>
@@ -14736,7 +14760,7 @@
         <v>69</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U63" s="5" t="s">
         <v>544</v>
@@ -14789,7 +14813,7 @@
         <v>69</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U64" s="5" t="s">
         <v>544</v>
@@ -14842,7 +14866,7 @@
         <v>69</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U65" s="5" t="s">
         <v>544</v>
@@ -14877,10 +14901,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>1048</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>1049</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -14913,10 +14937,10 @@
         <v>69</v>
       </c>
       <c r="AA66" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB66" s="10" t="s">
         <v>723</v>
-      </c>
-      <c r="AB66" s="10" t="s">
-        <v>724</v>
       </c>
       <c r="AF66" s="5">
         <v>1</v>
@@ -14960,7 +14984,7 @@
         <v>69</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U67" s="5" t="s">
         <v>544</v>
@@ -15016,7 +15040,7 @@
         <v>69</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="U68" s="5" t="s">
         <v>544</v>
@@ -15072,7 +15096,7 @@
         <v>69</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>544</v>
@@ -15128,7 +15152,7 @@
         <v>69</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>544</v>
@@ -15184,7 +15208,7 @@
         <v>69</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>544</v>
@@ -15219,7 +15243,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -15503,7 +15527,7 @@
         <v>228</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -15521,10 +15545,10 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="U77" s="19" t="s">
         <v>544</v>
@@ -15560,7 +15584,7 @@
         <v>229</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -15578,10 +15602,10 @@
         <v>600</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U78" s="19" t="s">
         <v>544</v>
@@ -15599,10 +15623,10 @@
         <v>69</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -15622,10 +15646,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -15646,7 +15670,7 @@
         <v>230</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U79" s="5" t="s">
         <v>544</v>
@@ -15664,10 +15688,10 @@
         <v>69</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -15687,10 +15711,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -15711,7 +15735,7 @@
         <v>230</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U80" s="5" t="s">
         <v>544</v>
@@ -15732,10 +15756,10 @@
         <v>604</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -15759,7 +15783,7 @@
         <v>232</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -15777,10 +15801,10 @@
         <v>5000</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="U81" s="19" t="s">
         <v>544</v>
@@ -15798,7 +15822,7 @@
         <v>604</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -15821,7 +15845,7 @@
         <v>233</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -15842,7 +15866,7 @@
         <v>234</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U82" s="5" t="s">
         <v>544</v>
@@ -15877,7 +15901,7 @@
         <v>235</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -15895,10 +15919,10 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U83" s="5" t="s">
         <v>545</v>
@@ -15933,7 +15957,7 @@
         <v>236</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -15951,10 +15975,10 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U84" s="5" t="s">
         <v>545</v>
@@ -15986,10 +16010,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -16010,7 +16034,7 @@
         <v>230</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U85" s="5" t="s">
         <v>546</v>
@@ -16042,10 +16066,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -16092,10 +16116,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -16116,7 +16140,7 @@
         <v>230</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U87" s="5" t="s">
         <v>546</v>
@@ -16151,7 +16175,7 @@
         <v>237</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -16172,7 +16196,7 @@
         <v>238</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>545</v>
@@ -16207,7 +16231,7 @@
         <v>239</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -16228,7 +16252,7 @@
         <v>109</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>545</v>
@@ -16263,7 +16287,7 @@
         <v>241</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -16284,7 +16308,7 @@
         <v>202</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>545</v>
@@ -16319,7 +16343,7 @@
         <v>242</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -16375,7 +16399,7 @@
         <v>243</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -16393,10 +16417,10 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>545</v>
@@ -16431,7 +16455,7 @@
         <v>244</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -16452,7 +16476,7 @@
         <v>245</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U93" s="5" t="s">
         <v>545</v>
@@ -16505,7 +16529,7 @@
         <v>69</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>544</v>
@@ -16540,7 +16564,7 @@
         <v>247</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -16561,7 +16585,7 @@
         <v>198</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="S95" s="7"/>
@@ -16599,7 +16623,7 @@
         <v>248</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -16655,7 +16679,7 @@
         <v>249</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -16673,13 +16697,13 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>250</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>251</v>
@@ -16717,7 +16741,7 @@
         <v>252</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -16735,13 +16759,13 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>253</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>254</v>
@@ -16779,7 +16803,7 @@
         <v>255</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -16797,13 +16821,13 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>256</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>257</v>
@@ -16842,7 +16866,7 @@
         <v>584</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -16863,7 +16887,7 @@
         <v>585</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U100" s="19" t="s">
         <v>545</v>
@@ -16906,7 +16930,7 @@
         <v>535</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -16927,7 +16951,7 @@
         <v>586</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U101" s="19" t="s">
         <v>545</v>
@@ -16970,7 +16994,7 @@
         <v>259</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -16991,7 +17015,7 @@
         <v>586</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U102" s="19" t="s">
         <v>545</v>
@@ -17034,7 +17058,7 @@
         <v>584</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -17055,7 +17079,7 @@
         <v>586</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U103" s="19" t="s">
         <v>545</v>
@@ -17098,7 +17122,7 @@
         <v>536</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -17119,7 +17143,7 @@
         <v>586</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U104" s="19" t="s">
         <v>545</v>
@@ -17162,7 +17186,7 @@
         <v>67</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -17183,7 +17207,7 @@
         <v>585</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U105" s="19" t="s">
         <v>545</v>
@@ -17226,7 +17250,7 @@
         <v>583</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -17247,7 +17271,7 @@
         <v>586</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U106" s="19" t="s">
         <v>545</v>
@@ -17290,7 +17314,7 @@
         <v>259</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -17311,7 +17335,7 @@
         <v>585</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U107" s="19" t="s">
         <v>545</v>
@@ -17354,7 +17378,7 @@
         <v>68</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -17375,7 +17399,7 @@
         <v>586</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U108" s="19" t="s">
         <v>545</v>
@@ -17474,7 +17498,7 @@
         <v>265</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -17492,13 +17516,13 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>266</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>267</v>
@@ -17536,7 +17560,7 @@
         <v>268</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -17554,13 +17578,13 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>269</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>270</v>
@@ -17598,7 +17622,7 @@
         <v>271</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -17616,13 +17640,13 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>272</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>273</v>
@@ -17660,7 +17684,7 @@
         <v>274</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -17716,7 +17740,7 @@
         <v>277</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -17772,7 +17796,7 @@
         <v>279</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -17790,7 +17814,7 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>280</v>
@@ -17828,7 +17852,7 @@
         <v>281</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -17846,13 +17870,13 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>282</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>283</v>
@@ -17890,7 +17914,7 @@
         <v>284</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -17908,13 +17932,13 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>253</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>254</v>
@@ -17952,7 +17976,7 @@
         <v>285</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -18008,7 +18032,7 @@
         <v>287</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -18064,7 +18088,7 @@
         <v>290</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -18120,7 +18144,7 @@
         <v>293</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -18179,7 +18203,7 @@
         <v>297</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -18238,7 +18262,7 @@
         <v>300</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -18297,7 +18321,7 @@
         <v>277</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -18353,7 +18377,7 @@
         <v>303</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -18409,7 +18433,7 @@
         <v>305</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -18465,7 +18489,7 @@
         <v>307</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -18548,7 +18572,7 @@
         <v>69</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U128" s="5" t="s">
         <v>544</v>
@@ -18604,7 +18628,7 @@
         <v>69</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U129" s="5" t="s">
         <v>544</v>
@@ -18639,7 +18663,7 @@
         <v>313</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -18701,7 +18725,7 @@
         <v>231</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -18763,7 +18787,7 @@
         <v>317</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -18825,7 +18849,7 @@
         <v>319</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -18846,7 +18870,7 @@
         <v>275</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U133" s="5" t="s">
         <v>547</v>
@@ -18887,7 +18911,7 @@
         <v>320</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -18908,7 +18932,7 @@
         <v>288</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U134" s="5" t="s">
         <v>547</v>
@@ -18949,7 +18973,7 @@
         <v>322</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -18970,7 +18994,7 @@
         <v>291</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U135" s="5" t="s">
         <v>547</v>
@@ -19011,7 +19035,7 @@
         <v>440</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -19032,7 +19056,7 @@
         <v>140</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U136" s="5" t="s">
         <v>547</v>
@@ -19070,7 +19094,7 @@
         <v>441</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -19091,7 +19115,7 @@
         <v>140</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="U137" s="5" t="s">
         <v>547</v>
@@ -19129,7 +19153,7 @@
         <v>442</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -19150,7 +19174,7 @@
         <v>140</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="U138" s="5" t="s">
         <v>547</v>
@@ -19188,7 +19212,7 @@
         <v>443</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -19209,7 +19233,7 @@
         <v>140</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="U139" s="5" t="s">
         <v>547</v>
@@ -19247,7 +19271,7 @@
         <v>444</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -19268,7 +19292,7 @@
         <v>140</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="U140" s="5" t="s">
         <v>547</v>
@@ -19306,7 +19330,7 @@
         <v>445</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -19327,7 +19351,7 @@
         <v>140</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="U141" s="5" t="s">
         <v>547</v>
@@ -19365,7 +19389,7 @@
         <v>323</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -19427,7 +19451,7 @@
         <v>324</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -19489,7 +19513,7 @@
         <v>325</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -19553,7 +19577,7 @@
         <v>327</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -19574,13 +19598,13 @@
         <v>328</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>69</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>545</v>
@@ -19617,7 +19641,7 @@
         <v>329</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -19638,13 +19662,13 @@
         <v>258</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>140</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>545</v>
@@ -19681,7 +19705,7 @@
         <v>330</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -19702,13 +19726,13 @@
         <v>258</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R147" s="5" t="s">
         <v>140</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="U147" s="5" t="s">
         <v>545</v>
@@ -19745,7 +19769,7 @@
         <v>331</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -19766,13 +19790,13 @@
         <v>258</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>140</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="U148" s="5" t="s">
         <v>545</v>
@@ -19809,7 +19833,7 @@
         <v>332</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -19830,13 +19854,13 @@
         <v>258</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>140</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="U149" s="5" t="s">
         <v>545</v>
@@ -19871,7 +19895,7 @@
         <v>333</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -19933,7 +19957,7 @@
         <v>334</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -19995,7 +20019,7 @@
         <v>335</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -20054,10 +20078,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -20078,13 +20102,13 @@
         <v>328</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R153" s="5" t="s">
         <v>69</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="U153" s="5" t="s">
         <v>547</v>
@@ -20119,7 +20143,7 @@
         <v>336</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -20140,13 +20164,13 @@
         <v>328</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>69</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U154" s="5" t="s">
         <v>547</v>
@@ -20181,7 +20205,7 @@
         <v>337</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -20202,13 +20226,13 @@
         <v>328</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>69</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>547</v>
@@ -20243,7 +20267,7 @@
         <v>338</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -20264,13 +20288,13 @@
         <v>328</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R156" s="5" t="s">
         <v>69</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U156" s="5" t="s">
         <v>547</v>
@@ -20305,7 +20329,7 @@
         <v>339</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -20326,13 +20350,13 @@
         <v>328</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R157" s="5" t="s">
         <v>69</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U157" s="5" t="s">
         <v>547</v>
@@ -20367,7 +20391,7 @@
         <v>340</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -20429,7 +20453,7 @@
         <v>342</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -20491,7 +20515,7 @@
         <v>344</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -20553,7 +20577,7 @@
         <v>346</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -20615,7 +20639,7 @@
         <v>347</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -20677,7 +20701,7 @@
         <v>348</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -20736,10 +20760,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -20763,7 +20787,7 @@
         <v>200</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U164" s="5" t="s">
         <v>544</v>
@@ -20804,7 +20828,7 @@
         <v>349</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -20866,7 +20890,7 @@
         <v>350</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -20928,7 +20952,7 @@
         <v>351</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -20990,7 +21014,7 @@
         <v>352</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J168" s="5">
         <v>-28</v>
@@ -21011,7 +21035,7 @@
         <v>353</v>
       </c>
       <c r="P168" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="U168" s="5" t="s">
         <v>544</v>
@@ -21117,7 +21141,7 @@
         <v>357</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J170" s="5">
         <v>-28</v>
@@ -21138,7 +21162,7 @@
         <v>258</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U170" s="5" t="s">
         <v>623</v>
@@ -21177,10 +21201,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -21198,10 +21222,10 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="U171" s="19" t="s">
         <v>591</v>
@@ -21243,10 +21267,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -21264,10 +21288,10 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U172" s="19" t="s">
         <v>547</v>
@@ -21309,10 +21333,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -21330,10 +21354,10 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U173" s="19" t="s">
         <v>547</v>
@@ -21375,10 +21399,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -21396,10 +21420,10 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="U174" s="19" t="s">
         <v>547</v>
@@ -21441,10 +21465,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H175" s="19" t="s">
         <v>1331</v>
-      </c>
-      <c r="H175" s="19" t="s">
-        <v>1332</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -21462,10 +21486,10 @@
         <v>1200</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>547</v>
@@ -21507,10 +21531,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -21528,10 +21552,10 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="U176" s="19" t="s">
         <v>547</v>
@@ -21573,10 +21597,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -21594,10 +21618,10 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="U177" s="19" t="s">
         <v>547</v>
@@ -21639,10 +21663,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H178" s="19" t="s">
         <v>1334</v>
-      </c>
-      <c r="H178" s="19" t="s">
-        <v>1335</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -21660,10 +21684,10 @@
         <v>5000</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="U178" s="19" t="s">
         <v>547</v>
@@ -21705,10 +21729,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -21726,10 +21750,10 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="U179" s="19" t="s">
         <v>547</v>
@@ -21771,10 +21795,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H180" s="19" t="s">
         <v>1337</v>
-      </c>
-      <c r="H180" s="19" t="s">
-        <v>1338</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -21792,10 +21816,10 @@
         <v>5000</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="U180" s="19" t="s">
         <v>547</v>
@@ -21837,10 +21861,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -21858,10 +21882,10 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="U181" s="19" t="s">
         <v>547</v>
@@ -21903,10 +21927,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -21924,10 +21948,10 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="U182" s="19" t="s">
         <v>547</v>
@@ -21969,10 +21993,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -21990,10 +22014,10 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="U183" s="19" t="s">
         <v>547</v>
@@ -22035,10 +22059,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -22056,10 +22080,10 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="U184" s="19" t="s">
         <v>547</v>
@@ -22101,10 +22125,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H185" s="19" t="s">
         <v>1340</v>
-      </c>
-      <c r="H185" s="19" t="s">
-        <v>1341</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -22122,10 +22146,10 @@
         <v>48800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="U185" s="19" t="s">
         <v>547</v>
@@ -22169,7 +22193,7 @@
         <v>307</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -22190,13 +22214,13 @@
         <v>455</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>310</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="U186" s="5" t="s">
         <v>544</v>
@@ -22231,7 +22255,7 @@
         <v>358</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -22296,7 +22320,7 @@
         <v>360</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -22361,7 +22385,7 @@
         <v>362</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -22426,7 +22450,7 @@
         <v>364</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -22491,7 +22515,7 @@
         <v>366</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -22556,7 +22580,7 @@
         <v>368</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -22621,7 +22645,7 @@
         <v>370</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -22686,7 +22710,7 @@
         <v>372</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -22751,7 +22775,7 @@
         <v>374</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -22816,7 +22840,7 @@
         <v>376</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -22881,7 +22905,7 @@
         <v>378</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -22946,7 +22970,7 @@
         <v>380</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -23011,7 +23035,7 @@
         <v>382</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -23076,7 +23100,7 @@
         <v>383</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -23141,7 +23165,7 @@
         <v>384</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -23206,7 +23230,7 @@
         <v>358</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -23271,7 +23295,7 @@
         <v>360</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -23336,7 +23360,7 @@
         <v>362</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -23401,7 +23425,7 @@
         <v>364</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -23466,7 +23490,7 @@
         <v>366</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -23531,7 +23555,7 @@
         <v>368</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -23596,7 +23620,7 @@
         <v>370</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -23661,7 +23685,7 @@
         <v>372</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -23726,7 +23750,7 @@
         <v>374</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -23791,7 +23815,7 @@
         <v>376</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -23856,7 +23880,7 @@
         <v>378</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -23921,7 +23945,7 @@
         <v>380</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -23986,7 +24010,7 @@
         <v>382</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -24051,7 +24075,7 @@
         <v>383</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -24116,7 +24140,7 @@
         <v>384</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -24181,7 +24205,7 @@
         <v>358</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -24246,7 +24270,7 @@
         <v>360</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -24311,7 +24335,7 @@
         <v>362</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -24376,7 +24400,7 @@
         <v>364</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -24441,7 +24465,7 @@
         <v>366</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -24506,7 +24530,7 @@
         <v>368</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -24571,7 +24595,7 @@
         <v>370</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -24636,7 +24660,7 @@
         <v>372</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -24701,7 +24725,7 @@
         <v>374</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -24766,7 +24790,7 @@
         <v>376</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -24831,7 +24855,7 @@
         <v>378</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -24896,7 +24920,7 @@
         <v>380</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -24961,7 +24985,7 @@
         <v>382</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -25026,7 +25050,7 @@
         <v>383</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -25091,7 +25115,7 @@
         <v>384</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -25156,7 +25180,7 @@
         <v>358</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -25221,7 +25245,7 @@
         <v>360</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -25286,7 +25310,7 @@
         <v>362</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -25351,7 +25375,7 @@
         <v>364</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -25416,7 +25440,7 @@
         <v>366</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -25481,7 +25505,7 @@
         <v>368</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -25546,7 +25570,7 @@
         <v>370</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -25611,7 +25635,7 @@
         <v>372</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -25676,7 +25700,7 @@
         <v>374</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -25741,7 +25765,7 @@
         <v>376</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -25806,7 +25830,7 @@
         <v>378</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -25871,7 +25895,7 @@
         <v>380</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -25936,7 +25960,7 @@
         <v>382</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -26001,7 +26025,7 @@
         <v>383</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -26066,7 +26090,7 @@
         <v>384</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -26128,10 +26152,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -26152,7 +26176,7 @@
         <v>140</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U247" s="5" t="s">
         <v>547</v>
@@ -26196,7 +26220,7 @@
         <v>438</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -26217,7 +26241,7 @@
         <v>140</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="U248" s="5" t="s">
         <v>547</v>
@@ -26261,7 +26285,7 @@
         <v>439</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -26282,7 +26306,7 @@
         <v>140</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="U249" s="5" t="s">
         <v>547</v>
@@ -26326,7 +26350,7 @@
         <v>453</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J250" s="5">
         <v>-28</v>
@@ -26347,7 +26371,7 @@
         <v>452</v>
       </c>
       <c r="P250" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U250" s="5" t="s">
         <v>544</v>
@@ -26388,7 +26412,7 @@
         <v>307</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -26409,13 +26433,13 @@
         <v>492</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>310</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U251" s="5" t="s">
         <v>544</v>
@@ -26456,7 +26480,7 @@
         <v>476</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -26477,7 +26501,7 @@
         <v>452</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U252" s="5" t="s">
         <v>623</v>
@@ -26518,7 +26542,7 @@
         <v>477</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -26539,7 +26563,7 @@
         <v>497</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U253" s="5" t="s">
         <v>547</v>
@@ -26580,7 +26604,7 @@
         <v>494</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -26601,7 +26625,7 @@
         <v>496</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>547</v>
@@ -26645,7 +26669,7 @@
         <v>489</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -26666,7 +26690,7 @@
         <v>475</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U255" s="5" t="s">
         <v>547</v>
@@ -26710,7 +26734,7 @@
         <v>490</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -26731,7 +26755,7 @@
         <v>508</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U256" s="5" t="s">
         <v>547</v>
@@ -26775,7 +26799,7 @@
         <v>498</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -26796,13 +26820,13 @@
         <v>603</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="R257" s="5" t="s">
         <v>499</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="U257" s="5" t="s">
         <v>544</v>
@@ -26843,7 +26867,7 @@
         <v>530</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -26908,7 +26932,7 @@
         <v>360</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -26973,7 +26997,7 @@
         <v>362</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -27038,7 +27062,7 @@
         <v>364</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -27103,7 +27127,7 @@
         <v>366</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -27168,7 +27192,7 @@
         <v>368</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -27233,7 +27257,7 @@
         <v>501</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -27298,7 +27322,7 @@
         <v>502</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -27363,7 +27387,7 @@
         <v>503</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -27428,7 +27452,7 @@
         <v>504</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -27493,7 +27517,7 @@
         <v>505</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -27558,7 +27582,7 @@
         <v>506</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -27623,7 +27647,7 @@
         <v>382</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -27688,7 +27712,7 @@
         <v>383</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -27753,7 +27777,7 @@
         <v>384</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -27839,7 +27863,7 @@
         <v>69</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U273" s="5" t="s">
         <v>544</v>
@@ -27876,7 +27900,7 @@
         <v>542</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -27898,7 +27922,7 @@
         <v>543</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
@@ -27949,7 +27973,7 @@
         <v>548</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -27970,7 +27994,7 @@
         <v>582</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="U275" s="5" t="s">
         <v>544</v>
@@ -28014,7 +28038,7 @@
         <v>549</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -28035,7 +28059,7 @@
         <v>561</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="U276" s="5" t="s">
         <v>547</v>
@@ -28079,7 +28103,7 @@
         <v>550</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -28100,7 +28124,7 @@
         <v>561</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="U277" s="5" t="s">
         <v>558</v>
@@ -28144,7 +28168,7 @@
         <v>551</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -28165,7 +28189,7 @@
         <v>561</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U278" s="5" t="s">
         <v>559</v>
@@ -28209,7 +28233,7 @@
         <v>552</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -28230,7 +28254,7 @@
         <v>561</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U279" s="5" t="s">
         <v>560</v>
@@ -28274,7 +28298,7 @@
         <v>553</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -28295,7 +28319,7 @@
         <v>561</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U280" s="5" t="s">
         <v>544</v>
@@ -28339,7 +28363,7 @@
         <v>554</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -28360,7 +28384,7 @@
         <v>561</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U281" s="5" t="s">
         <v>547</v>
@@ -28404,7 +28428,7 @@
         <v>555</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -28425,7 +28449,7 @@
         <v>561</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U282" s="5" t="s">
         <v>558</v>
@@ -28469,7 +28493,7 @@
         <v>556</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -28490,7 +28514,7 @@
         <v>561</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U283" s="5" t="s">
         <v>559</v>
@@ -28534,7 +28558,7 @@
         <v>557</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -28555,7 +28579,7 @@
         <v>561</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="U284" s="5" t="s">
         <v>560</v>
@@ -28620,7 +28644,7 @@
         <v>561</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U285" s="5" t="s">
         <v>547</v>
@@ -28682,7 +28706,7 @@
         <v>561</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U286" s="5" t="s">
         <v>547</v>
@@ -28744,7 +28768,7 @@
         <v>561</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U287" s="5" t="s">
         <v>547</v>
@@ -28806,7 +28830,7 @@
         <v>561</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U288" s="5" t="s">
         <v>547</v>
@@ -28868,7 +28892,7 @@
         <v>561</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U289" s="5" t="s">
         <v>547</v>
@@ -28930,7 +28954,7 @@
         <v>561</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U290" s="5" t="s">
         <v>547</v>
@@ -28992,7 +29016,7 @@
         <v>561</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U291" s="5" t="s">
         <v>547</v>
@@ -29054,7 +29078,7 @@
         <v>561</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U292" s="5" t="s">
         <v>547</v>
@@ -29116,7 +29140,7 @@
         <v>610</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U293" s="5" t="s">
         <v>547</v>
@@ -29157,7 +29181,7 @@
         <v>624</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -29178,7 +29202,7 @@
         <v>602</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U294" s="5" t="s">
         <v>547</v>
@@ -29219,7 +29243,7 @@
         <v>625</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -29240,7 +29264,7 @@
         <v>602</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U295" s="5" t="s">
         <v>547</v>
@@ -29281,7 +29305,7 @@
         <v>626</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -29302,7 +29326,7 @@
         <v>602</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U296" s="5" t="s">
         <v>547</v>
@@ -29343,7 +29367,7 @@
         <v>627</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -29364,7 +29388,7 @@
         <v>602</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U297" s="5" t="s">
         <v>547</v>
@@ -29405,7 +29429,7 @@
         <v>628</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -29426,7 +29450,7 @@
         <v>601</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U298" s="5" t="s">
         <v>547</v>
@@ -29467,7 +29491,7 @@
         <v>629</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -29488,7 +29512,7 @@
         <v>600</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U299" s="5" t="s">
         <v>547</v>
@@ -29529,7 +29553,7 @@
         <v>630</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -29550,7 +29574,7 @@
         <v>600</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U300" s="5" t="s">
         <v>547</v>
@@ -29591,7 +29615,7 @@
         <v>631</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -29612,7 +29636,7 @@
         <v>600</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U301" s="5" t="s">
         <v>547</v>
@@ -29653,7 +29677,7 @@
         <v>632</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -29674,7 +29698,7 @@
         <v>600</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U302" s="5" t="s">
         <v>547</v>
@@ -29715,7 +29739,7 @@
         <v>633</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -29736,7 +29760,7 @@
         <v>600</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U303" s="5" t="s">
         <v>547</v>
@@ -29777,7 +29801,7 @@
         <v>634</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -29798,7 +29822,7 @@
         <v>600</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U304" s="5" t="s">
         <v>547</v>
@@ -29839,7 +29863,7 @@
         <v>635</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -29860,7 +29884,7 @@
         <v>600</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U305" s="5" t="s">
         <v>547</v>
@@ -29901,7 +29925,7 @@
         <v>636</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -29922,7 +29946,7 @@
         <v>600</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U306" s="5" t="s">
         <v>547</v>
@@ -29963,7 +29987,7 @@
         <v>637</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -29984,7 +30008,7 @@
         <v>600</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U307" s="5" t="s">
         <v>547</v>
@@ -30025,7 +30049,7 @@
         <v>638</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -30046,7 +30070,7 @@
         <v>606</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="U308" s="5" t="s">
         <v>547</v>
@@ -30087,7 +30111,7 @@
         <v>639</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -30108,7 +30132,7 @@
         <v>611</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U309" s="5" t="s">
         <v>547</v>
@@ -30146,10 +30170,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="H310" s="5" t="s">
         <v>964</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>965</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -30170,7 +30194,7 @@
         <v>612</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U310" s="5" t="s">
         <v>547</v>
@@ -30208,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -30232,7 +30256,7 @@
         <v>613</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="U311" s="5" t="s">
         <v>547</v>
@@ -30270,10 +30294,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -30294,7 +30318,7 @@
         <v>613</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U312" s="5" t="s">
         <v>620</v>
@@ -30332,10 +30356,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -30356,7 +30380,7 @@
         <v>613</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U313" s="5" t="s">
         <v>621</v>
@@ -30394,10 +30418,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -30418,7 +30442,7 @@
         <v>612</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U314" s="5" t="s">
         <v>622</v>
@@ -30456,10 +30480,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -30480,7 +30504,7 @@
         <v>613</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U315" s="5" t="s">
         <v>623</v>
@@ -30707,7 +30731,7 @@
         <v>643</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -30728,7 +30752,7 @@
         <v>645</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U319" s="5" t="s">
         <v>546</v>
@@ -30763,7 +30787,7 @@
         <v>644</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -30784,7 +30808,7 @@
         <v>646</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U320" s="5" t="s">
         <v>546</v>
@@ -30819,7 +30843,7 @@
         <v>647</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -30840,7 +30864,7 @@
         <v>649</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U321" s="5" t="s">
         <v>544</v>
@@ -30902,7 +30926,7 @@
         <v>652</v>
       </c>
       <c r="P322" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U322" s="5" t="s">
         <v>544</v>
@@ -30942,10 +30966,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -30964,10 +30988,10 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
@@ -31023,10 +31047,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H324" s="19" t="s">
         <v>1328</v>
-      </c>
-      <c r="H324" s="19" t="s">
-        <v>1329</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -31045,10 +31069,10 @@
         <v>5000</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
@@ -31104,10 +31128,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -31126,10 +31150,10 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
@@ -31184,10 +31208,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -31199,13 +31223,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -31217,13 +31241,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AA326" s="41" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AB326" s="42" t="s">
         <v>1095</v>
-      </c>
-      <c r="AB326" s="42" t="s">
-        <v>1096</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -31449,7 +31473,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -31635,13 +31659,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AB65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31692,10 +31716,10 @@
         <v>403</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1010</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -31752,7 +31776,7 @@
         <v>39</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -31796,10 +31820,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>47</v>
@@ -31861,10 +31885,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>50</v>
@@ -31926,10 +31950,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>52</v>
@@ -31991,10 +32015,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>54</v>
@@ -32056,10 +32080,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>56</v>
@@ -32121,10 +32145,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>58</v>
@@ -32142,65 +32166,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+    <row r="8" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="35">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="G8" s="11">
-        <v>100</v>
-      </c>
-      <c r="H8" s="11">
-        <v>100000</v>
-      </c>
-      <c r="I8" s="11">
-        <v>100000</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="G8" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>966</v>
-      </c>
-      <c r="R8" s="34" t="s">
-        <v>1039</v>
-      </c>
-      <c r="S8" s="11" t="s">
+      <c r="M8" s="35">
+        <v>0</v>
+      </c>
+      <c r="O8" s="35">
+        <v>0</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>1358</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S8" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="34" t="s">
-        <v>680</v>
-      </c>
-      <c r="U8" s="11" t="s">
+      <c r="T8" s="36" t="s">
+        <v>1360</v>
+      </c>
+      <c r="U8" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="X8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="11">
+      <c r="X8" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="35">
         <v>1</v>
       </c>
     </row>
@@ -32245,7 +32269,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
@@ -32263,7 +32287,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -32307,7 +32331,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
@@ -32325,7 +32349,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -32369,10 +32393,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>50</v>
@@ -32434,16 +32458,16 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>60</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U12" s="11" t="s">
         <v>406</v>
@@ -32499,16 +32523,16 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>408</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>406</v>
@@ -32537,7 +32561,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G14" s="11">
         <v>249800</v>
@@ -32564,16 +32588,16 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>409</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>406</v>
@@ -32629,7 +32653,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
@@ -32639,7 +32663,7 @@
         <v>676</v>
       </c>
       <c r="U15" s="34" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="X15" s="11">
         <v>1</v>
@@ -32648,7 +32672,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -32665,7 +32689,7 @@
         <v>111</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G16" s="44">
         <v>100</v>
@@ -32692,19 +32716,19 @@
         <v>1</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S16" s="44" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="U16" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X16" s="44">
         <v>1</v>
@@ -32728,7 +32752,7 @@
         <v>112</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G17" s="44">
         <v>300</v>
@@ -32755,19 +32779,19 @@
         <v>2</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S17" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="U17" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X17" s="44">
         <v>1</v>
@@ -32791,7 +32815,7 @@
         <v>113</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G18" s="44">
         <v>600</v>
@@ -32818,10 +32842,10 @@
         <v>3</v>
       </c>
       <c r="P18" s="45" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S18" s="44" t="s">
         <v>47</v>
@@ -32830,7 +32854,7 @@
         <v>670</v>
       </c>
       <c r="U18" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X18" s="44">
         <v>1</v>
@@ -32854,7 +32878,7 @@
         <v>114</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G19" s="44">
         <v>1200</v>
@@ -32881,19 +32905,19 @@
         <v>4</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S19" s="44" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>670</v>
+        <v>1359</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X19" s="44">
         <v>1</v>
@@ -32917,7 +32941,7 @@
         <v>115</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G20" s="44">
         <v>1800</v>
@@ -32944,19 +32968,19 @@
         <v>5</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="R20" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S20" s="44" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="U20" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X20" s="44">
         <v>1</v>
@@ -32980,7 +33004,7 @@
         <v>116</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G21" s="44">
         <v>3000</v>
@@ -33007,10 +33031,10 @@
         <v>6</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S21" s="44" t="s">
         <v>52</v>
@@ -33019,7 +33043,7 @@
         <v>671</v>
       </c>
       <c r="U21" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X21" s="44">
         <v>1</v>
@@ -33043,7 +33067,7 @@
         <v>117</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G22" s="44">
         <v>4500</v>
@@ -33070,19 +33094,19 @@
         <v>7</v>
       </c>
       <c r="P22" s="45" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="R22" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S22" s="44" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="T22" s="45" t="s">
         <v>671</v>
       </c>
       <c r="U22" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X22" s="44">
         <v>1</v>
@@ -33106,7 +33130,7 @@
         <v>118</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G23" s="44">
         <v>5000</v>
@@ -33133,10 +33157,10 @@
         <v>8</v>
       </c>
       <c r="P23" s="45" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S23" s="44" t="s">
         <v>54</v>
@@ -33145,7 +33169,7 @@
         <v>672</v>
       </c>
       <c r="U23" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X23" s="44">
         <v>1</v>
@@ -33169,7 +33193,7 @@
         <v>119</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G24" s="44">
         <v>8800</v>
@@ -33196,19 +33220,19 @@
         <v>9</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="R24" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S24" s="44" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="T24" s="45" t="s">
         <v>672</v>
       </c>
       <c r="U24" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X24" s="44">
         <v>1</v>
@@ -33232,7 +33256,7 @@
         <v>120</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G25" s="44">
         <v>9800</v>
@@ -33259,10 +33283,10 @@
         <v>10</v>
       </c>
       <c r="P25" s="45" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="R25" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S25" s="44" t="s">
         <v>56</v>
@@ -33271,7 +33295,7 @@
         <v>673</v>
       </c>
       <c r="U25" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X25" s="44">
         <v>1</v>
@@ -33295,7 +33319,7 @@
         <v>121</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G26" s="44">
         <v>12800</v>
@@ -33322,19 +33346,19 @@
         <v>11</v>
       </c>
       <c r="P26" s="45" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S26" s="44" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="T26" s="45" t="s">
         <v>673</v>
       </c>
       <c r="U26" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X26" s="44">
         <v>1</v>
@@ -33358,7 +33382,7 @@
         <v>122</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G27" s="44">
         <v>16800</v>
@@ -33385,19 +33409,19 @@
         <v>12</v>
       </c>
       <c r="P27" s="45" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="T27" s="45" t="s">
         <v>673</v>
       </c>
       <c r="U27" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X27" s="44">
         <v>1</v>
@@ -33421,7 +33445,7 @@
         <v>123</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G28" s="44">
         <v>18800</v>
@@ -33448,19 +33472,19 @@
         <v>13</v>
       </c>
       <c r="P28" s="45" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="R28" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S28" s="44" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="T28" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="U28" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X28" s="44">
         <v>1</v>
@@ -33484,7 +33508,7 @@
         <v>124</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G29" s="44">
         <v>19800</v>
@@ -33511,19 +33535,19 @@
         <v>14</v>
       </c>
       <c r="P29" s="45" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="R29" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="U29" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X29" s="44">
         <v>1</v>
@@ -33547,7 +33571,7 @@
         <v>125</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G30" s="44">
         <v>29800</v>
@@ -33574,19 +33598,19 @@
         <v>15</v>
       </c>
       <c r="P30" s="45" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S30" s="45" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="T30" s="45" t="s">
         <v>674</v>
       </c>
       <c r="U30" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X30" s="44">
         <v>1</v>
@@ -33610,7 +33634,7 @@
         <v>126</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G31" s="44">
         <v>48800</v>
@@ -33637,19 +33661,19 @@
         <v>16</v>
       </c>
       <c r="P31" s="45" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="R31" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S31" s="44" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U31" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X31" s="44">
         <v>1</v>
@@ -33673,7 +33697,7 @@
         <v>127</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G32" s="44">
         <v>64800</v>
@@ -33700,19 +33724,19 @@
         <v>17</v>
       </c>
       <c r="P32" s="45" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="R32" s="45" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="S32" s="44" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="X32" s="44">
         <v>1</v>
@@ -33736,7 +33760,7 @@
         <v>201</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G33" s="36">
         <v>65</v>
@@ -33763,16 +33787,16 @@
         <v>1</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S33" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="T33" s="36" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="U33" s="36" t="s">
         <v>406</v>
@@ -33799,7 +33823,7 @@
         <v>202</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G34" s="36">
         <v>200</v>
@@ -33826,16 +33850,16 @@
         <v>2</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="R34" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="T34" s="36" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="U34" s="36" t="s">
         <v>406</v>
@@ -33862,7 +33886,7 @@
         <v>203</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G35" s="36">
         <v>400</v>
@@ -33889,10 +33913,10 @@
         <v>3</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="R35" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S35" s="35" t="s">
         <v>47</v>
@@ -33925,7 +33949,7 @@
         <v>204</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G36" s="36">
         <v>800</v>
@@ -33952,16 +33976,16 @@
         <v>4</v>
       </c>
       <c r="P36" s="36" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="R36" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S36" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="T36" s="36" t="s">
-        <v>670</v>
+        <v>1355</v>
       </c>
       <c r="U36" s="36" t="s">
         <v>406</v>
@@ -33988,7 +34012,7 @@
         <v>205</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G37" s="36">
         <v>1200</v>
@@ -34015,16 +34039,16 @@
         <v>5</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="R37" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="T37" s="36" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="U37" s="36" t="s">
         <v>406</v>
@@ -34051,7 +34075,7 @@
         <v>206</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G38" s="36">
         <v>2000</v>
@@ -34078,10 +34102,10 @@
         <v>6</v>
       </c>
       <c r="P38" s="36" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="R38" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S38" s="35" t="s">
         <v>52</v>
@@ -34114,7 +34138,7 @@
         <v>207</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G39" s="36">
         <v>3000</v>
@@ -34141,13 +34165,13 @@
         <v>7</v>
       </c>
       <c r="P39" s="36" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="R39" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S39" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="T39" s="36" t="s">
         <v>671</v>
@@ -34177,7 +34201,7 @@
         <v>208</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G40" s="36">
         <v>3300</v>
@@ -34204,10 +34228,10 @@
         <v>8</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="R40" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S40" s="35" t="s">
         <v>54</v>
@@ -34240,7 +34264,7 @@
         <v>209</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G41" s="36">
         <v>5800</v>
@@ -34267,13 +34291,13 @@
         <v>9</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R41" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S41" s="35" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="T41" s="36" t="s">
         <v>672</v>
@@ -34303,7 +34327,7 @@
         <v>210</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G42" s="36">
         <v>6500</v>
@@ -34330,10 +34354,10 @@
         <v>10</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R42" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S42" s="35" t="s">
         <v>56</v>
@@ -34366,7 +34390,7 @@
         <v>211</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G43" s="36">
         <v>8500</v>
@@ -34393,13 +34417,13 @@
         <v>11</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="R43" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S43" s="35" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="T43" s="36" t="s">
         <v>673</v>
@@ -34429,7 +34453,7 @@
         <v>212</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G44" s="36">
         <v>11200</v>
@@ -34456,13 +34480,13 @@
         <v>12</v>
       </c>
       <c r="P44" s="36" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="R44" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="T44" s="36" t="s">
         <v>673</v>
@@ -34492,7 +34516,7 @@
         <v>213</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G45" s="36">
         <v>12500</v>
@@ -34519,16 +34543,16 @@
         <v>13</v>
       </c>
       <c r="P45" s="36" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="R45" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S45" s="35" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="T45" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="U45" s="36" t="s">
         <v>406</v>
@@ -34555,7 +34579,7 @@
         <v>214</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G46" s="36">
         <v>13200</v>
@@ -34582,16 +34606,16 @@
         <v>14</v>
       </c>
       <c r="P46" s="36" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="R46" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="T46" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="U46" s="36" t="s">
         <v>406</v>
@@ -34618,7 +34642,7 @@
         <v>215</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G47" s="36">
         <v>19800</v>
@@ -34645,13 +34669,13 @@
         <v>15</v>
       </c>
       <c r="P47" s="36" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="R47" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S47" s="35" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="T47" s="36" t="s">
         <v>674</v>
@@ -34681,7 +34705,7 @@
         <v>216</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G48" s="36">
         <v>32500</v>
@@ -34708,16 +34732,16 @@
         <v>16</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="R48" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S48" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="T48" s="36" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U48" s="36" t="s">
         <v>406</v>
@@ -34744,7 +34768,7 @@
         <v>217</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G49" s="36">
         <v>43200</v>
@@ -34771,16 +34795,16 @@
         <v>17</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="R49" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S49" s="35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="T49" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="U49" s="36" t="s">
         <v>406</v>
@@ -34801,7 +34825,7 @@
         <v>201</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E50" s="11">
         <v>201</v>
@@ -34834,11 +34858,11 @@
         <v>1</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="Q50" s="34"/>
       <c r="R50" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>47</v>
@@ -34897,11 +34921,11 @@
         <v>2</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Q51" s="34"/>
       <c r="R51" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>50</v>
@@ -34960,17 +34984,17 @@
         <v>3</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="Q52" s="34"/>
       <c r="R52" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="S52" s="11" t="s">
         <v>52</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>671</v>
+        <v>1356</v>
       </c>
       <c r="U52" s="11" t="s">
         <v>406</v>
@@ -35023,11 +35047,11 @@
         <v>4</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q53" s="34"/>
       <c r="R53" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>54</v>
@@ -35086,11 +35110,11 @@
         <v>5</v>
       </c>
       <c r="P54" s="34" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q54" s="34"/>
       <c r="R54" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S54" s="11" t="s">
         <v>56</v>
@@ -35149,17 +35173,17 @@
         <v>7</v>
       </c>
       <c r="P55" s="34" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="Q55" s="34"/>
       <c r="R55" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S55" s="34" t="s">
         <v>538</v>
       </c>
       <c r="T55" s="34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="U55" s="11" t="s">
         <v>406</v>
@@ -35212,11 +35236,11 @@
         <v>9</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Q56" s="34"/>
       <c r="R56" s="34" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>58</v>
@@ -35248,7 +35272,7 @@
         <v>208</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>405</v>
+        <v>1354</v>
       </c>
       <c r="G57" s="34">
         <v>66500</v>
@@ -35275,17 +35299,17 @@
         <v>8</v>
       </c>
       <c r="P57" s="34" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Q57" s="34"/>
       <c r="R57" s="34" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U57" s="11" t="s">
         <v>406</v>
@@ -35338,17 +35362,17 @@
         <v>10</v>
       </c>
       <c r="P58" s="34" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Q58" s="34"/>
       <c r="R58" s="34" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>64</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="U58" s="11" t="s">
         <v>406</v>
@@ -35364,86 +35388,96 @@
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="11">
-        <v>107</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="35">
+        <v>106</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="11">
-        <v>104</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="G59" s="11">
-        <v>5000</v>
-      </c>
-      <c r="H59" s="11">
-        <v>5000000</v>
-      </c>
-      <c r="I59" s="11">
-        <v>5000000</v>
-      </c>
-      <c r="J59" s="11" t="s">
+      <c r="D59" s="35"/>
+      <c r="E59" s="35">
+        <v>101</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="G59" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="I59" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="J59" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M59" s="11">
-        <v>0</v>
-      </c>
-      <c r="O59" s="11">
-        <v>2</v>
-      </c>
-      <c r="P59" s="34" t="s">
-        <v>1014</v>
-      </c>
-      <c r="R59" s="34"/>
-      <c r="S59" s="11">
-        <v>5000</v>
-      </c>
-      <c r="T59" s="34" t="s">
-        <v>679</v>
-      </c>
-      <c r="U59" s="11" t="s">
+      <c r="M59" s="35">
+        <v>0</v>
+      </c>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35">
+        <v>0</v>
+      </c>
+      <c r="P59" s="36" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="36" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S59" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="T59" s="36" t="s">
+        <v>1360</v>
+      </c>
+      <c r="U59" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="X59" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="11">
-        <v>1</v>
-      </c>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
     </row>
     <row r="60" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>59</v>
       </c>
       <c r="B60" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E60" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>407</v>
       </c>
       <c r="G60" s="11">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H60" s="11">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="I60" s="11">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>43</v>
@@ -35458,17 +35492,17 @@
         <v>0</v>
       </c>
       <c r="O60" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="34" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="R60" s="34"/>
       <c r="S60" s="11">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T60" s="34" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="U60" s="11" t="s">
         <v>406</v>
@@ -35485,25 +35519,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="11">
-        <v>109</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>410</v>
+        <v>108</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E61" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>407</v>
       </c>
       <c r="G61" s="11">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H61" s="11">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="I61" s="11">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>43</v>
@@ -35517,18 +35551,15 @@
       <c r="M61" s="11">
         <v>0</v>
       </c>
-      <c r="N61" s="11">
-        <v>14</v>
-      </c>
       <c r="O61" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="34" t="s">
-        <v>966</v>
+        <v>1016</v>
       </c>
       <c r="R61" s="34"/>
       <c r="S61" s="11">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="T61" s="34" t="s">
         <v>676</v>
@@ -35543,7 +35574,7 @@
         <v>1</v>
       </c>
       <c r="AB61" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -35551,28 +35582,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="11">
-        <v>15</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="11">
-        <v>10189</v>
+        <v>109</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>410</v>
       </c>
       <c r="E62" s="11">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G62" s="11">
-        <v>19800</v>
+        <v>100</v>
       </c>
       <c r="H62" s="11">
-        <v>19800000</v>
+        <v>100000</v>
       </c>
       <c r="I62" s="11">
-        <v>19800000</v>
+        <v>100000</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>43</v>
@@ -35586,20 +35614,21 @@
       <c r="M62" s="11">
         <v>0</v>
       </c>
+      <c r="N62" s="11">
+        <v>14</v>
+      </c>
       <c r="O62" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P62" s="34" t="s">
-        <v>1021</v>
-      </c>
-      <c r="R62" s="34" t="s">
-        <v>1044</v>
-      </c>
-      <c r="S62" s="34" t="s">
-        <v>541</v>
+        <v>965</v>
+      </c>
+      <c r="R62" s="34"/>
+      <c r="S62" s="11">
+        <v>100</v>
       </c>
       <c r="T62" s="34" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="U62" s="11" t="s">
         <v>406</v>
@@ -35611,14 +35640,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11">
+        <v>15</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="11">
+        <v>10189</v>
+      </c>
+      <c r="E63" s="11">
+        <v>111</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G63" s="11">
+        <v>19800</v>
+      </c>
+      <c r="H63" s="11">
+        <v>19800000</v>
+      </c>
+      <c r="I63" s="11">
+        <v>19800000</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="O63" s="11">
+        <v>8</v>
+      </c>
+      <c r="P63" s="34" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R63" s="34" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S63" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="T63" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="U63" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="X63" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="34" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="T64" s="34"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB62"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35627,7 +35756,7 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36070,7 +36199,7 @@
         <v>436</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>420</v>
@@ -36425,7 +36554,7 @@
         <v>588</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F17" s="25">
         <v>2000</v>
@@ -36483,7 +36612,7 @@
         <v>20000</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -36606,10 +36735,10 @@
         <v>28</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F22" s="12">
         <v>10000</v>
@@ -36625,16 +36754,16 @@
         <v>1</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="T22" s="12">
         <v>10000</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36645,10 +36774,10 @@
         <v>29</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F23" s="12">
         <v>20000</v>
@@ -36663,16 +36792,16 @@
         <v>2</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="T23" s="12">
         <v>20000</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V23" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36683,10 +36812,10 @@
         <v>30</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F24" s="12">
         <v>50000</v>
@@ -36701,16 +36830,16 @@
         <v>3</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="T24" s="12">
         <v>50000</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V24" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36721,10 +36850,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F25" s="12">
         <v>100000</v>
@@ -36739,16 +36868,16 @@
         <v>4</v>
       </c>
       <c r="Q25" s="43" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="T25" s="12">
         <v>100000</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36759,10 +36888,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F26" s="12">
         <v>150000</v>
@@ -36783,10 +36912,10 @@
         <v>150000</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36797,10 +36926,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F27" s="12">
         <v>300000</v>
@@ -36815,16 +36944,16 @@
         <v>6</v>
       </c>
       <c r="Q27" s="43" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="T27" s="12">
         <v>300000</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36835,10 +36964,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F28" s="12">
         <v>20000</v>
@@ -36853,16 +36982,16 @@
         <v>7</v>
       </c>
       <c r="Q28" s="43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="T28" s="12">
         <v>20000</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36873,10 +37002,10 @@
         <v>35</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F29" s="12">
         <v>50000</v>
@@ -36891,16 +37020,16 @@
         <v>8</v>
       </c>
       <c r="Q29" s="43" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="T29" s="12">
         <v>50000</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="V29" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -36914,7 +37043,7 @@
         <v>657</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F30" s="12">
         <v>100000</v>
@@ -36935,11 +37064,26 @@
         <v>100000</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="V30" s="24" t="s">
-        <v>1115</v>
-      </c>
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="43"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="24"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U32" s="3"/>
